--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -544,18 +544,18 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -713,12 +713,16 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -786,7 +790,11 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="n"/>
@@ -897,7 +905,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -955,7 +963,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -1040,7 +1048,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -1164,7 +1172,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -1199,7 +1207,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -1230,19 +1238,15 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -1281,7 +1285,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr"/>
@@ -1312,15 +1316,19 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="D24" s="11" t="inlineStr"/>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -1380,8 +1388,16 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
-      <c r="C26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
       <c r="F26" s="11" t="inlineStr"/>
@@ -1394,7 +1410,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -1411,16 +1427,12 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -1460,7 +1472,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -1536,9 +1548,9 @@
           <t>ASTRID</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="D31" s="10" t="inlineStr"/>
@@ -1553,7 +1565,7 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K31" s="4" t="inlineStr">
@@ -1574,16 +1586,8 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -1636,11 +1640,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -1714,7 +1714,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -1728,7 +1732,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -1767,19 +1771,15 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr"/>
@@ -1823,9 +1823,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr"/>
@@ -1841,15 +1841,19 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="L39" s="10" t="inlineStr"/>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -1864,7 +1868,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -1904,24 +1908,20 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="F41" s="7" t="inlineStr">
+      <c r="E41" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="n"/>
       <c r="I41" s="10" t="inlineStr">
@@ -1929,13 +1929,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="K41" s="10" t="inlineStr"/>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -1948,11 +1956,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="B42" s="11" t="inlineStr"/>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -1964,11 +1968,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -1995,7 +1995,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="10" t="inlineStr"/>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -2064,7 +2068,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -2091,16 +2099,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -2111,16 +2111,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -2161,11 +2153,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -2177,11 +2165,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -2225,12 +2209,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>NAYELLI</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -2245,10 +2229,14 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -2264,25 +2252,29 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="F52" s="11" t="inlineStr"/>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="n"/>
       <c r="I52" s="11" t="inlineStr">
@@ -2336,11 +2328,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -2352,9 +2340,9 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -2373,7 +2361,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2381,17 +2369,21 @@
           <t>BELINDA</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="E55" s="7" t="inlineStr">
+      <c r="F55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="n"/>
       <c r="I55" s="10" t="inlineStr">
@@ -2401,12 +2393,12 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="L55" s="10" t="inlineStr"/>
@@ -2424,17 +2416,17 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
         </is>
       </c>
       <c r="E56" s="7" t="inlineStr">
@@ -2457,24 +2449,20 @@
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="N56" s="7" t="inlineStr">
+      <c r="M56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="n"/>
@@ -2497,11 +2485,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -2609,7 +2593,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -2638,7 +2626,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -2698,11 +2686,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -2758,19 +2742,11 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="inlineStr"/>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -2797,35 +2773,39 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="M67" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="N67" s="5" t="inlineStr">
-        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="O67" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="P67" s="10" t="inlineStr"/>
+      <c r="N67" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="O67" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="P67" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="Q67" s="10" t="n"/>
     </row>
     <row r="68">
@@ -2873,7 +2853,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -2902,7 +2886,7 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
@@ -2912,7 +2896,7 @@
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>NAYELLI</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="M70" s="5" t="inlineStr">
@@ -2949,24 +2933,24 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>RENAN</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
@@ -2974,7 +2958,7 @@
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="P71" s="10" t="inlineStr"/>
@@ -3089,19 +3073,19 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -3261,12 +3245,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RENAN</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>YENNIFER</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -3323,7 +3307,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -3336,7 +3320,11 @@
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -3362,7 +3350,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr"/>
@@ -3451,7 +3439,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -3509,7 +3497,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -3565,11 +3553,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -3596,7 +3580,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -3625,7 +3613,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -3681,12 +3669,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -3714,19 +3706,15 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -3736,11 +3724,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -3757,7 +3741,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -3786,16 +3770,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -3808,7 +3788,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -3834,11 +3814,7 @@
           <t>JAVIER</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -3851,7 +3827,7 @@
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K23" s="10" t="inlineStr"/>
@@ -3873,14 +3849,26 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr"/>
-      <c r="E24" s="11" t="inlineStr"/>
-      <c r="F24" s="11" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
       <c r="I24" s="11" t="inlineStr">
@@ -3952,7 +3940,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -4018,7 +4006,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -4062,11 +4050,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -4078,11 +4062,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -4097,12 +4077,16 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -4113,7 +4097,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -4128,11 +4116,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4146,7 +4130,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -4190,11 +4174,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -4227,7 +4207,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>RENAN</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
@@ -4247,12 +4227,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>VENUSR</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -4280,11 +4260,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -4299,12 +4275,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -4315,16 +4295,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -4371,15 +4347,19 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
           <t>SHADIA</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="D39" s="10" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
       <c r="G39" s="10" t="inlineStr"/>
@@ -4394,14 +4374,26 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="L39" s="10" t="inlineStr"/>
-      <c r="M39" s="10" t="inlineStr"/>
-      <c r="N39" s="10" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="N39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
       <c r="Q39" s="10" t="inlineStr"/>
@@ -4441,21 +4433,29 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr"/>
-      <c r="F41" s="10" t="inlineStr"/>
+      <c r="F41" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
       <c r="I41" s="10" t="inlineStr">
@@ -4470,10 +4470,14 @@
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="L41" s="10" t="inlineStr"/>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -4513,21 +4517,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
+      <c r="C43" s="10" t="inlineStr"/>
+      <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
       <c r="G43" s="10" t="inlineStr"/>
@@ -4547,7 +4539,11 @@
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="L43" s="10" t="inlineStr"/>
+      <c r="L43" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -4599,11 +4595,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -4618,11 +4610,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -4649,7 +4637,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -4661,11 +4653,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -4707,7 +4695,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -4763,12 +4755,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -4798,12 +4790,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>YENIFER</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -4839,11 +4831,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -4872,7 +4860,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C54" s="11" t="inlineStr"/>
@@ -4888,15 +4876,19 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
           <t>SHADIA</t>
         </is>
       </c>
-      <c r="K54" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="L54" s="11" t="inlineStr"/>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
       <c r="O54" s="11" t="inlineStr"/>
@@ -4911,12 +4903,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -4937,7 +4929,11 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="10" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
@@ -4952,27 +4948,31 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="F56" s="11" t="inlineStr"/>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -4982,25 +4982,29 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K56" s="4" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M56" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="N56" s="11" t="inlineStr"/>
+      <c r="N56" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -5023,7 +5027,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -5050,21 +5058,9 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K58" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="L58" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
+      <c r="K58" s="11" t="inlineStr"/>
+      <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
       <c r="O58" s="11" t="inlineStr"/>
@@ -5089,11 +5085,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -5147,11 +5139,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -5178,7 +5166,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -5236,7 +5228,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -5292,12 +5288,12 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="L66" s="11" t="inlineStr"/>
@@ -5327,25 +5323,29 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="K67" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="N67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="M67" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -5368,11 +5368,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5401,7 +5397,7 @@
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K69" s="10" t="inlineStr"/>
@@ -5432,29 +5428,25 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="N70" s="7" t="inlineStr">
+      <c r="M70" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -5477,9 +5469,9 @@
           <t>23:00</t>
         </is>
       </c>
-      <c r="J71" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -5494,12 +5486,12 @@
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>RENAN</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
@@ -5507,7 +5499,11 @@
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="P71" s="10" t="inlineStr"/>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
@@ -5555,7 +5551,11 @@
           <t>23:30</t>
         </is>
       </c>
-      <c r="J73" s="10" t="inlineStr"/>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
       <c r="K73" s="10" t="inlineStr"/>
       <c r="L73" s="10" t="inlineStr"/>
       <c r="M73" s="10" t="inlineStr"/>
@@ -5620,19 +5620,19 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5789,12 +5789,16 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -5849,7 +5853,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -5857,13 +5861,21 @@
           <t>JUAN</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>RENAN</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr"/>
-      <c r="F7" s="10" t="inlineStr"/>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
       <c r="I7" s="10" t="inlineStr">
@@ -5973,7 +5985,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -6085,7 +6097,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -6141,11 +6153,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -6201,15 +6209,19 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -6236,15 +6248,19 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>GLADYS</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -6269,11 +6285,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -6302,7 +6314,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -6322,7 +6334,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
@@ -6347,8 +6359,16 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr"/>
-      <c r="C23" s="10" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -6374,21 +6394,17 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -6458,7 +6474,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -6508,7 +6524,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
@@ -6564,11 +6580,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -6582,7 +6594,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -6599,9 +6611,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -6630,16 +6642,8 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -6650,11 +6654,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -6696,7 +6696,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -6708,13 +6712,21 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
-      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -6727,18 +6739,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr"/>
-      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -6749,15 +6769,19 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>GLADYS</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -6782,11 +6806,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -6801,21 +6821,13 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="C37" s="10" t="inlineStr"/>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -6827,7 +6839,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -6848,7 +6860,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -6860,8 +6876,16 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="J38" s="11" t="inlineStr"/>
-      <c r="K38" s="11" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -6875,12 +6899,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -6891,21 +6919,17 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -6920,7 +6944,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -6973,12 +6997,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="K41" s="10" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -7019,7 +7047,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -7033,11 +7065,19 @@
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K43" s="10" t="inlineStr"/>
-      <c r="L43" s="10" t="inlineStr"/>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t>RENAN</t>
+        </is>
+      </c>
+      <c r="L43" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -7052,7 +7092,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr"/>
@@ -7081,7 +7121,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -7093,11 +7137,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -7139,16 +7179,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -7159,16 +7191,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -7209,7 +7233,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -7238,7 +7266,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -7252,7 +7280,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -7269,7 +7301,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -7298,56 +7330,28 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="F52" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="G52" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="H52" s="5" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="C52" s="11" t="inlineStr"/>
+      <c r="D52" s="11" t="inlineStr"/>
+      <c r="E52" s="11" t="inlineStr"/>
+      <c r="F52" s="11" t="inlineStr"/>
+      <c r="G52" s="11" t="inlineStr"/>
+      <c r="H52" s="11" t="inlineStr"/>
       <c r="I52" s="11" t="inlineStr">
         <is>
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -7361,7 +7365,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -7373,7 +7381,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -7400,12 +7412,16 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="K54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -7421,29 +7437,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="F55" s="7" t="inlineStr">
+      <c r="E55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -7453,14 +7465,10 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -7476,20 +7484,24 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -7564,7 +7576,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -7593,7 +7609,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -7622,7 +7638,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -7676,16 +7696,8 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -7742,7 +7754,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -7771,7 +7787,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -7802,7 +7818,7 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr"/>
@@ -7833,44 +7849,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="N67" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="O67" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="P67" s="5" t="inlineStr">
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="Q67" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="L67" s="10" t="inlineStr"/>
+      <c r="M67" s="10" t="inlineStr"/>
+      <c r="N67" s="10" t="inlineStr"/>
+      <c r="O67" s="10" t="inlineStr"/>
+      <c r="P67" s="10" t="inlineStr"/>
+      <c r="Q67" s="10" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
@@ -7890,7 +7882,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -7946,17 +7942,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="L70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="M70" s="5" t="inlineStr">
@@ -7991,33 +7987,41 @@
           <t>23:00</t>
         </is>
       </c>
-      <c r="J71" s="4" t="inlineStr">
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="N71" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="P71" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="O71" s="10" t="inlineStr"/>
-      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
@@ -8065,11 +8069,7 @@
           <t>23:30</t>
         </is>
       </c>
-      <c r="J73" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J73" s="10" t="inlineStr"/>
       <c r="K73" s="10" t="inlineStr"/>
       <c r="L73" s="10" t="inlineStr"/>
       <c r="M73" s="10" t="inlineStr"/>
@@ -8133,15 +8133,15 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
@@ -8303,12 +8303,16 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr"/>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -8376,16 +8380,12 @@
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
       <c r="I7" s="10" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -8663,11 +8663,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -8696,7 +8692,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -8727,7 +8723,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -8735,11 +8731,7 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -8764,14 +8756,14 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr"/>
@@ -8801,7 +8793,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -8832,12 +8824,12 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="D22" s="11" t="inlineStr"/>
@@ -8882,16 +8874,8 @@
           <t>RAQUEL</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+      <c r="C23" s="10" t="inlineStr"/>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -8916,14 +8900,14 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr"/>
@@ -8955,12 +8939,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -9000,7 +8988,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -9019,7 +9007,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
@@ -9052,7 +9040,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -9066,7 +9058,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -9137,9 +9129,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -9173,11 +9165,7 @@
           <t>MIRIAN</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -9188,11 +9176,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -9225,7 +9209,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -9254,16 +9238,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -9284,10 +9264,14 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -9297,14 +9281,14 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K35" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -9325,11 +9309,7 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -9342,7 +9322,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -9377,12 +9357,12 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="L37" s="10" t="inlineStr"/>
@@ -9415,11 +9395,7 @@
           <t>RAQUEL</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9433,7 +9409,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -9445,14 +9425,14 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="L39" s="10" t="inlineStr"/>
@@ -9468,7 +9448,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -9480,12 +9464,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -9499,26 +9487,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="D41" s="10" t="inlineStr"/>
+      <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
@@ -9527,12 +9507,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -9546,7 +9530,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -9560,7 +9548,7 @@
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K42" s="11" t="inlineStr"/>
@@ -9589,9 +9577,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K43" s="7" t="inlineStr">
@@ -9698,16 +9686,8 @@
           <t>JOSE</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="C47" s="10" t="inlineStr"/>
+      <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
       <c r="G47" s="10" t="inlineStr"/>
@@ -9722,11 +9702,7 @@
           <t>MIRIAN</t>
         </is>
       </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -9767,7 +9743,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -9823,7 +9803,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -9842,11 +9822,7 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -9867,7 +9843,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -9875,16 +9851,12 @@
           <t>SANDRAP</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
       <c r="I52" s="11" t="inlineStr">
@@ -9950,7 +9922,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -9967,42 +9943,50 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="F55" s="7" t="inlineStr">
+      <c r="G55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="K55" s="10" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -10018,15 +10002,19 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="D56" s="11" t="inlineStr"/>
       <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
@@ -10036,26 +10024,18 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="L56" s="11" t="inlineStr"/>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -10079,7 +10059,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -10133,11 +10117,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -10223,16 +10203,8 @@
           <t>JOSE</t>
         </is>
       </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="L62" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="K62" s="11" t="inlineStr"/>
+      <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
       <c r="O62" s="11" t="inlineStr"/>
@@ -10288,7 +10260,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -10344,7 +10320,7 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr"/>
@@ -10380,7 +10356,7 @@
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
@@ -10388,9 +10364,9 @@
           <t>SANDRAP</t>
         </is>
       </c>
-      <c r="M67" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="N67" s="5" t="inlineStr">
@@ -10398,11 +10374,7 @@
           <t>MAFER</t>
         </is>
       </c>
-      <c r="O67" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
     </row>
@@ -10484,30 +10456,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="L70" s="5" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="N70" s="7" t="inlineStr">
+      <c r="O70" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
     </row>
@@ -10536,21 +10512,29 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="N71" s="10" t="inlineStr"/>
-      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
@@ -10665,13 +10649,13 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
@@ -10838,11 +10822,7 @@
           <t>RENAN</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="C5" s="10" t="inlineStr"/>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -10868,7 +10848,11 @@
           <t>06:45</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
@@ -10900,26 +10884,18 @@
           <t>ATHINA</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="E7" s="10" t="inlineStr"/>
+      <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
       <c r="I7" s="10" t="inlineStr">
@@ -10942,7 +10918,11 @@
           <t>07:15</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="11" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
@@ -10969,12 +10949,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -11029,7 +11013,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -11085,11 +11069,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -11143,11 +11123,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -11207,7 +11183,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -11263,12 +11239,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -11296,12 +11276,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -11311,7 +11291,7 @@
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr"/>
@@ -11322,11 +11302,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -11353,7 +11329,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="J21" s="10" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="K21" s="10" t="inlineStr"/>
       <c r="L21" s="10" t="inlineStr"/>
       <c r="M21" s="10" t="inlineStr"/>
@@ -11375,7 +11355,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="D22" s="11" t="inlineStr"/>
@@ -11393,16 +11373,12 @@
           <t>ATHINA</t>
         </is>
       </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
       <c r="O22" s="11" t="inlineStr"/>
@@ -11415,16 +11391,8 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -11435,7 +11403,11 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="J23" s="10" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K23" s="10" t="inlineStr"/>
       <c r="L23" s="10" t="inlineStr"/>
       <c r="M23" s="10" t="inlineStr"/>
@@ -11450,21 +11422,17 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -11493,9 +11461,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -11540,7 +11508,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -11555,12 +11527,16 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -11586,7 +11562,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -11598,11 +11578,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -11656,11 +11632,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -11675,7 +11647,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -11706,11 +11682,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -11724,7 +11696,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -11770,10 +11742,14 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -11784,16 +11760,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -11807,26 +11779,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
+      <c r="D35" s="10" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -11837,15 +11801,19 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="K35" s="5" t="inlineStr">
+          <t>GLADYS</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -11885,8 +11853,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="10" t="inlineStr"/>
-      <c r="C37" s="10" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -11904,7 +11880,7 @@
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="L37" s="10" t="inlineStr"/>
@@ -11932,11 +11908,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J38" s="11" t="inlineStr"/>
       <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
@@ -11953,19 +11925,11 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr"/>
+      <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
       <c r="G39" s="10" t="inlineStr"/>
@@ -11977,12 +11941,12 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="L39" s="7" t="inlineStr">
@@ -12002,7 +11966,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -12016,14 +11984,10 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -12037,26 +12001,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
           <t>MARIAC</t>
         </is>
       </c>
+      <c r="D41" s="10" t="inlineStr"/>
+      <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
@@ -12084,7 +12040,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -12096,7 +12056,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -12111,11 +12075,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -12127,9 +12087,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="K43" s="7" t="inlineStr">
@@ -12150,7 +12110,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -12216,7 +12180,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="11" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -12231,11 +12199,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -12247,16 +12211,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -12272,7 +12228,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="C48" s="11" t="inlineStr"/>
@@ -12301,7 +12257,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -12330,14 +12290,10 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -12348,16 +12304,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K50" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
+      <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -12373,7 +12321,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -12404,7 +12352,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -12412,16 +12360,12 @@
           <t>CRISTHIAN</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -12430,8 +12374,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="11" t="inlineStr"/>
-      <c r="K52" s="11" t="inlineStr"/>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -12445,7 +12397,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -12472,16 +12428,8 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
+      <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
       <c r="F54" s="11" t="inlineStr"/>
@@ -12494,7 +12442,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -12513,20 +12461,24 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="D55" s="7" t="inlineStr">
+      <c r="E55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -12535,8 +12487,16 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="10" t="inlineStr"/>
-      <c r="K55" s="10" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -12552,20 +12512,24 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -12574,31 +12538,23 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="N56" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="M56" s="11" t="inlineStr"/>
+      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -12621,7 +12577,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -12648,11 +12608,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -12681,7 +12637,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -12737,7 +12693,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -12764,11 +12724,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -12797,7 +12753,7 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="K63" s="6" t="inlineStr">
@@ -12830,7 +12786,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -12859,14 +12819,10 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="K65" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -12894,7 +12850,7 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr"/>
@@ -12925,7 +12881,7 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
@@ -12933,16 +12889,12 @@
           <t>CRISTHIAN</t>
         </is>
       </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -12966,7 +12918,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -12993,16 +12949,8 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K69" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
+      <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
       <c r="N69" s="10" t="inlineStr"/>
@@ -13030,22 +12978,22 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
           <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="M70" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
         </is>
       </c>
       <c r="N70" s="5" t="inlineStr">
@@ -13081,30 +13029,34 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="N71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
@@ -13218,18 +13170,18 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -13387,12 +13339,16 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr"/>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -13455,16 +13411,12 @@
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -13515,12 +13467,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -13575,7 +13531,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -13637,7 +13593,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -13695,12 +13651,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr"/>
@@ -13757,7 +13713,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -13815,19 +13771,15 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -13854,19 +13806,15 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -13891,9 +13839,9 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -13922,8 +13870,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr"/>
-      <c r="C22" s="11" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -13959,19 +13915,15 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
           <t>CRISTHIAN</t>
         </is>
       </c>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -13998,7 +13950,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -14039,21 +13991,17 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -14080,7 +14028,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -14096,7 +14044,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="K26" s="4" t="inlineStr">
@@ -14119,7 +14067,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
@@ -14127,11 +14075,7 @@
           <t>JUDELY</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
       <c r="G27" s="10" t="inlineStr"/>
@@ -14156,11 +14100,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -14174,7 +14114,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -14245,11 +14185,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -14276,7 +14212,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -14290,7 +14230,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -14319,7 +14259,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -14365,24 +14309,36 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>RENAN</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="E35" s="10" t="inlineStr"/>
-      <c r="F35" s="10" t="inlineStr"/>
-      <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
@@ -14391,19 +14347,15 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -14416,11 +14368,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -14432,9 +14380,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -14451,12 +14399,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -14467,8 +14419,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="10" t="inlineStr"/>
-      <c r="K37" s="10" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -14482,7 +14442,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -14496,19 +14460,15 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
           <t>CRISTHIAN</t>
         </is>
       </c>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -14521,16 +14481,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
+      <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -14543,7 +14495,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
@@ -14568,11 +14520,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -14584,21 +14532,17 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -14611,9 +14555,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -14621,11 +14565,7 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -14635,13 +14575,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="K41" s="10" t="inlineStr"/>
-      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -14666,16 +14614,8 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="K42" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
+      <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
       <c r="N42" s="11" t="inlineStr"/>
@@ -14689,7 +14629,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -14701,16 +14645,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -14724,11 +14664,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -14755,7 +14691,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -14767,7 +14707,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -14809,7 +14753,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -14836,7 +14784,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -14863,11 +14815,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -14896,10 +14844,14 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C50" s="11" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -14910,8 +14862,16 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
-      <c r="K50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -14925,11 +14885,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="B51" s="10" t="inlineStr"/>
       <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
@@ -14946,11 +14902,7 @@
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="K51" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -14966,34 +14918,22 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr">
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="G52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="E52" s="11" t="inlineStr"/>
+      <c r="F52" s="11" t="inlineStr"/>
+      <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
       <c r="I52" s="11" t="inlineStr">
         <is>
@@ -15031,7 +14971,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -15046,7 +14990,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -15058,16 +15006,8 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
+      <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -15083,12 +15023,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -15111,24 +15051,12 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="M55" s="3" t="inlineStr">
-        <is>
           <t>ANDREA</t>
         </is>
       </c>
+      <c r="K55" s="10" t="inlineStr"/>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -15147,7 +15075,7 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
@@ -15164,9 +15092,9 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -15174,11 +15102,7 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -15230,7 +15154,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15284,7 +15212,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -15338,11 +15270,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -15371,15 +15299,19 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="K63" s="6" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="L63" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
-      <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
       <c r="O63" s="10" t="inlineStr"/>
@@ -15404,11 +15336,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -15437,10 +15365,14 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K65" s="10" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -15468,7 +15400,7 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr"/>
@@ -15499,39 +15431,23 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="N67" s="3" t="inlineStr">
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="O67" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="P67" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="M67" s="10" t="inlineStr"/>
+      <c r="N67" s="10" t="inlineStr"/>
+      <c r="O67" s="10" t="inlineStr"/>
+      <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
     </row>
     <row r="68">
@@ -15552,7 +15468,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -15579,7 +15499,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -15608,12 +15532,12 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
@@ -15670,7 +15594,7 @@
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
@@ -15680,10 +15604,14 @@
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
@@ -15795,16 +15723,16 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
@@ -15965,12 +15893,16 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr"/>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -16025,22 +15957,22 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="F7" s="10" t="inlineStr"/>
@@ -16066,11 +15998,7 @@
           <t>07:15</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
+      <c r="B8" s="11" t="inlineStr"/>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="11" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
@@ -16155,16 +16083,8 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
+      <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -16219,7 +16139,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -16248,11 +16168,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -16279,9 +16195,9 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -16310,7 +16226,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -16337,7 +16257,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -16393,14 +16317,10 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -16428,7 +16348,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -16436,7 +16356,11 @@
           <t>MARCO</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -16463,7 +16387,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -16492,12 +16416,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>RAQUEL</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -16510,7 +16438,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -16533,15 +16461,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
-        </is>
-      </c>
-      <c r="D23" s="10" t="inlineStr"/>
+          <t>GLADYS</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -16551,11 +16483,7 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
+      <c r="J23" s="10" t="inlineStr"/>
       <c r="K23" s="10" t="inlineStr"/>
       <c r="L23" s="10" t="inlineStr"/>
       <c r="M23" s="10" t="inlineStr"/>
@@ -16572,29 +16500,17 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
       <c r="I24" s="11" t="inlineStr">
@@ -16623,7 +16539,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -16633,7 +16549,7 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr"/>
@@ -16660,7 +16576,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -16672,11 +16592,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -16691,16 +16607,12 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -16728,7 +16640,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
@@ -16742,11 +16654,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -16788,7 +16696,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -16800,7 +16712,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -16817,12 +16733,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="D31" s="10" t="inlineStr"/>
@@ -16835,7 +16751,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -16850,7 +16770,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -16862,7 +16786,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -16904,11 +16832,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -16922,14 +16846,10 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -16945,7 +16865,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -16953,23 +16873,31 @@
           <t>RAUL</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>RENAN</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="10" t="inlineStr"/>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="I35" s="10" t="inlineStr">
         <is>
           <t>14:00</t>
@@ -16977,7 +16905,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -16985,7 +16913,11 @@
           <t>MARCO</t>
         </is>
       </c>
-      <c r="L35" s="10" t="inlineStr"/>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -17012,7 +16944,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -17045,12 +16977,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>RAQUEL</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -17064,7 +17000,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -17078,15 +17018,19 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr"/>
+          <t>GLADYS</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -17113,24 +17057,16 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="M39" s="7" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="L39" s="10" t="inlineStr"/>
+      <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
@@ -17144,17 +17080,17 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
@@ -17170,21 +17106,17 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -17197,9 +17129,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -17217,13 +17149,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="K41" s="10" t="inlineStr"/>
-      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -17236,7 +17176,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -17248,11 +17192,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -17269,12 +17209,12 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="D43" s="10" t="inlineStr"/>
@@ -17287,14 +17227,14 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K43" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="L43" s="10" t="inlineStr"/>
@@ -17364,7 +17304,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -17391,11 +17335,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -17407,9 +17347,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="K47" s="10" t="inlineStr"/>
@@ -17453,7 +17393,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -17465,7 +17409,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="10" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -17482,7 +17430,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -17498,12 +17446,12 @@
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K50" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="L50" s="11" t="inlineStr"/>
@@ -17519,21 +17467,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B51" s="10" t="inlineStr"/>
+      <c r="C51" s="10" t="inlineStr"/>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -17543,11 +17479,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="J51" s="10" t="inlineStr"/>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -17564,29 +17496,17 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="F52" s="5" t="inlineStr">
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
+      <c r="E52" s="11" t="inlineStr"/>
+      <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
       <c r="I52" s="11" t="inlineStr">
@@ -17625,7 +17545,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -17672,15 +17596,31 @@
           <t>ARIADNA</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="D55" s="10" t="inlineStr"/>
-      <c r="E55" s="10" t="inlineStr"/>
-      <c r="F55" s="10" t="inlineStr"/>
-      <c r="G55" s="10" t="inlineStr"/>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
@@ -17689,17 +17629,17 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L55" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="M55" s="5" t="inlineStr">
@@ -17720,12 +17660,12 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
@@ -17742,9 +17682,9 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -17777,7 +17717,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -17806,12 +17750,12 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K58" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="L58" s="11" t="inlineStr"/>
@@ -17866,11 +17810,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -17897,8 +17837,16 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
-      <c r="K61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K61" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
       <c r="N61" s="10" t="inlineStr"/>
@@ -17924,11 +17872,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -17988,10 +17932,14 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="K64" s="11" t="inlineStr"/>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
@@ -18017,8 +17965,16 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
-      <c r="K65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -18044,21 +18000,9 @@
           <t>21:45</t>
         </is>
       </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J66" s="11" t="inlineStr"/>
+      <c r="K66" s="11" t="inlineStr"/>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -18085,39 +18029,27 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="N67" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="O67" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="P67" s="5" t="inlineStr">
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="N67" s="10" t="inlineStr"/>
+      <c r="O67" s="10" t="inlineStr"/>
+      <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
     </row>
     <row r="68">
@@ -18165,11 +18097,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -18198,27 +18126,39 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="N70" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
-      <c r="O70" s="11" t="inlineStr"/>
-      <c r="P70" s="11" t="inlineStr"/>
+      <c r="P70" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="Q70" s="11" t="inlineStr"/>
     </row>
     <row r="71">
@@ -18246,30 +18186,34 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>RENAN</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="P71" s="10" t="inlineStr"/>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -543,19 +543,19 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -720,7 +720,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -777,24 +777,20 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
           <t>JUAN</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="n"/>
@@ -818,7 +814,11 @@
           <t>07:15</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="11" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -1019,7 +1019,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -1137,7 +1141,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -1172,7 +1176,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -1207,10 +1211,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr"/>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -1238,7 +1246,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -1258,19 +1266,15 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
           <t>JUAN</t>
         </is>
       </c>
-      <c r="L22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
       <c r="O22" s="11" t="inlineStr"/>
@@ -1285,7 +1289,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr"/>
@@ -1299,7 +1303,11 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="J23" s="10" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K23" s="10" t="inlineStr"/>
       <c r="L23" s="10" t="inlineStr"/>
       <c r="M23" s="10" t="inlineStr"/>
@@ -1316,19 +1324,15 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -1390,14 +1394,10 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
       <c r="F26" s="11" t="inlineStr"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -1427,12 +1427,16 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -1472,7 +1476,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -1489,7 +1493,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -1528,7 +1536,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -1545,7 +1557,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1640,7 +1652,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -1652,12 +1668,16 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -1671,19 +1691,31 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>RENAN</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr"/>
-      <c r="E35" s="10" t="inlineStr"/>
-      <c r="F35" s="10" t="inlineStr"/>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="n"/>
       <c r="I35" s="10" t="inlineStr">
@@ -1693,7 +1725,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -1714,11 +1746,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -1732,10 +1760,14 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr"/>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -1751,7 +1783,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -1771,7 +1803,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -1806,7 +1838,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr"/>
@@ -1825,7 +1857,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr"/>
@@ -1841,19 +1873,15 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -1868,7 +1896,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -1903,12 +1931,12 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
@@ -1916,12 +1944,16 @@
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>YENNIFER_S</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="n"/>
       <c r="I41" s="10" t="inlineStr">
@@ -1931,7 +1963,7 @@
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
@@ -1941,7 +1973,7 @@
       </c>
       <c r="L41" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="M41" s="10" t="inlineStr"/>
@@ -1968,8 +2000,16 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
-      <c r="K42" s="11" t="inlineStr"/>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="K42" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
       <c r="N42" s="11" t="inlineStr"/>
@@ -1983,7 +2023,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -1997,7 +2041,7 @@
       </c>
       <c r="J43" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="K43" s="10" t="inlineStr"/>
@@ -2084,7 +2128,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="11" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -2099,7 +2147,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -2180,7 +2232,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -2209,15 +2265,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>NAYELLI</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -2229,14 +2289,10 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
           <t>ANDREA</t>
         </is>
       </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -2252,29 +2308,21 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
           <t>CARLOS</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="F52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="E52" s="11" t="inlineStr"/>
+      <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="n"/>
       <c r="I52" s="11" t="inlineStr">
@@ -2282,12 +2330,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -2301,7 +2353,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -2328,7 +2384,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -2340,12 +2400,16 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="K54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -2361,29 +2425,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="F55" s="7" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="n"/>
       <c r="I55" s="10" t="inlineStr">
@@ -2393,14 +2453,10 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -2416,24 +2472,20 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="n"/>
@@ -2444,12 +2496,12 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
@@ -2457,12 +2509,16 @@
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="M56" s="7" t="inlineStr">
+      <c r="M56" s="5" t="inlineStr">
+        <is>
+          <t>YENNIFER_S</t>
+        </is>
+      </c>
+      <c r="N56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="n"/>
@@ -2512,7 +2568,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -2626,7 +2686,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -2655,11 +2715,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -2713,8 +2769,16 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
-      <c r="K65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -2742,10 +2806,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -2773,7 +2841,7 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
@@ -2783,29 +2851,17 @@
       </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="M67" s="3" t="inlineStr">
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="N67" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="O67" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="P67" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="N67" s="10" t="inlineStr"/>
+      <c r="O67" s="10" t="inlineStr"/>
+      <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="n"/>
     </row>
     <row r="68">
@@ -2826,7 +2882,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -2853,9 +2913,9 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="K69" s="10" t="inlineStr"/>
@@ -2886,30 +2946,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="N70" s="7" t="inlineStr">
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="N70" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="O70" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="n"/>
     </row>
@@ -2933,32 +2997,32 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>RENAN</t>
         </is>
       </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="P71" s="10" t="inlineStr"/>
@@ -3073,19 +3137,19 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -3315,16 +3379,12 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -3439,7 +3499,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -3497,7 +3557,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -3582,7 +3642,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -3613,7 +3673,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -3669,16 +3729,12 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -3706,7 +3762,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -3739,11 +3795,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -3770,12 +3822,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>RAQUEL</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -3811,11 +3867,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr"/>
-      <c r="D23" s="10" t="inlineStr"/>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -3846,7 +3910,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -3924,7 +3988,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -3940,7 +4004,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -3990,7 +4054,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
@@ -4006,7 +4070,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -4050,7 +4114,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -4082,11 +4150,7 @@
           <t>FIORELLA</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -4099,7 +4163,7 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="K31" s="10" t="inlineStr"/>
@@ -4128,11 +4192,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -4207,12 +4267,12 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>RENAN</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -4227,7 +4287,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -4275,9 +4335,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -4295,12 +4355,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>RAQUEL</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -4328,11 +4392,19 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
-      <c r="L38" s="11" t="inlineStr"/>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -4347,7 +4419,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -4371,7 +4443,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K39" s="3" t="inlineStr">
@@ -4404,7 +4476,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -4433,29 +4509,25 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="F41" s="7" t="inlineStr">
+      <c r="E41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
       <c r="I41" s="10" t="inlineStr">
@@ -4465,7 +4537,7 @@
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
@@ -4517,7 +4589,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -4531,19 +4607,15 @@
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K43" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -4639,7 +4711,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -4695,11 +4767,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -4726,7 +4794,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -4738,7 +4810,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -4755,7 +4831,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -4793,16 +4869,12 @@
           <t>ARIADNA</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -4812,12 +4884,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -4831,7 +4907,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -4843,7 +4923,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -4860,10 +4944,14 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C54" s="11" t="inlineStr"/>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
       <c r="F54" s="11" t="inlineStr"/>
@@ -4876,19 +4964,15 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
           <t>SHADIA</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr">
+      <c r="K54" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
       <c r="O54" s="11" t="inlineStr"/>
@@ -4903,7 +4987,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -4911,9 +4995,9 @@
           <t>RAUL</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
@@ -4931,7 +5015,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K55" s="10" t="inlineStr"/>
@@ -4948,31 +5032,23 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="F56" s="7" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="E56" s="11" t="inlineStr"/>
+      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -4982,29 +5058,25 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K56" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="N56" s="7" t="inlineStr">
+      <c r="M56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -5027,11 +5099,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -5058,7 +5126,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -5168,7 +5240,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -5228,11 +5300,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -5259,7 +5327,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -5288,15 +5360,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -5331,21 +5407,13 @@
           <t>FIORELLA</t>
         </is>
       </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="M67" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="N67" s="5" t="inlineStr">
+      <c r="L67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="M67" s="10" t="inlineStr"/>
+      <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -5368,7 +5436,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5397,10 +5469,14 @@
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K69" s="10" t="inlineStr"/>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
       <c r="N69" s="10" t="inlineStr"/>
@@ -5428,7 +5504,7 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
@@ -5436,9 +5512,9 @@
           <t>RAUL</t>
         </is>
       </c>
-      <c r="L70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
@@ -5469,9 +5545,9 @@
           <t>23:00</t>
         </is>
       </c>
-      <c r="J71" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -5484,26 +5560,18 @@
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
@@ -5551,11 +5619,7 @@
           <t>23:30</t>
         </is>
       </c>
-      <c r="J73" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
+      <c r="J73" s="10" t="inlineStr"/>
       <c r="K73" s="10" t="inlineStr"/>
       <c r="L73" s="10" t="inlineStr"/>
       <c r="M73" s="10" t="inlineStr"/>
@@ -5620,18 +5684,18 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -5794,12 +5858,16 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>RENAN</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -5853,29 +5921,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
       <c r="I7" s="10" t="inlineStr">
@@ -5985,7 +6049,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -6100,7 +6164,11 @@
           <t>JAVIER</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -6153,7 +6221,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>GLADYS</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -6207,21 +6279,13 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="10" t="inlineStr"/>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -6248,12 +6312,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -6285,7 +6349,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -6314,7 +6382,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -6334,12 +6402,12 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="L22" s="5" t="inlineStr">
@@ -6366,7 +6434,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr"/>
@@ -6394,17 +6462,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -6460,7 +6532,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -6474,7 +6550,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -6522,11 +6598,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -6580,7 +6652,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -6597,7 +6673,11 @@
           <t>JAVIER</t>
         </is>
       </c>
-      <c r="K30" s="11" t="inlineStr"/>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
       <c r="N30" s="11" t="inlineStr"/>
@@ -6611,9 +6691,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -6654,7 +6734,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>GLADYS</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -6698,10 +6782,14 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -6712,21 +6800,13 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
+      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -6741,24 +6821,16 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -6769,12 +6841,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L35" s="4" t="inlineStr">
@@ -6806,7 +6878,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -6821,13 +6897,21 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -6839,7 +6923,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -6860,11 +6944,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -6883,7 +6963,7 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="L38" s="11" t="inlineStr"/>
@@ -6899,16 +6979,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -6919,17 +6995,21 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="L39" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -6947,7 +7027,11 @@
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -6973,22 +7057,26 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="E41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
@@ -6997,18 +7085,26 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="L41" s="10" t="inlineStr"/>
-      <c r="M41" s="10" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>RENAN</t>
+        </is>
+      </c>
+      <c r="M41" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
       <c r="P41" s="10" t="inlineStr"/>
@@ -7047,11 +7143,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -7063,21 +7155,13 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K43" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="K43" s="10" t="inlineStr"/>
+      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -7090,11 +7174,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -7121,11 +7201,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -7179,8 +7255,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
-      <c r="C47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -7218,7 +7302,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="J48" s="11" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K48" s="11" t="inlineStr"/>
       <c r="L48" s="11" t="inlineStr"/>
       <c r="M48" s="11" t="inlineStr"/>
@@ -7235,7 +7323,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr"/>
@@ -7266,7 +7354,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -7282,7 +7370,7 @@
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K50" s="11" t="inlineStr"/>
@@ -7301,7 +7389,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -7330,12 +7418,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr"/>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -7346,12 +7438,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -7367,7 +7463,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr"/>
@@ -7381,11 +7477,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -7400,7 +7492,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -7412,16 +7508,12 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="K54" s="4" t="inlineStr">
+      <c r="J54" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -7437,12 +7529,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
           <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -7468,7 +7560,11 @@
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="K55" s="10" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -7484,24 +7580,20 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -7510,22 +7602,26 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="L56" s="7" t="inlineStr">
+      <c r="M56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -7576,11 +7672,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -7607,11 +7699,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -7638,11 +7726,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -7696,8 +7780,16 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
-      <c r="K62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -7756,7 +7848,7 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr"/>
@@ -7787,7 +7879,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -7818,10 +7910,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -7849,15 +7945,19 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -7884,7 +7984,7 @@
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr"/>
@@ -7913,7 +8013,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -7942,30 +8046,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
           <t>ENZO</t>
         </is>
       </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="N70" s="7" t="inlineStr">
+      <c r="O70" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
     </row>
@@ -7987,41 +8095,29 @@
           <t>23:00</t>
         </is>
       </c>
-      <c r="J71" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
+      <c r="L71" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="M71" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="N71" s="10" t="inlineStr"/>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
@@ -8133,17 +8229,17 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
@@ -8310,7 +8406,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -8367,7 +8463,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -8382,7 +8478,7 @@
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="F7" s="10" t="inlineStr"/>
@@ -8495,7 +8591,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -8553,7 +8649,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -8609,7 +8705,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -8692,7 +8792,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -8721,16 +8821,12 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -8758,15 +8854,19 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -8791,11 +8891,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -8824,7 +8920,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -8844,7 +8940,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
@@ -8871,10 +8967,14 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr"/>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -8900,17 +9000,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>RAQUEL</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -8939,16 +9043,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -8974,7 +9074,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -8988,7 +9092,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -9005,16 +9109,12 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -9042,7 +9142,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
@@ -9058,7 +9158,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -9102,7 +9202,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -9114,7 +9218,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -9129,9 +9237,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -9162,7 +9270,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
@@ -9191,11 +9299,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -9209,7 +9313,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CRISTHIAN</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -9226,7 +9330,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -9259,17 +9367,17 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>RENAN</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr"/>
@@ -9283,15 +9391,19 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -9306,7 +9418,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
@@ -9320,11 +9432,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -9357,7 +9465,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -9392,10 +9500,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9409,11 +9521,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -9425,17 +9533,21 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>RAQUEL</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="L39" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -9450,7 +9562,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -9464,16 +9576,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -9507,17 +9615,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -9532,7 +9644,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C42" s="11" t="inlineStr"/>
@@ -9546,11 +9658,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -9577,16 +9685,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -9600,7 +9704,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -9627,7 +9735,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -9639,7 +9751,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -9683,10 +9799,14 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr"/>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -9699,7 +9819,7 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K47" s="10" t="inlineStr"/>
@@ -9743,11 +9863,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -9803,10 +9919,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -9819,7 +9939,7 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="K51" s="10" t="inlineStr"/>
@@ -9841,21 +9961,13 @@
           <t>ARIADNA</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="inlineStr"/>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -9883,7 +9995,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -9922,11 +10038,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -9948,29 +10060,17 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="G55" s="7" t="inlineStr">
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="E55" s="10" t="inlineStr"/>
+      <c r="F55" s="10" t="inlineStr"/>
+      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
@@ -9979,14 +10079,10 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -10000,22 +10096,26 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -10061,7 +10161,7 @@
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K57" s="10" t="inlineStr"/>
@@ -10117,7 +10217,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -10144,7 +10248,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -10200,10 +10308,14 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K62" s="11" t="inlineStr"/>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -10262,7 +10374,7 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr"/>
@@ -10320,10 +10432,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -10359,21 +10475,17 @@
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="N67" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -10396,7 +10508,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -10423,11 +10539,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -10461,29 +10573,21 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="N70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="O70" s="7" t="inlineStr">
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="M70" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="N70" s="11" t="inlineStr"/>
+      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
     </row>
@@ -10507,32 +10611,32 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>RENAN</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="P71" s="10" t="inlineStr"/>
@@ -10647,17 +10751,17 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
@@ -10819,10 +10923,14 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr"/>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -10848,11 +10956,7 @@
           <t>06:45</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="B6" s="11" t="inlineStr"/>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
@@ -10884,17 +10988,21 @@
           <t>ATHINA</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -10918,11 +11026,7 @@
           <t>07:15</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="B8" s="11" t="inlineStr"/>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="11" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
@@ -10949,16 +11053,12 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
+      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -11013,7 +11113,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -11069,7 +11169,11 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>GLADYS</t>
+        </is>
+      </c>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -11123,7 +11227,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -11150,11 +11258,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -11183,7 +11287,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -11241,7 +11345,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -11276,12 +11380,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -11289,11 +11393,7 @@
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
       <c r="H20" s="11" t="inlineStr"/>
@@ -11317,8 +11417,16 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr"/>
-      <c r="C21" s="10" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -11329,11 +11437,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="J21" s="10" t="inlineStr"/>
       <c r="K21" s="10" t="inlineStr"/>
       <c r="L21" s="10" t="inlineStr"/>
       <c r="M21" s="10" t="inlineStr"/>
@@ -11353,11 +11457,7 @@
           <t>LUCERO</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -11373,12 +11473,16 @@
           <t>ATHINA</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
       <c r="O22" s="11" t="inlineStr"/>
@@ -11391,9 +11495,21 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr"/>
-      <c r="C23" s="10" t="inlineStr"/>
-      <c r="D23" s="10" t="inlineStr"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -11403,11 +11519,7 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J23" s="10" t="inlineStr"/>
       <c r="K23" s="10" t="inlineStr"/>
       <c r="L23" s="10" t="inlineStr"/>
       <c r="M23" s="10" t="inlineStr"/>
@@ -11427,11 +11539,7 @@
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -11461,16 +11569,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -11496,7 +11600,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -11510,7 +11618,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -11527,16 +11635,12 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -11562,12 +11666,16 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="11" t="inlineStr"/>
@@ -11578,7 +11686,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="11" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>GLADYS</t>
+        </is>
+      </c>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -11632,7 +11744,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -11649,10 +11765,14 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -11663,11 +11783,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="J31" s="10" t="inlineStr"/>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -11682,7 +11798,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -11696,7 +11816,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>CAMILA</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -11740,16 +11860,8 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -11781,15 +11893,19 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>RENAN</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -11801,12 +11917,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="L35" s="5" t="inlineStr">
@@ -11826,7 +11942,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -11838,8 +11958,16 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
-      <c r="K36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -11853,16 +11981,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -11878,11 +12002,7 @@
           <t>LUCERO</t>
         </is>
       </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -11908,8 +12028,16 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="J38" s="11" t="inlineStr"/>
-      <c r="K38" s="11" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -11925,10 +12053,14 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr"/>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -11941,7 +12073,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
@@ -11949,11 +12081,7 @@
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -11968,10 +12096,14 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="C40" s="11" t="inlineStr"/>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -11982,12 +12114,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -12001,17 +12137,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -12021,13 +12161,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="K41" s="10" t="inlineStr"/>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -12040,11 +12188,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="B42" s="11" t="inlineStr"/>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -12056,11 +12200,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -12075,8 +12215,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
-      <c r="C43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
@@ -12087,17 +12235,21 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="L43" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -12112,7 +12264,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr"/>
@@ -12180,11 +12332,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
+      <c r="J46" s="11" t="inlineStr"/>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -12199,7 +12347,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -12211,7 +12363,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -12226,11 +12382,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -12257,11 +12409,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -12288,11 +12436,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -12321,11 +12465,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
-      <c r="D51" s="10" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -12335,7 +12487,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -12352,17 +12508,17 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>ALVARO</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="E52" s="11" t="inlineStr"/>
@@ -12374,16 +12530,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -12397,11 +12549,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -12428,7 +12576,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -12442,10 +12594,14 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K54" s="11" t="inlineStr"/>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -12461,25 +12617,29 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="E55" s="7" t="inlineStr">
+      <c r="F55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -12489,12 +12649,12 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
           <t>MARIA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
         </is>
       </c>
       <c r="L55" s="10" t="inlineStr"/>
@@ -12510,27 +12670,31 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -12538,19 +12702,19 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
         </is>
       </c>
       <c r="M56" s="11" t="inlineStr"/>
@@ -12577,11 +12741,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -12608,8 +12768,16 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
-      <c r="K58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
@@ -12637,7 +12805,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -12693,11 +12861,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -12724,7 +12888,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -12751,16 +12919,12 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="K63" s="6" t="inlineStr">
+      <c r="J63" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
+      <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -12786,11 +12950,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -12817,11 +12977,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -12850,11 +13006,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -12881,22 +13045,34 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="M67" s="10" t="inlineStr"/>
-      <c r="N67" s="10" t="inlineStr"/>
-      <c r="O67" s="10" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="N67" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="O67" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
     </row>
@@ -12918,11 +13094,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -12949,7 +13121,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -12978,22 +13154,22 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="N70" s="5" t="inlineStr">
@@ -13029,27 +13205,27 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
+          <t>RENAN</t>
+        </is>
+      </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
@@ -13170,18 +13346,18 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -13346,7 +13522,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -13406,17 +13582,21 @@
           <t>SONIA</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -13467,14 +13647,14 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr"/>
@@ -13593,7 +13773,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -13622,7 +13802,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -13651,14 +13835,10 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -13713,7 +13893,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -13769,16 +13949,12 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -13806,15 +13982,19 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -13841,7 +14021,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -13872,12 +14052,12 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="D22" s="11" t="inlineStr"/>
@@ -13897,7 +14077,7 @@
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr"/>
@@ -13915,15 +14095,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="D23" s="10" t="inlineStr"/>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -13950,20 +14134,24 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="E24" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
@@ -13991,14 +14179,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -14028,7 +14216,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -14114,7 +14302,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -14131,7 +14319,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -14143,7 +14335,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -14185,7 +14381,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -14214,10 +14414,14 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C32" s="11" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -14230,7 +14434,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -14259,11 +14463,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -14278,7 +14478,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -14309,36 +14513,28 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>RENAN</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="inlineStr"/>
+      <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
@@ -14347,7 +14543,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -14382,7 +14578,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -14406,7 +14602,7 @@
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr"/>
@@ -14421,12 +14617,12 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="L37" s="10" t="inlineStr"/>
@@ -14442,11 +14638,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -14460,12 +14652,12 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>CRISTHIAN</t>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L38" s="11" t="inlineStr"/>
@@ -14495,20 +14687,24 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
+      <c r="M39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
@@ -14532,14 +14728,14 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
         </is>
       </c>
       <c r="L40" s="11" t="inlineStr"/>
@@ -14575,21 +14771,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -14631,7 +14823,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C43" s="10" t="inlineStr"/>
@@ -14645,12 +14837,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="K43" s="10" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -14664,7 +14860,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -14676,7 +14876,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="J44" s="11" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="K44" s="11" t="inlineStr"/>
       <c r="L44" s="11" t="inlineStr"/>
       <c r="M44" s="11" t="inlineStr"/>
@@ -14691,11 +14895,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -14707,9 +14907,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="K45" s="10" t="inlineStr"/>
@@ -14755,7 +14955,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -14769,7 +14969,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -14784,11 +14988,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -14842,16 +15042,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
+      <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -14862,16 +15054,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
+      <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -14885,9 +15069,21 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="10" t="inlineStr"/>
-      <c r="C51" s="10" t="inlineStr"/>
-      <c r="D51" s="10" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -14897,11 +15093,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J51" s="10" t="inlineStr"/>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -14918,12 +15110,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -14942,7 +15134,7 @@
       </c>
       <c r="J52" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="K52" s="11" t="inlineStr"/>
@@ -14971,11 +15163,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -14990,11 +15178,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -15006,7 +15190,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -15023,24 +15211,20 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="E55" s="7" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -15051,10 +15235,14 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -15068,22 +15256,26 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -15156,7 +15348,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -15185,7 +15377,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -15212,11 +15408,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -15243,7 +15435,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -15270,7 +15466,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -15299,19 +15499,15 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
           <t>FIORELLA</t>
         </is>
       </c>
-      <c r="L63" s="6" t="inlineStr">
+      <c r="K63" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
+      <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
       <c r="O63" s="10" t="inlineStr"/>
@@ -15363,16 +15559,8 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -15400,11 +15588,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -15431,21 +15627,29 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+      <c r="N67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="M67" s="10" t="inlineStr"/>
-      <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -15470,10 +15674,14 @@
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="K68" s="11" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -15499,11 +15707,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -15532,29 +15736,25 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="N70" s="7" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="M70" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -15579,7 +15779,7 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -15594,7 +15794,7 @@
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>YENIFER</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
@@ -15604,12 +15804,12 @@
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="P71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="Q71" s="10" t="inlineStr"/>
@@ -15722,21 +15922,21 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15957,12 +16157,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -15972,7 +16172,7 @@
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="F7" s="10" t="inlineStr"/>
@@ -16030,7 +16230,11 @@
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -16083,8 +16287,16 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr"/>
-      <c r="C11" s="10" t="inlineStr"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -16195,11 +16407,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -16231,7 +16439,11 @@
           <t>JAVIER</t>
         </is>
       </c>
-      <c r="C16" s="11" t="inlineStr"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
       <c r="F16" s="11" t="inlineStr"/>
@@ -16257,11 +16469,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -16317,10 +16525,14 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr"/>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -16346,21 +16558,13 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -16387,7 +16591,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -16418,15 +16622,19 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -16438,7 +16646,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>GLADYS</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -16461,17 +16669,17 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr"/>
@@ -16500,15 +16708,19 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -16539,12 +16751,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -16578,7 +16790,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -16592,8 +16804,16 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
-      <c r="K26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
       <c r="N26" s="11" t="inlineStr"/>
@@ -16607,12 +16827,16 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>JUDELY</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -16638,11 +16862,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -16696,11 +16916,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -16712,11 +16928,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -16733,14 +16945,10 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
           <t>VALERIA</t>
         </is>
       </c>
+      <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -16756,7 +16964,11 @@
           <t>JAVIER</t>
         </is>
       </c>
-      <c r="K31" s="10" t="inlineStr"/>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>CRISTHIAN</t>
+        </is>
+      </c>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
       <c r="N31" s="10" t="inlineStr"/>
@@ -16770,9 +16982,9 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
@@ -16786,11 +16998,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -16832,7 +17040,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -16844,11 +17056,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J34" s="11" t="inlineStr"/>
       <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
@@ -16865,59 +17073,43 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>RENAN</t>
         </is>
       </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="G35" s="10" t="inlineStr"/>
+      <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K35" s="10" t="inlineStr"/>
+      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -16944,7 +17136,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -16961,13 +17153,21 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -16979,7 +17179,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>RAQUEL</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -17000,11 +17200,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -17018,20 +17214,24 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>RAQUEL</t>
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="M38" s="11" t="inlineStr"/>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
       <c r="P38" s="11" t="inlineStr"/>
@@ -17043,7 +17243,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -17057,15 +17261,19 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K39" s="7" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -17078,26 +17286,10 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="E40" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
+      <c r="C40" s="11" t="inlineStr"/>
+      <c r="D40" s="11" t="inlineStr"/>
+      <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr"/>
       <c r="H40" s="11" t="inlineStr"/>
@@ -17106,17 +17298,21 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -17131,7 +17327,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -17149,21 +17345,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -17192,7 +17384,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -17209,14 +17405,10 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
@@ -17227,16 +17419,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -17289,7 +17477,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr"/>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -17304,11 +17496,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -17347,11 +17535,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -17398,7 +17582,11 @@
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="C49" s="10" t="inlineStr"/>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
       <c r="F49" s="10" t="inlineStr"/>
@@ -17430,7 +17618,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -17444,16 +17632,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
+      <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -17467,8 +17647,16 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="10" t="inlineStr"/>
-      <c r="C51" s="10" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -17479,7 +17667,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -17496,15 +17688,19 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="D52" s="11" t="inlineStr"/>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -17514,12 +17710,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -17545,11 +17745,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -17576,7 +17772,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -17598,29 +17798,21 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="G55" s="7" t="inlineStr">
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
+      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
@@ -17629,24 +17821,12 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>CAMILA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="M55" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="K55" s="10" t="inlineStr"/>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -17658,23 +17838,31 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
-      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -17684,7 +17872,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -17750,12 +17938,12 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="K58" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="L58" s="11" t="inlineStr"/>
@@ -17837,16 +18025,8 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K61" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
+      <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
       <c r="N61" s="10" t="inlineStr"/>
@@ -17872,7 +18052,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -17937,7 +18121,7 @@
       </c>
       <c r="K64" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="L64" s="11" t="inlineStr"/>
@@ -17967,14 +18151,10 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -18000,8 +18180,16 @@
           <t>21:45</t>
         </is>
       </c>
-      <c r="J66" s="11" t="inlineStr"/>
-      <c r="K66" s="11" t="inlineStr"/>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -18029,26 +18217,34 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="L67" s="3" t="inlineStr">
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="N67" s="3" t="inlineStr">
         <is>
           <t>VALERIA</t>
         </is>
       </c>
-      <c r="M67" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="N67" s="10" t="inlineStr"/>
-      <c r="O67" s="10" t="inlineStr"/>
+      <c r="O67" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
     </row>
@@ -18097,7 +18293,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -18131,34 +18331,30 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="N70" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="O70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="P70" s="7" t="inlineStr">
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="N70" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="O70" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
     </row>
     <row r="71">
@@ -18181,12 +18377,12 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -18199,22 +18395,26 @@
           <t>RENAN</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
+      <c r="P71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="Q71" s="10" t="inlineStr"/>
+      <c r="Q71" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -556,7 +556,7 @@
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1420,11 +1420,7 @@
           <t>MIRIANM</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -1668,21 +1664,17 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -2683,11 +2675,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -2983,26 +2971,22 @@
           <t>PILAR</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="P71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -4018,11 +4002,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -5298,11 +5278,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -5894,16 +5870,12 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -6618,11 +6590,7 @@
           <t>MIRIAN</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -7122,16 +7090,12 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -7881,11 +7845,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -8309,14 +8269,14 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="9" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
@@ -9208,11 +9168,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -9469,26 +9425,22 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
@@ -10476,11 +10428,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -10775,26 +10723,22 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -11088,16 +11032,12 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -11823,11 +11763,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -12352,16 +12288,12 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -13123,11 +13055,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -13560,7 +13488,7 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
@@ -14492,11 +14420,7 @@
           <t>MIRIANM</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
       <c r="G27" s="10" t="inlineStr"/>
@@ -14761,21 +14685,17 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
@@ -15774,11 +15694,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
-        <is>
-          <t>JUDELY</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -16073,34 +15989,30 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>RENAN</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -16218,14 +16130,14 @@
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
     <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
@@ -17400,21 +17312,17 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>RENAN</t>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
           <t>JESSICA</t>
         </is>
       </c>
+      <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
@@ -18737,29 +18645,25 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>RENAN</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
           <t>JESSICA</t>
         </is>
       </c>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -542,8 +542,8 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
@@ -551,11 +551,11 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
@@ -713,17 +713,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -748,11 +752,7 @@
           <t>06:45</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="B6" s="11" t="inlineStr"/>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -789,11 +789,7 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -908,7 +904,11 @@
           <t>JUAN</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -961,11 +961,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -1019,7 +1015,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -1073,16 +1073,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
+      <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
       <c r="F17" s="10" t="inlineStr"/>
@@ -1108,7 +1100,11 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -1135,13 +1131,21 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr"/>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -1168,19 +1172,11 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
           <t>SONIA</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -1190,7 +1186,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -1207,10 +1207,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr"/>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -1221,11 +1225,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="J21" s="10" t="inlineStr"/>
       <c r="K21" s="10" t="inlineStr"/>
       <c r="L21" s="10" t="inlineStr"/>
       <c r="M21" s="10" t="inlineStr"/>
@@ -1240,12 +1240,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -1256,12 +1260,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -1277,19 +1285,11 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="C23" s="10" t="inlineStr"/>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -1314,9 +1314,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -1358,7 +1358,11 @@
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -1384,7 +1388,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -1415,11 +1423,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -1446,16 +1450,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
+      <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="11" t="inlineStr"/>
@@ -1466,11 +1462,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -1539,7 +1531,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -1578,11 +1574,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -1597,11 +1589,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -1613,7 +1601,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -1628,7 +1620,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -1640,12 +1636,16 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -1669,11 +1669,7 @@
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -1685,7 +1681,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
@@ -1693,11 +1689,7 @@
           <t>SONIA</t>
         </is>
       </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -1710,11 +1702,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -1728,7 +1716,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -1745,13 +1733,21 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -1761,12 +1757,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -1780,16 +1780,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
+      <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
       <c r="F38" s="11" t="inlineStr"/>
@@ -1802,19 +1794,11 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="K38" s="11" t="inlineStr"/>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -1827,7 +1811,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -1839,9 +1827,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K39" s="7" t="inlineStr">
@@ -1862,16 +1850,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -1901,23 +1881,31 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr"/>
-      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
       <c r="I41" s="10" t="inlineStr">
@@ -1925,17 +1913,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -1960,11 +1952,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -1981,14 +1969,10 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
@@ -1999,26 +1983,10 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K43" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="L43" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="M43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
+      <c r="K43" s="10" t="inlineStr"/>
+      <c r="L43" s="10" t="inlineStr"/>
+      <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
       <c r="P43" s="10" t="inlineStr"/>
@@ -2113,15 +2081,19 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="D47" s="10" t="inlineStr"/>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
       <c r="G47" s="10" t="inlineStr"/>
@@ -2133,7 +2105,7 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K47" s="10" t="inlineStr"/>
@@ -2206,7 +2178,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -2237,10 +2209,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -2251,7 +2227,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -2268,15 +2248,19 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -2286,13 +2270,21 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="L52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
-      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -2305,11 +2297,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -2321,16 +2309,8 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
+      <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
       <c r="N53" s="10" t="inlineStr"/>
@@ -2344,11 +2324,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -2360,7 +2336,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -2382,7 +2362,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr">
@@ -2390,16 +2370,8 @@
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="F55" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="E55" s="10" t="inlineStr"/>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -2409,7 +2381,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>NAYELLI</t>
         </is>
       </c>
       <c r="K55" s="10" t="inlineStr"/>
@@ -2454,23 +2426,31 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="N56" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="M56" s="11" t="inlineStr"/>
-      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -2481,11 +2461,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B57" s="10" t="inlineStr"/>
       <c r="C57" s="10" t="inlineStr"/>
       <c r="D57" s="10" t="inlineStr"/>
       <c r="E57" s="10" t="inlineStr"/>
@@ -2526,14 +2502,10 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K58" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
@@ -2613,7 +2585,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -2642,12 +2618,12 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="L62" s="11" t="inlineStr"/>
@@ -2731,10 +2707,14 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K65" s="10" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -2762,11 +2742,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -2793,20 +2781,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -2830,16 +2822,8 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="K68" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
+      <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -2865,16 +2849,8 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K69" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
+      <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
       <c r="N69" s="10" t="inlineStr"/>
@@ -2902,34 +2878,22 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="O70" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="M70" s="11" t="inlineStr"/>
+      <c r="N70" s="11" t="inlineStr"/>
+      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
     </row>
@@ -2981,11 +2945,7 @@
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3095,21 +3055,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -3270,17 +3230,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -3336,7 +3300,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -3374,11 +3338,7 @@
           <t>07:15</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B8" s="11" t="inlineStr"/>
       <c r="C8" s="11" t="inlineStr"/>
       <c r="D8" s="11" t="inlineStr"/>
       <c r="E8" s="11" t="inlineStr"/>
@@ -3468,7 +3428,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -3498,7 +3458,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -3526,11 +3490,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -3616,7 +3576,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -3646,7 +3606,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -3704,15 +3668,19 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -3738,16 +3706,12 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -3758,7 +3722,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -3776,7 +3744,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -3808,7 +3776,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -3828,7 +3796,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -3852,10 +3820,14 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr"/>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -3866,11 +3838,7 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J23" s="10" t="inlineStr"/>
       <c r="K23" s="10" t="inlineStr"/>
       <c r="L23" s="10" t="inlineStr"/>
       <c r="M23" s="10" t="inlineStr"/>
@@ -3886,21 +3854,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B24" s="11" t="inlineStr"/>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -3930,14 +3886,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -3984,7 +3940,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -4002,7 +3958,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -4014,7 +3974,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -4030,11 +3994,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -4046,11 +4006,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -4124,7 +4080,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -4140,7 +4096,7 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K31" s="10" t="inlineStr"/>
@@ -4158,7 +4114,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4170,7 +4130,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -4214,7 +4178,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -4226,12 +4194,16 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -4246,14 +4218,14 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -4266,16 +4238,12 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -4292,7 +4260,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
@@ -4308,7 +4276,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -4326,12 +4294,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -4344,7 +4316,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -4380,10 +4352,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -4400,7 +4376,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr"/>
@@ -4414,21 +4390,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J39" s="10" t="inlineStr"/>
+      <c r="K39" s="10" t="inlineStr"/>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -4442,16 +4406,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -4484,21 +4440,29 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="F41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr"/>
-      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
       <c r="I41" s="10" t="inlineStr">
@@ -4518,7 +4482,7 @@
       </c>
       <c r="L41" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="M41" s="10" t="inlineStr"/>
@@ -4534,7 +4498,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -4546,7 +4514,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -4574,16 +4546,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -4598,11 +4566,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -4630,16 +4594,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
+      <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
       <c r="F45" s="10" t="inlineStr"/>
@@ -4666,7 +4622,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -4696,7 +4656,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -4710,7 +4670,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -4782,8 +4746,16 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
-      <c r="C50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -4794,11 +4766,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -4816,19 +4784,15 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -4840,7 +4804,7 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K51" s="10" t="inlineStr"/>
@@ -4858,13 +4822,21 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr"/>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -4874,12 +4846,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -4936,7 +4912,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -4956,39 +4932,27 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="H55" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="F55" s="10" t="inlineStr"/>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
           <t>19:00</t>
@@ -4996,19 +4960,11 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="K55" s="10" t="inlineStr"/>
+      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -5034,10 +4990,14 @@
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -5048,21 +5008,29 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="L56" s="7" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="N56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="M56" s="11" t="inlineStr"/>
-      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -5074,11 +5042,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B57" s="10" t="inlineStr"/>
       <c r="C57" s="10" t="inlineStr"/>
       <c r="D57" s="10" t="inlineStr"/>
       <c r="E57" s="10" t="inlineStr"/>
@@ -5090,7 +5054,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -5146,11 +5114,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -5178,16 +5142,8 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="K60" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
+      <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
       <c r="N60" s="11" t="inlineStr"/>
@@ -5216,10 +5172,14 @@
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K61" s="10" t="inlineStr"/>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="K61" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
       <c r="N61" s="10" t="inlineStr"/>
@@ -5248,7 +5208,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -5334,8 +5294,16 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
-      <c r="K65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -5364,17 +5332,17 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="M66" s="11" t="inlineStr"/>
@@ -5404,16 +5372,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -5438,11 +5414,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5500,39 +5472,27 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="N70" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="O70" s="5" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="P70" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="N70" s="11" t="inlineStr"/>
+      <c r="O70" s="11" t="inlineStr"/>
+      <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
     </row>
@@ -5556,26 +5516,34 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="L71" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="N71" s="10" t="inlineStr"/>
-      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -5693,19 +5661,19 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -5865,17 +5833,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -5931,24 +5903,20 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
           <t>JUAN</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -6063,7 +6031,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -6093,11 +6061,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -6181,7 +6145,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -6239,7 +6207,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -6299,7 +6267,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -6335,15 +6303,19 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -6353,7 +6325,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -6369,11 +6345,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -6403,19 +6375,15 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -6427,19 +6395,15 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
           <t>JUAN</t>
         </is>
       </c>
-      <c r="L22" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
       <c r="O22" s="11" t="inlineStr"/>
@@ -6455,10 +6419,14 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr"/>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -6487,7 +6455,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -6495,11 +6463,7 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -6557,7 +6521,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -6569,7 +6537,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -6585,11 +6557,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -6601,11 +6569,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -6689,7 +6653,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -6733,8 +6701,16 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -6747,7 +6723,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -6765,11 +6741,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -6809,12 +6781,16 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -6829,12 +6805,16 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="inlineStr"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
@@ -6847,7 +6827,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -6881,11 +6861,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -6903,15 +6879,19 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -6923,19 +6903,15 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="L37" s="4" t="inlineStr">
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -6967,10 +6943,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -6987,7 +6967,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr"/>
@@ -7003,7 +6983,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
@@ -7011,11 +6991,7 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -7031,7 +7007,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -7067,15 +7043,19 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -7087,12 +7067,12 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -7109,11 +7089,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="B42" s="11" t="inlineStr"/>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -7125,11 +7101,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -7159,7 +7131,7 @@
       </c>
       <c r="J43" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="K43" s="10" t="inlineStr"/>
@@ -7207,7 +7179,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C45" s="10" t="inlineStr"/>
@@ -7265,11 +7237,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -7283,10 +7251,14 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="K47" s="10" t="inlineStr"/>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K47" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -7329,7 +7301,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -7357,11 +7333,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -7394,8 +7366,16 @@
           <t>ARIADNA</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr"/>
-      <c r="D51" s="10" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -7423,19 +7403,15 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -7447,15 +7423,19 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="L52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -7515,7 +7495,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -7535,17 +7515,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -7553,41 +7533,33 @@
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="H55" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="I55" s="7" t="inlineStr">
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="H55" s="10" t="inlineStr"/>
+      <c r="I55" s="10" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="inlineStr">
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -7613,10 +7585,14 @@
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -7625,18 +7601,26 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="K56" s="7" t="inlineStr">
+      <c r="M56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="L56" s="11" t="inlineStr"/>
-      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -7649,11 +7633,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B57" s="10" t="inlineStr"/>
       <c r="C57" s="10" t="inlineStr"/>
       <c r="D57" s="10" t="inlineStr"/>
       <c r="E57" s="10" t="inlineStr"/>
@@ -7665,11 +7645,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -7755,7 +7731,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -7815,7 +7791,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -7873,7 +7849,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -7901,11 +7881,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -7938,9 +7914,21 @@
           <t>ARIADNA</t>
         </is>
       </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
-      <c r="M66" s="11" t="inlineStr"/>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -7967,24 +7955,16 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="L67" s="10" t="inlineStr"/>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -8009,11 +7989,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -8071,44 +8047,32 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="N70" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="O70" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="P70" s="5" t="inlineStr">
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="Q70" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="N70" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="O70" s="11" t="inlineStr"/>
+      <c r="P70" s="11" t="inlineStr"/>
+      <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
     </row>
     <row r="71">
@@ -8131,26 +8095,34 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="L71" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="N71" s="10" t="inlineStr"/>
-      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -8265,21 +8237,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -8440,17 +8412,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -8506,24 +8482,20 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -8636,11 +8608,7 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -8668,7 +8636,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -8698,7 +8670,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -8812,7 +8784,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -8840,11 +8816,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -8874,7 +8846,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -8910,15 +8882,19 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D20" s="11" t="inlineStr"/>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -8928,7 +8904,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -8946,7 +8926,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -8976,7 +8956,7 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
@@ -8994,19 +8974,15 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="L22" s="5" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
       <c r="O22" s="11" t="inlineStr"/>
@@ -9022,14 +8998,10 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -9056,14 +9028,14 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr"/>
@@ -9096,14 +9068,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -9132,11 +9104,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -9148,11 +9116,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -9168,7 +9132,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -9180,7 +9148,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -9196,7 +9168,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -9210,7 +9186,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -9256,11 +9232,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -9288,7 +9260,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -9316,9 +9292,9 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
@@ -9332,7 +9308,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -9360,11 +9340,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -9382,7 +9358,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C34" s="11" t="inlineStr"/>
@@ -9398,7 +9374,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -9422,22 +9398,22 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
         </is>
       </c>
       <c r="F35" s="10" t="inlineStr"/>
@@ -9450,12 +9426,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -9474,10 +9450,14 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
           <t>SHADIA</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -9490,7 +9470,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -9508,16 +9488,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -9528,7 +9504,7 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
@@ -9562,14 +9538,10 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9596,14 +9568,14 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="K39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="L39" s="10" t="inlineStr"/>
@@ -9622,7 +9594,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -9640,16 +9612,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -9720,7 +9688,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -9736,7 +9708,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -9748,12 +9724,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
-      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -9826,7 +9806,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C46" s="11" t="inlineStr"/>
@@ -9858,7 +9838,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -9872,9 +9852,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="K47" s="10" t="inlineStr"/>
@@ -9932,11 +9912,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
+      <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -9952,7 +9928,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -9982,24 +9962,16 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="D51" s="10" t="inlineStr"/>
+      <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="10" t="inlineStr"/>
@@ -10010,10 +9982,14 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
           <t>SHADIA</t>
         </is>
       </c>
-      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -10028,13 +10004,21 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr"/>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -10044,16 +10028,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -10126,39 +10106,31 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
           <t>CELESTE</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
-        <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="H55" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
           <t>19:00</t>
@@ -10166,7 +10138,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
@@ -10190,7 +10162,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -10198,7 +10170,11 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D56" s="11" t="inlineStr"/>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
@@ -10213,12 +10189,16 @@
           <t>CARLOS</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -10232,11 +10212,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B57" s="10" t="inlineStr"/>
       <c r="C57" s="10" t="inlineStr"/>
       <c r="D57" s="10" t="inlineStr"/>
       <c r="E57" s="10" t="inlineStr"/>
@@ -10276,7 +10252,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -10362,10 +10342,14 @@
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K61" s="10" t="inlineStr"/>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K61" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
       <c r="N61" s="10" t="inlineStr"/>
@@ -10394,14 +10378,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -10484,7 +10464,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -10514,29 +10498,21 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="N66" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="M66" s="11" t="inlineStr"/>
+      <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
       <c r="Q66" s="11" t="inlineStr"/>
@@ -10560,14 +10536,26 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="5" t="inlineStr">
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="K67" s="10" t="inlineStr"/>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -10592,11 +10580,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -10654,39 +10638,31 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
           <t>CELESTE</t>
         </is>
       </c>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="N70" s="5" t="inlineStr">
         <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="O70" s="5" t="inlineStr">
-        <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="P70" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="O70" s="11" t="inlineStr"/>
+      <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
     </row>
@@ -10710,35 +10686,39 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="N71" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -10855,19 +10835,19 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -11027,14 +11007,14 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -11063,7 +11043,11 @@
           <t>06:45</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
@@ -11093,29 +11077,21 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="E7" s="10" t="inlineStr"/>
+      <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
       <c r="I7" s="10" t="inlineStr">
@@ -11229,7 +11205,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -11259,7 +11235,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -11287,11 +11267,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -11375,7 +11351,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -11403,11 +11383,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -11469,7 +11445,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -11503,14 +11479,26 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr"/>
-      <c r="D20" s="11" t="inlineStr"/>
-      <c r="E20" s="11" t="inlineStr"/>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
       <c r="H20" s="11" t="inlineStr"/>
@@ -11519,7 +11507,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -11535,9 +11527,9 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -11551,7 +11543,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="J21" s="10" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="K21" s="10" t="inlineStr"/>
       <c r="L21" s="10" t="inlineStr"/>
       <c r="M21" s="10" t="inlineStr"/>
@@ -11569,19 +11565,11 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -11593,12 +11581,12 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr"/>
@@ -11617,15 +11605,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="D23" s="10" t="inlineStr"/>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -11651,9 +11643,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C24" s="11" t="inlineStr"/>
@@ -11667,16 +11659,12 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
+      <c r="K24" s="11" t="inlineStr"/>
       <c r="L24" s="11" t="inlineStr"/>
       <c r="M24" s="11" t="inlineStr"/>
       <c r="N24" s="11" t="inlineStr"/>
@@ -11691,14 +11679,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -11727,11 +11715,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -11743,11 +11727,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -11775,7 +11755,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -11807,11 +11791,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -11975,7 +11955,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -12009,19 +11993,15 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
           <t>MOISES</t>
         </is>
       </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -12031,13 +12011,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="K35" s="10" t="inlineStr"/>
-      <c r="L35" s="10" t="inlineStr"/>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -12053,14 +12041,10 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
           <t>SHADIA</t>
         </is>
       </c>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -12071,9 +12055,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -12093,24 +12077,16 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
+      <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="10" t="inlineStr"/>
@@ -12121,24 +12097,12 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K37" s="10" t="inlineStr"/>
+      <c r="L37" s="10" t="inlineStr"/>
+      <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
@@ -12151,8 +12115,16 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
-      <c r="C38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
       <c r="F38" s="11" t="inlineStr"/>
@@ -12165,15 +12137,19 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr"/>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -12187,7 +12163,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -12199,9 +12179,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K39" s="10" t="inlineStr"/>
@@ -12219,21 +12199,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
+      <c r="C40" s="11" t="inlineStr"/>
+      <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr"/>
@@ -12243,16 +12211,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -12272,8 +12236,16 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr"/>
-      <c r="D41" s="10" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>MARIAC</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -12288,11 +12260,7 @@
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -12335,11 +12303,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -12356,16 +12320,12 @@
           <t>MARCO</t>
         </is>
       </c>
-      <c r="K43" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="inlineStr">
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -12407,7 +12367,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -12447,7 +12411,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="11" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -12465,10 +12433,14 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr"/>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -12555,11 +12527,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -12589,12 +12557,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -12609,14 +12577,10 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
           <t>SHADIA</t>
         </is>
       </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -12633,24 +12597,20 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -12661,24 +12621,16 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="M52" s="5" t="inlineStr">
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
+      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -12691,7 +12643,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -12703,7 +12659,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -12731,7 +12691,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -12749,64 +12713,48 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="G55" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="H55" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="I55" s="7" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="10" t="inlineStr"/>
+      <c r="I55" s="10" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="M55" s="4" t="inlineStr">
-        <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -12834,7 +12782,11 @@
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -12848,9 +12800,21 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="11" t="inlineStr"/>
-      <c r="L56" s="11" t="inlineStr"/>
-      <c r="M56" s="11" t="inlineStr"/>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>MARIAC</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="M56" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -12875,7 +12839,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -12903,11 +12871,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -12963,7 +12927,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -12991,7 +12959,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -13021,12 +12993,12 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K62" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="L62" s="11" t="inlineStr"/>
@@ -13111,11 +13083,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -13145,15 +13113,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="L66" s="11" t="inlineStr"/>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -13181,24 +13153,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -13223,7 +13191,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -13281,44 +13253,32 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="M70" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="N70" s="4" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="O70" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="P70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="Q70" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="N70" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="O70" s="11" t="inlineStr"/>
+      <c r="P70" s="11" t="inlineStr"/>
+      <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
     </row>
     <row r="71">
@@ -13341,7 +13301,7 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -13361,7 +13321,7 @@
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
@@ -13485,8 +13445,8 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
@@ -13498,7 +13458,7 @@
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -13658,17 +13618,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -13694,11 +13658,7 @@
           <t>06:45</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="B6" s="11" t="inlineStr"/>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
@@ -13728,24 +13688,20 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+          <t>EMELYN</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -13860,7 +13816,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -13894,11 +13850,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -13954,7 +13906,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -13984,7 +13940,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -14016,7 +13972,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -14046,11 +14002,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -14078,7 +14030,11 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -14108,12 +14064,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -14146,16 +14102,12 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -14184,10 +14136,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr"/>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -14198,11 +14154,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="J21" s="10" t="inlineStr"/>
       <c r="K21" s="10" t="inlineStr"/>
       <c r="L21" s="10" t="inlineStr"/>
       <c r="M21" s="10" t="inlineStr"/>
@@ -14218,16 +14170,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -14240,7 +14188,7 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr"/>
@@ -14260,7 +14208,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -14270,7 +14218,7 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr"/>
@@ -14298,11 +14246,7 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="B24" s="11" t="inlineStr"/>
       <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
@@ -14336,7 +14280,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -14349,7 +14293,11 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="10" t="inlineStr"/>
@@ -14386,16 +14334,12 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
       <c r="N26" s="11" t="inlineStr"/>
@@ -14412,12 +14356,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
           <t>MARIA</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr"/>
@@ -14430,11 +14374,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -14534,8 +14474,16 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
-      <c r="C31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -14548,7 +14496,7 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K31" s="10" t="inlineStr"/>
@@ -14566,16 +14514,12 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -14602,11 +14546,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -14618,7 +14558,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -14648,15 +14592,19 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -14670,31 +14618,27 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
         </is>
       </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
@@ -14702,16 +14646,12 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -14740,10 +14680,14 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr"/>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -14760,19 +14704,15 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>JAMES</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -14782,16 +14722,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -14820,7 +14756,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
@@ -14830,7 +14766,7 @@
       </c>
       <c r="L38" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="M38" s="11" t="inlineStr"/>
@@ -14858,11 +14794,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="J39" s="10" t="inlineStr"/>
       <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
@@ -14880,15 +14812,19 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr"/>
@@ -14898,17 +14834,21 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -14922,12 +14862,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -14938,17 +14882,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -14974,11 +14922,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -14994,7 +14938,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -15008,19 +14956,15 @@
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K43" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
+      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -15062,11 +15006,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -15078,11 +15018,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -15138,12 +15074,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="K47" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -15198,7 +15138,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="10" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -15216,7 +15160,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -15230,16 +15174,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
+      <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -15256,12 +15192,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>NAYELLI</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -15276,7 +15212,7 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K51" s="10" t="inlineStr"/>
@@ -15296,7 +15232,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -15316,19 +15252,15 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
         <is>
-          <t>JAMES</t>
-        </is>
-      </c>
-      <c r="L52" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -15342,11 +15274,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -15358,11 +15286,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -15408,27 +15332,27 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="F55" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
         </is>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
@@ -15440,15 +15364,19 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="K55" s="4" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -15462,23 +15390,31 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
-      <c r="F56" s="11" t="inlineStr"/>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -15486,12 +15422,16 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="11" t="inlineStr"/>
       <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
@@ -15506,11 +15446,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B57" s="10" t="inlineStr"/>
       <c r="C57" s="10" t="inlineStr"/>
       <c r="D57" s="10" t="inlineStr"/>
       <c r="E57" s="10" t="inlineStr"/>
@@ -15550,7 +15486,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15608,7 +15548,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -15638,7 +15578,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -15666,7 +15610,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -15752,14 +15700,10 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -15788,10 +15732,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -15820,17 +15768,17 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="M67" s="5" t="inlineStr">
@@ -15862,16 +15810,8 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
+      <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -15928,19 +15868,19 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
           <t>NAYELLI</t>
@@ -15956,11 +15896,7 @@
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="P70" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
     </row>
@@ -15984,36 +15920,44 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="N71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="P71" s="10" t="inlineStr"/>
-      <c r="Q71" s="10" t="inlineStr"/>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="Q71" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
@@ -16127,20 +16071,20 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -16301,17 +16245,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -16367,7 +16315,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -16433,21 +16381,13 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="C9" s="10" t="inlineStr"/>
+      <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
       <c r="G9" s="10" t="inlineStr"/>
@@ -16533,7 +16473,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -16563,14 +16507,10 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
       <c r="F13" s="10" t="inlineStr"/>
@@ -16627,7 +16567,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>GLADYS</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -16685,11 +16625,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -16777,12 +16713,16 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -16811,14 +16751,10 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -16847,16 +16783,24 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
           <t>SONIA</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr"/>
-      <c r="E22" s="11" t="inlineStr"/>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
       <c r="H22" s="11" t="inlineStr"/>
@@ -16867,7 +16811,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -16891,17 +16835,17 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -16933,16 +16877,12 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -16975,7 +16915,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -16988,7 +16928,11 @@
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="E25" s="10" t="inlineStr"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="10" t="inlineStr"/>
@@ -17013,7 +16957,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -17045,16 +16993,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -17081,8 +17021,16 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
-      <c r="C28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="11" t="inlineStr"/>
@@ -17093,7 +17041,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="11" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -17149,11 +17101,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>GLADYS</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -17169,11 +17117,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -17201,16 +17145,12 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -17237,11 +17177,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -17299,42 +17235,50 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="G35" s="10" t="inlineStr"/>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -17363,14 +17307,10 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -17407,16 +17347,24 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
           <t>SONIA</t>
         </is>
       </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="L37" s="10" t="inlineStr"/>
-      <c r="M37" s="10" t="inlineStr"/>
+      <c r="M37" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
@@ -17443,17 +17391,17 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="M38" s="4" t="inlineStr">
@@ -17485,16 +17433,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>CRISTHIAN</t>
-        </is>
-      </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="J39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -17511,35 +17455,55 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="D40" s="11" t="inlineStr"/>
-      <c r="E40" s="11" t="inlineStr"/>
-      <c r="F40" s="11" t="inlineStr"/>
-      <c r="G40" s="11" t="inlineStr"/>
       <c r="H40" s="11" t="inlineStr"/>
       <c r="I40" s="11" t="inlineStr">
         <is>
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -17569,17 +17533,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -17621,7 +17589,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -17693,16 +17665,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
-      <c r="K45" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
+      <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
       <c r="N45" s="10" t="inlineStr"/>
@@ -17717,11 +17681,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -17733,11 +17693,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="J46" s="11" t="inlineStr"/>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -17753,11 +17709,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -17789,7 +17741,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -17803,7 +17759,7 @@
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K48" s="11" t="inlineStr"/>
@@ -17821,11 +17777,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -17837,11 +17789,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -17857,8 +17805,16 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
-      <c r="C50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -17871,10 +17827,14 @@
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K50" s="11" t="inlineStr"/>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -17891,19 +17851,11 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -17913,7 +17865,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -17934,13 +17890,21 @@
           <t>CARLOS</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
-      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -17954,16 +17918,12 @@
           <t>ANTHONY</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="L52" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -17989,11 +17949,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -18039,17 +17995,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -18062,11 +18018,7 @@
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="G55" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
@@ -18075,18 +18027,34 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="N55" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="O55" s="5" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="K55" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="L55" s="10" t="inlineStr"/>
-      <c r="M55" s="10" t="inlineStr"/>
-      <c r="N55" s="10" t="inlineStr"/>
-      <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
       <c r="R55" s="8" t="inlineStr"/>
@@ -18141,11 +18109,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B57" s="10" t="inlineStr"/>
       <c r="C57" s="10" t="inlineStr"/>
       <c r="D57" s="10" t="inlineStr"/>
       <c r="E57" s="10" t="inlineStr"/>
@@ -18185,7 +18149,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -18269,16 +18237,12 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="K61" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J61" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
       <c r="N61" s="10" t="inlineStr"/>
@@ -18307,7 +18271,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -18339,14 +18303,10 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="K63" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -18375,10 +18335,14 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K64" s="11" t="inlineStr"/>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
@@ -18405,8 +18369,16 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
-      <c r="K65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -18435,19 +18407,15 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -18480,15 +18448,19 @@
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -18513,11 +18485,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -18545,11 +18513,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -18579,39 +18543,31 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="M70" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="N70" s="4" t="inlineStr">
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="O70" s="5" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="P70" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="O70" s="11" t="inlineStr"/>
+      <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
     </row>
@@ -18635,24 +18591,24 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
@@ -18663,7 +18619,11 @@
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="P71" s="10" t="inlineStr"/>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -544,17 +544,17 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
@@ -715,7 +715,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -789,7 +789,11 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr"/>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -901,12 +905,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="D11" s="10" t="inlineStr"/>
@@ -1015,11 +1019,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -1100,9 +1100,9 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1146,7 +1146,11 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="E19" s="10" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -1172,10 +1176,14 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="C20" s="11" t="inlineStr"/>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -1188,7 +1196,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -1207,14 +1215,10 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -1242,7 +1246,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -1262,7 +1266,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -1285,7 +1289,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr"/>
@@ -1316,12 +1320,12 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>YENNIFER</t>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr"/>
@@ -1358,11 +1362,7 @@
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -1406,10 +1406,14 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="K26" s="11" t="inlineStr"/>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
       <c r="N26" s="11" t="inlineStr"/>
@@ -1450,7 +1454,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -1533,7 +1541,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -1601,11 +1609,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -1620,11 +1624,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -1735,19 +1735,15 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -1759,7 +1755,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -1780,7 +1776,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr"/>
@@ -1811,11 +1811,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -1829,12 +1825,12 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="K39" s="7" t="inlineStr">
         <is>
-          <t>YENNIFER</t>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="L39" s="10" t="inlineStr"/>
@@ -1850,8 +1846,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
-      <c r="C40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -1888,24 +1892,20 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
       <c r="I41" s="10" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="L41" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="M41" s="10" t="inlineStr"/>
@@ -1967,11 +1967,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -1983,7 +1979,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="10" t="inlineStr"/>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -2052,7 +2052,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -2081,19 +2085,11 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr"/>
+      <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
       <c r="G47" s="10" t="inlineStr"/>
@@ -2103,11 +2099,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -2178,7 +2170,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -2209,15 +2201,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -2227,9 +2223,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K51" s="10" t="inlineStr"/>
@@ -2248,19 +2244,15 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -2272,19 +2264,15 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="L52" s="5" t="inlineStr">
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -2297,7 +2285,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -2309,7 +2301,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -2338,7 +2334,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -2365,13 +2361,21 @@
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="E55" s="10" t="inlineStr"/>
-      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -2381,12 +2385,24 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
           <t>NAYELLI</t>
         </is>
       </c>
-      <c r="K55" s="10" t="inlineStr"/>
-      <c r="L55" s="10" t="inlineStr"/>
-      <c r="M55" s="10" t="inlineStr"/>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="M55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -2400,22 +2416,22 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
           <t>PILAR</t>
         </is>
       </c>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="E56" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="F56" s="11" t="inlineStr"/>
@@ -2433,24 +2449,20 @@
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="N56" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+      <c r="M56" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
+      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -2500,11 +2512,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -2585,9 +2593,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K61" s="10" t="inlineStr"/>
@@ -2618,14 +2626,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -2678,7 +2682,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -2707,14 +2715,10 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -2742,20 +2746,24 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="M66" s="11" t="inlineStr"/>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -2781,24 +2789,16 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="L67" s="10" t="inlineStr"/>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -2822,7 +2822,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -2883,15 +2887,19 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="L70" s="5" t="inlineStr">
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="M70" s="11" t="inlineStr"/>
       <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
@@ -2917,32 +2925,32 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>PILAR</t>
         </is>
       </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="P71" s="10" t="inlineStr"/>
@@ -3055,21 +3063,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -3232,7 +3240,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3242,7 +3250,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -3300,7 +3308,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -3460,7 +3468,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
@@ -3546,7 +3554,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -3576,7 +3588,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -3606,11 +3618,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -3668,19 +3676,15 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -3706,13 +3710,21 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr"/>
-      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -3724,7 +3736,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -3774,16 +3786,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -3796,7 +3804,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -3823,11 +3831,7 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -3854,8 +3858,16 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr"/>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -3886,14 +3898,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -3960,7 +3972,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C27" s="10" t="inlineStr"/>
@@ -3976,7 +3988,7 @@
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K27" s="10" t="inlineStr"/>
@@ -4078,11 +4090,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -4096,7 +4104,7 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K31" s="10" t="inlineStr"/>
@@ -4114,11 +4122,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4130,11 +4134,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -4194,16 +4194,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -4220,12 +4216,12 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -4238,13 +4234,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="K35" s="10" t="inlineStr"/>
-      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -4294,16 +4298,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -4314,16 +4314,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -4355,11 +4351,7 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -4376,7 +4368,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr"/>
@@ -4390,8 +4382,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="10" t="inlineStr"/>
-      <c r="K39" s="10" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -4406,8 +4406,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
-      <c r="C40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -4418,12 +4426,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -4438,31 +4450,23 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="F41" s="7" t="inlineStr">
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="E41" s="10" t="inlineStr"/>
+      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
       <c r="I41" s="10" t="inlineStr">
@@ -4482,7 +4486,7 @@
       </c>
       <c r="L41" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="M41" s="10" t="inlineStr"/>
@@ -4500,7 +4504,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C42" s="11" t="inlineStr"/>
@@ -4516,7 +4520,7 @@
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K42" s="11" t="inlineStr"/>
@@ -4566,7 +4570,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -4622,11 +4630,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -4656,10 +4660,14 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr"/>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -4670,11 +4678,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -4748,14 +4752,10 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -4807,7 +4807,11 @@
           <t>MIRIANM</t>
         </is>
       </c>
-      <c r="K51" s="10" t="inlineStr"/>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -4822,21 +4826,13 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="C52" s="11" t="inlineStr"/>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -4846,16 +4842,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -4870,7 +4862,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -4898,8 +4894,16 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
-      <c r="C54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
       <c r="F54" s="11" t="inlineStr"/>
@@ -4912,7 +4916,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -4937,19 +4941,15 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -4960,11 +4960,19 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="K55" s="10" t="inlineStr"/>
-      <c r="L55" s="10" t="inlineStr"/>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -4980,25 +4988,29 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -5006,31 +5018,23 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="N56" s="7" t="inlineStr">
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="L56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="M56" s="11" t="inlineStr"/>
+      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -5056,7 +5060,7 @@
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K57" s="10" t="inlineStr"/>
@@ -5114,7 +5118,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -5170,16 +5178,8 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K61" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
+      <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
       <c r="N61" s="10" t="inlineStr"/>
@@ -5208,10 +5208,14 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K62" s="11" t="inlineStr"/>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -5296,14 +5300,10 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
@@ -5370,26 +5370,14 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
+      <c r="J67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="K67" s="10" t="inlineStr"/>
+      <c r="L67" s="10" t="inlineStr"/>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -5414,7 +5402,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5442,8 +5434,16 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
-      <c r="K69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K69" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
       <c r="N69" s="10" t="inlineStr"/>
@@ -5477,19 +5477,15 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="M70" s="11" t="inlineStr"/>
       <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
@@ -5516,35 +5512,39 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
+      <c r="P71" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -6275,7 +6275,11 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -6303,17 +6307,17 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>VENUSR</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr"/>
@@ -6345,7 +6349,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -6375,7 +6383,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -6395,7 +6403,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -6422,11 +6430,7 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -6455,7 +6459,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>BRINDYB</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -6463,7 +6467,11 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr"/>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -6521,11 +6529,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -6539,7 +6543,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -6613,7 +6617,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -6641,7 +6649,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -6655,7 +6667,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -6701,16 +6713,8 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -6781,16 +6785,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -6827,14 +6827,10 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -6861,7 +6857,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -6879,19 +6879,15 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -6903,7 +6899,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -6927,7 +6923,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C38" s="11" t="inlineStr"/>
@@ -6946,11 +6942,7 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -6967,7 +6959,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr"/>
@@ -6983,7 +6975,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>BRINDYB</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
@@ -6991,7 +6983,11 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L39" s="10" t="inlineStr"/>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -7007,7 +7003,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -7043,12 +7039,12 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D41" s="7" t="inlineStr">
@@ -7179,7 +7175,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C45" s="10" t="inlineStr"/>
@@ -7193,7 +7189,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -7237,7 +7237,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -7249,16 +7253,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -7301,11 +7297,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -7333,7 +7325,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -7363,19 +7359,11 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -7403,7 +7391,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -7423,19 +7411,15 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="L52" s="5" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -7449,7 +7433,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -7463,7 +7451,7 @@
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K53" s="10" t="inlineStr"/>
@@ -7495,7 +7483,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -7515,17 +7503,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -7551,16 +7539,24 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="K55" s="4" t="inlineStr">
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="L55" s="10" t="inlineStr"/>
-      <c r="M55" s="10" t="inlineStr"/>
+      <c r="M55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -7575,12 +7571,12 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
@@ -7603,12 +7599,12 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="L56" s="4" t="inlineStr">
@@ -7616,12 +7612,16 @@
           <t>PILAR</t>
         </is>
       </c>
-      <c r="M56" s="7" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="N56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -7849,11 +7849,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -7881,8 +7877,16 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
-      <c r="K65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -7911,24 +7915,16 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
+      <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -7955,7 +7951,7 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
@@ -7989,7 +7985,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -8047,12 +8047,12 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
@@ -8100,22 +8100,22 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
@@ -8237,18 +8237,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -8608,7 +8608,11 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -8636,11 +8640,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -8728,7 +8728,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -8784,11 +8788,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -8854,7 +8854,11 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -8882,19 +8886,15 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -8956,12 +8956,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -8974,7 +8978,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -8998,7 +9002,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr"/>
@@ -9030,12 +9034,12 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr"/>
@@ -9073,11 +9077,7 @@
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -9116,7 +9116,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -9132,11 +9136,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -9148,11 +9148,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -9170,10 +9166,14 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C28" s="11" t="inlineStr"/>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="11" t="inlineStr"/>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -9260,11 +9260,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -9292,11 +9288,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -9308,11 +9300,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -9361,7 +9349,11 @@
           <t>FIORELLA</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -9374,7 +9366,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -9426,12 +9418,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -9453,11 +9445,7 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -9470,7 +9458,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -9504,12 +9492,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -9524,7 +9516,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -9538,7 +9534,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr"/>
@@ -9570,12 +9566,12 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="L39" s="10" t="inlineStr"/>
@@ -9592,16 +9588,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -9632,16 +9624,12 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -9688,11 +9676,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -9710,11 +9694,19 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
           <t>JOSE</t>
         </is>
       </c>
-      <c r="C43" s="10" t="inlineStr"/>
-      <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
       <c r="G43" s="10" t="inlineStr"/>
@@ -9726,15 +9718,19 @@
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="L43" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
-      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -9804,11 +9800,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -9838,7 +9830,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -9852,11 +9844,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -9928,11 +9916,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -9962,15 +9946,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -9987,7 +9975,7 @@
       </c>
       <c r="K51" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="L51" s="10" t="inlineStr"/>
@@ -10006,19 +9994,15 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -10048,7 +10032,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -10060,7 +10048,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -10076,7 +10068,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -10109,26 +10105,22 @@
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -10136,14 +10128,14 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="K55" s="4" t="inlineStr">
+      <c r="J55" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="L55" s="10" t="inlineStr"/>
@@ -10162,7 +10154,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -10184,21 +10176,13 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K56" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="K56" s="11" t="inlineStr"/>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -10254,11 +10238,19 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
           <t>JOSE</t>
         </is>
       </c>
-      <c r="K58" s="11" t="inlineStr"/>
-      <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
       <c r="O58" s="11" t="inlineStr"/>
@@ -10340,16 +10332,8 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K61" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
+      <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
       <c r="N61" s="10" t="inlineStr"/>
@@ -10378,7 +10362,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -10464,11 +10448,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -10498,20 +10478,24 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="K66" s="3" t="inlineStr">
+      <c r="L66" s="3" t="inlineStr">
         <is>
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="M66" s="11" t="inlineStr"/>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -10538,24 +10522,16 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="L67" s="10" t="inlineStr"/>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -10580,7 +10556,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -10608,7 +10588,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -10643,12 +10627,12 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="M70" s="5" t="inlineStr">
@@ -10686,17 +10670,17 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
@@ -10833,17 +10817,17 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
@@ -11077,7 +11061,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -11205,7 +11189,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -11237,7 +11221,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
@@ -11353,7 +11337,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -11413,7 +11397,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -11445,7 +11429,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -11453,7 +11437,11 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -11484,21 +11472,17 @@
           <t>CIELO</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="D20" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
+      <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
       <c r="H20" s="11" t="inlineStr"/>
@@ -11529,7 +11513,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -11565,7 +11549,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
@@ -11581,7 +11565,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -11605,19 +11589,11 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr"/>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -11643,13 +11619,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="11" t="inlineStr"/>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -11684,11 +11668,7 @@
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -11715,7 +11695,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -11727,7 +11711,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -11743,7 +11731,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -11757,7 +11749,7 @@
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K27" s="10" t="inlineStr"/>
@@ -11891,11 +11883,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -11923,7 +11911,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -11937,7 +11929,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -11955,11 +11947,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -11991,17 +11979,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -12016,16 +12008,12 @@
           <t>CIELO</t>
         </is>
       </c>
-      <c r="K35" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -12055,11 +12043,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -12075,16 +12059,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -12097,7 +12077,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K37" s="10" t="inlineStr"/>
@@ -12115,16 +12095,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
+      <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
       <c r="F38" s="11" t="inlineStr"/>
@@ -12137,19 +12109,11 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -12163,11 +12127,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -12179,13 +12139,21 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="K39" s="10" t="inlineStr"/>
-      <c r="L39" s="10" t="inlineStr"/>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -12199,7 +12167,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -12231,19 +12203,19 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
         </is>
       </c>
       <c r="E41" s="10" t="inlineStr"/>
@@ -12255,12 +12227,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -12287,7 +12263,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -12303,7 +12283,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -12367,11 +12351,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -12399,7 +12379,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -12411,11 +12395,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="J46" s="11" t="inlineStr"/>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -12436,11 +12416,7 @@
           <t>JOSE</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -12451,11 +12427,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -12527,8 +12499,16 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
-      <c r="C50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -12539,7 +12519,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -12560,11 +12544,7 @@
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -12602,7 +12582,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
@@ -12621,7 +12601,7 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -12645,10 +12625,14 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="C53" s="10" t="inlineStr"/>
+          <t>JACKH</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -12659,11 +12643,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -12691,11 +12671,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -12713,29 +12689,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -12745,15 +12717,19 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="L55" s="10" t="inlineStr"/>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="L55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -12795,19 +12771,19 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
         </is>
       </c>
       <c r="M56" s="7" t="inlineStr">
@@ -12841,7 +12817,7 @@
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="K57" s="10" t="inlineStr"/>
@@ -12871,7 +12847,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -12927,11 +12907,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -12959,9 +12935,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K61" s="10" t="inlineStr"/>
@@ -12996,11 +12972,7 @@
           <t>JOSE</t>
         </is>
       </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -13083,8 +13055,16 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
-      <c r="K65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -13116,16 +13096,8 @@
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="K66" s="11" t="inlineStr"/>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -13158,15 +13130,19 @@
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>JACKH</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -13193,7 +13169,7 @@
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr"/>
@@ -13223,7 +13199,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -13253,29 +13233,25 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -13444,7 +13420,7 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
@@ -13452,14 +13428,14 @@
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13620,7 +13596,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -13688,12 +13664,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
@@ -13816,7 +13792,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -13850,7 +13826,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -13906,11 +13886,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -13940,10 +13916,14 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -13970,11 +13950,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -14002,7 +13978,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -14030,11 +14010,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -14064,12 +14040,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -14077,7 +14053,11 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="E19" s="10" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -14102,12 +14082,16 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C20" s="11" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -14118,7 +14102,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -14136,15 +14124,19 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
       <c r="G21" s="10" t="inlineStr"/>
@@ -14172,7 +14164,7 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
@@ -14188,7 +14180,7 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr"/>
@@ -14208,19 +14200,15 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -14246,8 +14234,16 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr"/>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -14280,7 +14276,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -14288,16 +14284,8 @@
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="D25" s="10" t="inlineStr"/>
+      <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="10" t="inlineStr"/>
@@ -14322,7 +14310,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -14354,16 +14346,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -14374,7 +14358,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -14446,7 +14434,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -14458,7 +14450,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -14474,16 +14470,8 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
+      <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -14494,11 +14482,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J31" s="10" t="inlineStr"/>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -14514,9 +14498,9 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
@@ -14530,7 +14514,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -14546,7 +14534,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>JACKH</t>
+        </is>
+      </c>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -14558,11 +14550,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -14592,19 +14580,15 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -14618,27 +14602,31 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="F35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
@@ -14646,12 +14634,16 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K35" s="10" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -14666,7 +14658,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -14680,7 +14676,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K36" s="7" t="inlineStr">
@@ -14702,16 +14698,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -14722,12 +14714,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="K37" s="10" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -14756,19 +14752,15 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="L38" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -14794,8 +14786,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="10" t="inlineStr"/>
-      <c r="K39" s="10" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -14812,19 +14812,11 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="inlineStr"/>
+      <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr"/>
@@ -14834,21 +14826,13 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>MARIAC</t>
         </is>
       </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
+      <c r="K40" s="11" t="inlineStr"/>
+      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -14864,15 +14848,19 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -14884,7 +14872,7 @@
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
@@ -14938,11 +14926,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -14954,16 +14938,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -15062,8 +15042,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
-      <c r="C47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -15076,14 +15064,10 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="K47" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -15138,11 +15122,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -15160,7 +15140,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -15174,8 +15154,16 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
-      <c r="K50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -15192,14 +15180,10 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -15232,15 +15216,19 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D52" s="11" t="inlineStr"/>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -15250,16 +15238,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -15332,27 +15316,27 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>ALVARO</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
@@ -15364,20 +15348,24 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="M55" s="10" t="inlineStr"/>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="M55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -15390,9 +15378,9 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -15402,7 +15390,7 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>YENIFER</t>
         </is>
       </c>
       <c r="E56" s="7" t="inlineStr">
@@ -15424,15 +15412,19 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -15458,7 +15450,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -15486,11 +15482,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15546,11 +15538,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -15578,11 +15566,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -15612,10 +15596,14 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="K62" s="11" t="inlineStr"/>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -15700,7 +15688,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -15732,15 +15720,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L66" s="11" t="inlineStr"/>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -15768,24 +15760,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="M67" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -15810,7 +15798,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -15838,7 +15830,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>JACKH</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -15868,12 +15864,12 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
@@ -15881,21 +15877,13 @@
           <t>RAUL</t>
         </is>
       </c>
-      <c r="M70" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
-      <c r="N70" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="O70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
+      <c r="M70" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="N70" s="11" t="inlineStr"/>
+      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -15930,35 +15918,39 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
+      <c r="P71" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="P71" s="7" t="inlineStr">
+      <c r="Q71" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="Q71" s="7" t="inlineStr">
+      <c r="R71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -16072,20 +16064,20 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -16247,7 +16239,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>NAYELLI</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -16257,7 +16249,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -16315,7 +16307,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -16475,7 +16467,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
@@ -16507,7 +16499,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -16567,7 +16559,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -16625,7 +16617,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -16683,10 +16679,14 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr"/>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -16715,7 +16715,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -16733,7 +16733,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -16749,11 +16753,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -16783,17 +16783,17 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
           <t>EMIR</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -16809,16 +16809,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -16835,24 +16831,16 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr"/>
+      <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -16877,14 +16865,26 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="7" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="11" t="inlineStr"/>
-      <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
@@ -16913,26 +16913,14 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="C25" s="10" t="inlineStr"/>
+      <c r="D25" s="10" t="inlineStr"/>
+      <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="10" t="inlineStr"/>
@@ -16957,11 +16945,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -16993,8 +16977,16 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
-      <c r="C27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -17005,7 +16997,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -17021,16 +17017,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
+      <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="11" t="inlineStr"/>
@@ -17041,11 +17029,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -17101,7 +17085,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -17117,7 +17105,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -17147,7 +17139,7 @@
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>JAIME</t>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
@@ -17177,7 +17169,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>JACKH</t>
+        </is>
+      </c>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -17205,7 +17201,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -17235,35 +17235,39 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
           <t>14:00</t>
@@ -17271,7 +17275,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -17305,11 +17309,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -17325,16 +17325,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -17347,17 +17343,17 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
           <t>EMIR</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr">
-        <is>
-          <t>SONIA</t>
         </is>
       </c>
       <c r="M37" s="5" t="inlineStr">
@@ -17391,24 +17387,16 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="inlineStr"/>
+      <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
       <c r="P38" s="11" t="inlineStr"/>
@@ -17433,14 +17421,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>BRINDYB</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="M39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="K39" s="10" t="inlineStr"/>
-      <c r="L39" s="10" t="inlineStr"/>
-      <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
@@ -17453,57 +17453,29 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="C40" s="11" t="inlineStr"/>
+      <c r="D40" s="11" t="inlineStr"/>
+      <c r="E40" s="11" t="inlineStr"/>
+      <c r="F40" s="11" t="inlineStr"/>
+      <c r="G40" s="11" t="inlineStr"/>
       <c r="H40" s="11" t="inlineStr"/>
       <c r="I40" s="11" t="inlineStr">
         <is>
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="K40" s="11" t="inlineStr"/>
+      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -17522,7 +17494,11 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -17533,21 +17509,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -17591,10 +17563,14 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr"/>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
@@ -17605,12 +17581,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
-      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -17681,7 +17661,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -17709,8 +17693,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
-      <c r="C47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -17723,7 +17715,7 @@
       </c>
       <c r="J47" s="7" t="inlineStr">
         <is>
-          <t>JAIME</t>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="K47" s="10" t="inlineStr"/>
@@ -17741,11 +17733,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -17757,11 +17745,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J48" s="11" t="inlineStr"/>
       <c r="K48" s="11" t="inlineStr"/>
       <c r="L48" s="11" t="inlineStr"/>
       <c r="M48" s="11" t="inlineStr"/>
@@ -17777,8 +17761,16 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
-      <c r="C49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
       <c r="F49" s="10" t="inlineStr"/>
@@ -17789,7 +17781,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="10" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -17807,14 +17803,10 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -17827,15 +17819,19 @@
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K50" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L50" s="11" t="inlineStr"/>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
       <c r="O50" s="11" t="inlineStr"/>
@@ -17849,11 +17845,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B51" s="10" t="inlineStr"/>
       <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
@@ -17865,11 +17857,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J51" s="10" t="inlineStr"/>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -17887,24 +17875,20 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
           <t>CELESTE</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -17913,16 +17897,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -17949,7 +17929,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -17977,7 +17961,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -17995,29 +17983,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -18025,36 +18009,20 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="M55" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="N55" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="O55" s="5" t="inlineStr">
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="K55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
+      <c r="N55" s="10" t="inlineStr"/>
+      <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
       <c r="R55" s="8" t="inlineStr"/>
@@ -18067,20 +18035,24 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="E56" s="11" t="inlineStr"/>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -18094,7 +18066,11 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="11" t="inlineStr"/>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
@@ -18151,10 +18127,14 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K58" s="11" t="inlineStr"/>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
@@ -18237,9 +18217,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K61" s="10" t="inlineStr"/>
@@ -18271,10 +18251,14 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="K62" s="11" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -18303,10 +18287,14 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="K63" s="10" t="inlineStr"/>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -18335,12 +18323,12 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K64" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="L64" s="11" t="inlineStr"/>
@@ -18371,14 +18359,10 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -18407,14 +18391,10 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
           <t>JULISSA</t>
         </is>
       </c>
+      <c r="K66" s="11" t="inlineStr"/>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -18443,12 +18423,12 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
@@ -18458,7 +18438,7 @@
       </c>
       <c r="M67" s="5" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="N67" s="10" t="inlineStr"/>
@@ -18513,7 +18493,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>JACKH</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -18543,29 +18527,25 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="N70" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -18591,40 +18571,44 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
+      <c r="N71" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="Q71" s="7" t="inlineStr">
+        <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -542,19 +542,19 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
@@ -715,7 +715,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -781,19 +781,15 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -905,14 +901,10 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -1019,7 +1011,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -1073,7 +1069,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -1100,9 +1100,9 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -1133,24 +1133,20 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
           <t>NAYELLI</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -1176,12 +1172,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr"/>
@@ -1196,7 +1192,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -1213,11 +1209,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -1244,14 +1236,14 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="D22" s="11" t="inlineStr"/>
@@ -1266,14 +1258,10 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -1292,7 +1280,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -1318,9 +1310,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -1357,12 +1349,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -1388,11 +1384,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -1406,14 +1398,10 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
       <c r="N26" s="11" t="inlineStr"/>
@@ -1427,7 +1415,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -1454,11 +1446,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -1524,7 +1512,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -1541,10 +1533,14 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -1582,7 +1578,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -1609,7 +1609,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -1624,7 +1628,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -1636,16 +1644,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -1666,7 +1670,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -1681,12 +1685,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -1714,11 +1718,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr"/>
@@ -1753,14 +1753,14 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="L37" s="10" t="inlineStr"/>
@@ -1776,11 +1776,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -1797,7 +1793,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K38" s="11" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -1811,7 +1811,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -1823,9 +1827,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K39" s="7" t="inlineStr">
@@ -1848,7 +1852,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
@@ -1866,12 +1870,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -1885,26 +1893,22 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
@@ -1913,21 +1917,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -1967,7 +1967,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -2052,11 +2056,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -2085,10 +2085,14 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr"/>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>FERNANDO</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -2170,7 +2174,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -2201,19 +2205,15 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -2242,16 +2242,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="C52" s="11" t="inlineStr"/>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -2264,12 +2260,12 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="L52" s="11" t="inlineStr"/>
@@ -2287,7 +2283,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr"/>
@@ -2301,11 +2297,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -2320,7 +2312,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -2334,7 +2330,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -2353,29 +2349,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -2385,7 +2377,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
@@ -2442,26 +2434,22 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M56" s="7" t="inlineStr">
+      <c r="L56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -2512,7 +2500,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -2539,7 +2531,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -2593,11 +2589,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -2626,7 +2618,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -2684,7 +2676,7 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr"/>
@@ -2715,7 +2707,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -2746,24 +2738,16 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
+      <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -2789,7 +2773,7 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
@@ -2824,7 +2808,7 @@
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr"/>
@@ -2853,7 +2837,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -2882,25 +2870,29 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -2945,12 +2937,12 @@
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
           <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
         </is>
       </c>
       <c r="P71" s="10" t="inlineStr"/>
@@ -3065,16 +3057,16 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="10" customWidth="1" min="16" max="16"/>
@@ -3436,7 +3428,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -3466,11 +3458,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -3556,7 +3544,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -3586,11 +3574,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -3618,7 +3602,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -3676,7 +3664,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -3684,7 +3672,11 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -3710,21 +3702,13 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -3754,11 +3738,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -3786,13 +3766,21 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
-      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -3831,7 +3819,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -3858,9 +3850,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -3900,7 +3892,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -3934,11 +3926,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -3952,7 +3940,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -3970,11 +3958,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -3986,11 +3970,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -4102,11 +4082,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="J31" s="10" t="inlineStr"/>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -4134,7 +4110,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -4214,17 +4194,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -4234,21 +4218,13 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="K35" s="10" t="inlineStr"/>
+      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -4262,11 +4238,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -4278,11 +4250,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -4298,13 +4266,21 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -4314,13 +4290,21 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr"/>
-      <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -4351,7 +4335,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K38" s="11" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -4366,11 +4354,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -4382,9 +4366,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="K39" s="7" t="inlineStr">
@@ -4406,16 +4390,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -4428,7 +4408,7 @@
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>ANGELICA</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
@@ -4452,12 +4432,12 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
           <t>MARCO</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D41" s="7" t="inlineStr">
@@ -4474,21 +4454,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -4502,11 +4478,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B42" s="11" t="inlineStr"/>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -4518,11 +4490,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -4538,7 +4506,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -4570,11 +4542,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -4602,7 +4570,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -4660,14 +4632,10 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -4752,10 +4720,14 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C50" s="11" t="inlineStr"/>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -4766,7 +4738,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -4789,7 +4765,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -4804,14 +4780,10 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -4826,13 +4798,21 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr"/>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -4842,13 +4822,21 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="L52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
-      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -4862,11 +4850,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -4894,16 +4878,8 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
+      <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
       <c r="F54" s="11" t="inlineStr"/>
@@ -4914,11 +4890,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -4936,20 +4908,24 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -4960,17 +4936,17 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="L55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="M55" s="10" t="inlineStr"/>
@@ -4986,32 +4962,36 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="F56" s="7" t="inlineStr">
+      <c r="G56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
         <is>
@@ -5020,12 +5000,12 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
           <t>MARCO</t>
-        </is>
-      </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
         </is>
       </c>
       <c r="L56" s="7" t="inlineStr">
@@ -5058,11 +5038,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -5090,7 +5066,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -5118,11 +5098,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -5150,7 +5126,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -5208,14 +5188,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -5300,10 +5276,14 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K65" s="10" t="inlineStr"/>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -5337,14 +5317,10 @@
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -5370,14 +5346,26 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="5" t="inlineStr">
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="K67" s="10" t="inlineStr"/>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -5402,11 +5390,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5434,16 +5418,8 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K69" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
+      <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
       <c r="N69" s="10" t="inlineStr"/>
@@ -5472,21 +5448,29 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
           <t>FIORELLA</t>
         </is>
       </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="L70" s="5" t="inlineStr">
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="M70" s="11" t="inlineStr"/>
-      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -5512,22 +5496,22 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
@@ -5661,17 +5645,17 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -5835,7 +5819,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5843,11 +5827,7 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -5903,7 +5883,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -5913,10 +5893,14 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr"/>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -6031,7 +6015,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -6147,7 +6131,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -6207,7 +6191,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -6265,21 +6249,17 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -6307,19 +6287,15 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -6331,7 +6307,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -6386,7 +6362,7 @@
           <t>ATHINA</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
@@ -6403,7 +6379,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -6430,7 +6406,11 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -6457,21 +6437,17 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -6501,8 +6477,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="10" t="inlineStr"/>
-      <c r="C25" s="10" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -6543,7 +6527,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -6561,7 +6545,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -6617,11 +6605,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B29" s="10" t="inlineStr"/>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -6649,11 +6633,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -6665,11 +6645,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -6727,7 +6703,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -6773,7 +6749,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -6810,12 +6790,16 @@
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -6827,10 +6811,14 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K35" s="10" t="inlineStr"/>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -6879,15 +6867,19 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -6902,7 +6894,7 @@
           <t>ATHINA</t>
         </is>
       </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="K37" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
@@ -6923,7 +6915,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C38" s="11" t="inlineStr"/>
@@ -6942,7 +6934,11 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="K38" s="11" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -6957,11 +6953,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -6973,21 +6965,17 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -7001,16 +6989,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -7021,8 +7001,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="11" t="inlineStr"/>
-      <c r="K40" s="11" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -7039,12 +7027,12 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
           <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D41" s="7" t="inlineStr">
@@ -7066,11 +7054,7 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -7127,10 +7111,14 @@
       </c>
       <c r="J43" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="K43" s="10" t="inlineStr"/>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -7145,7 +7133,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -7189,11 +7181,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -7239,7 +7227,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -7297,7 +7285,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -7325,11 +7317,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -7359,10 +7347,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -7373,7 +7365,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -7391,15 +7387,19 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -7411,15 +7411,19 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="L52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -7433,11 +7437,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K53" s="10" t="inlineStr"/>
@@ -7481,11 +7481,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -7503,60 +7499,44 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
-        <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="M55" s="6" t="inlineStr">
+      <c r="J55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="K55" s="10" t="inlineStr"/>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -7569,24 +7549,24 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
           <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
         </is>
       </c>
       <c r="F56" s="11" t="inlineStr"/>
@@ -7597,31 +7577,23 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="N56" s="7" t="inlineStr">
+      <c r="L56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="M56" s="11" t="inlineStr"/>
+      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -7701,7 +7673,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -7791,7 +7767,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -7821,7 +7797,11 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -7849,7 +7829,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -7877,16 +7861,8 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -7915,12 +7891,12 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>SEBASTIAN</t>
         </is>
       </c>
       <c r="L66" s="11" t="inlineStr"/>
@@ -7951,16 +7927,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -7985,11 +7969,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -8047,30 +8027,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -8100,27 +8084,27 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
         </is>
       </c>
       <c r="P71" s="10" t="inlineStr"/>
@@ -8241,17 +8225,17 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -8414,7 +8398,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -8424,7 +8408,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -8492,7 +8476,7 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -8668,11 +8652,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -8700,7 +8680,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -8728,11 +8712,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -8816,7 +8796,11 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -8846,7 +8830,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -8854,11 +8838,7 @@
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -8886,7 +8866,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -8906,7 +8886,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -8924,11 +8904,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -8956,16 +8932,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -9005,7 +8977,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -9032,9 +9008,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -9072,12 +9048,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -9136,7 +9116,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -9164,16 +9148,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
+      <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
       <c r="F28" s="11" t="inlineStr"/>
@@ -9184,11 +9160,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -9216,7 +9188,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -9288,8 +9264,16 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -9328,7 +9312,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -9346,14 +9334,10 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
           <t>VALERIA</t>
         </is>
       </c>
+      <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -9366,7 +9350,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -9393,21 +9377,13 @@
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="D35" s="10" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -9418,7 +9394,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -9456,11 +9432,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -9492,16 +9464,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -9516,11 +9484,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -9537,7 +9501,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K38" s="11" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9564,9 +9532,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="K39" s="7" t="inlineStr">
@@ -9626,10 +9594,14 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -9647,7 +9619,7 @@
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -9676,7 +9648,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -9694,19 +9670,11 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
           <t>JOSE</t>
         </is>
       </c>
+      <c r="C43" s="10" t="inlineStr"/>
+      <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
       <c r="G43" s="10" t="inlineStr"/>
@@ -9716,21 +9684,13 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K43" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="K43" s="10" t="inlineStr"/>
+      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -9830,7 +9790,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -9844,8 +9804,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
-      <c r="K47" s="10" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -9951,12 +9919,12 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
         </is>
       </c>
       <c r="E51" s="10" t="inlineStr"/>
@@ -9973,11 +9941,7 @@
           <t>ANGELICA</t>
         </is>
       </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -9994,15 +9958,19 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -10032,11 +10000,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -10048,11 +10012,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -10068,11 +10028,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -10102,25 +10058,29 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -10133,11 +10093,7 @@
           <t>MARCO</t>
         </is>
       </c>
-      <c r="K55" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -10152,22 +10108,26 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
+          <t>MARIAC</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -10178,10 +10138,14 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="K56" s="11" t="inlineStr"/>
       <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
@@ -10238,19 +10202,11 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K58" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="L58" s="3" t="inlineStr">
-        <is>
           <t>JOSE</t>
         </is>
       </c>
+      <c r="K58" s="11" t="inlineStr"/>
+      <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
       <c r="O58" s="11" t="inlineStr"/>
@@ -10276,7 +10232,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -10362,7 +10322,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -10483,19 +10443,15 @@
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -10522,16 +10478,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -10556,11 +10520,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -10588,11 +10548,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -10622,30 +10578,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
           <t>VALERIA</t>
         </is>
       </c>
-      <c r="L70" s="4" t="inlineStr">
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -10675,34 +10635,26 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -10817,20 +10769,20 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -10993,12 +10945,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -11061,7 +11013,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -11129,7 +11081,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -11189,7 +11141,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -11219,11 +11171,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -11307,7 +11255,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -11335,11 +11287,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -11395,11 +11343,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -11429,20 +11373,24 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -11472,17 +11420,21 @@
           <t>CIELO</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="E20" s="11" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
       <c r="H20" s="11" t="inlineStr"/>
@@ -11493,7 +11445,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -11513,7 +11465,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -11549,7 +11501,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
@@ -11565,7 +11517,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -11589,7 +11541,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr"/>
@@ -11619,21 +11571,17 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -11645,7 +11593,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -11663,12 +11611,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -11697,7 +11649,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -11713,7 +11665,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -11731,11 +11683,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -11747,11 +11695,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -11855,8 +11799,16 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
-      <c r="C31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -11867,7 +11819,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -11911,11 +11867,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -11927,11 +11879,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -11979,21 +11927,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -12043,7 +11987,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -12059,12 +12007,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -12077,7 +12029,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="K37" s="10" t="inlineStr"/>
@@ -12109,7 +12061,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr"/>
@@ -12127,7 +12079,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -12139,21 +12095,17 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L39" s="7" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -12167,12 +12119,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="C40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>MARIAC</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -12183,12 +12139,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -12203,21 +12163,13 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
+      <c r="C41" s="10" t="inlineStr"/>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -12227,16 +12179,12 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -12263,11 +12211,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -12285,7 +12229,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C43" s="10" t="inlineStr"/>
@@ -12381,7 +12325,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C46" s="11" t="inlineStr"/>
@@ -12411,11 +12355,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -12471,7 +12411,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -12499,16 +12443,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
+      <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -12519,11 +12455,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>ANGELICA</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -12541,7 +12473,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -12577,19 +12509,15 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -12601,7 +12529,7 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -12623,16 +12551,8 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>JACKH</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
+      <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -12659,7 +12579,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -12671,7 +12595,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -12689,25 +12617,29 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -12717,21 +12649,29 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="K55" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="L55" s="6" t="inlineStr">
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>MARIAC</t>
+        </is>
+      </c>
+      <c r="N55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="M55" s="10" t="inlineStr"/>
-      <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
@@ -12745,25 +12685,29 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -12771,9 +12715,9 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -12781,16 +12725,12 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -12815,11 +12755,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -12849,7 +12785,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -12937,7 +12873,7 @@
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K61" s="10" t="inlineStr"/>
@@ -12969,7 +12905,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -13027,7 +12963,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -13055,16 +12995,8 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -13093,10 +13025,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -13125,24 +13061,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>JACKH</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="L67" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -13167,11 +13099,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -13199,11 +13127,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -13233,26 +13157,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -13277,35 +13209,39 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -13420,22 +13356,22 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13596,17 +13532,17 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -13669,12 +13605,12 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -13792,7 +13728,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -13826,11 +13762,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -13858,7 +13790,11 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -13916,14 +13852,10 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -14040,12 +13972,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
           <t>NINA</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -14084,12 +14016,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr"/>
@@ -14104,7 +14036,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -14124,12 +14056,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -14164,7 +14096,7 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
@@ -14180,7 +14112,7 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr"/>
@@ -14200,7 +14132,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -14208,7 +14140,11 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -14234,16 +14170,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
+      <c r="B24" s="11" t="inlineStr"/>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -14281,10 +14209,14 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="inlineStr"/>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -14310,11 +14242,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -14326,12 +14254,16 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
       <c r="N26" s="11" t="inlineStr"/>
@@ -14358,11 +14290,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -14378,7 +14306,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -14390,7 +14322,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="11" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -14436,7 +14372,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
@@ -14452,7 +14388,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -14470,7 +14406,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -14500,10 +14440,14 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="C32" s="11" t="inlineStr"/>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -14534,11 +14478,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>JACKH</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -14566,7 +14506,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -14578,16 +14522,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -14602,31 +14542,19 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="D35" s="10" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr"/>
+      <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
@@ -14634,16 +14562,12 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -14658,11 +14582,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -14676,15 +14596,19 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K36" s="7" t="inlineStr">
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="L36" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
       <c r="O36" s="11" t="inlineStr"/>
@@ -14698,12 +14622,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C37" s="10" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -14714,16 +14642,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -14752,7 +14676,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
@@ -14760,7 +14684,11 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="L38" s="11" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -14786,16 +14714,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
+      <c r="J39" s="10" t="inlineStr"/>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -14810,9 +14730,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -14828,10 +14748,14 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="K40" s="11" t="inlineStr"/>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -14846,21 +14770,13 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
+      <c r="C41" s="10" t="inlineStr"/>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -14870,21 +14786,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -14926,7 +14838,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -14938,12 +14854,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="K43" s="10" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -15044,14 +14964,10 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -15062,11 +14978,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -15138,11 +15050,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -15154,16 +15062,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
+      <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
@@ -15180,10 +15080,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -15194,11 +15098,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J51" s="10" t="inlineStr"/>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -15214,21 +15114,13 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
+      <c r="C52" s="11" t="inlineStr"/>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -15238,12 +15130,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K52" s="11" t="inlineStr"/>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -15316,29 +15212,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -15348,7 +15240,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
@@ -15361,12 +15253,16 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="M55" s="6" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="N55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
@@ -15378,32 +15274,36 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>MARIAC</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="F56" s="7" t="inlineStr">
+      <c r="G56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
         <is>
@@ -15412,19 +15312,15 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
           <t>ALEXANDER</t>
         </is>
       </c>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -15450,11 +15346,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -15482,7 +15374,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15596,14 +15492,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -15658,7 +15550,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -15686,11 +15582,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -15720,17 +15612,17 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="M66" s="11" t="inlineStr"/>
@@ -15760,21 +15652,29 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
           <t>DARLA</t>
         </is>
       </c>
-      <c r="K67" s="3" t="inlineStr">
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L67" s="5" t="inlineStr">
-        <is>
-          <t>ALVARO</t>
-        </is>
-      </c>
-      <c r="M67" s="10" t="inlineStr"/>
-      <c r="N67" s="10" t="inlineStr"/>
+      <c r="N67" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -15798,11 +15698,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -15830,11 +15726,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>JACKH</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -15864,26 +15756,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="N70" s="11" t="inlineStr"/>
-      <c r="O70" s="11" t="inlineStr"/>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="O70" s="5" t="inlineStr">
+        <is>
+          <t>ALVARO</t>
+        </is>
+      </c>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -15913,44 +15813,32 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="R71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="P71" s="10" t="inlineStr"/>
+      <c r="Q71" s="10" t="inlineStr"/>
+      <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -16064,20 +15952,20 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -16239,19 +16127,15 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -16307,20 +16191,24 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr"/>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -16375,7 +16263,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -16467,7 +16355,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
@@ -16497,11 +16385,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -16529,7 +16413,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -16559,7 +16447,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -16619,7 +16507,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -16679,15 +16567,19 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -16715,7 +16607,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -16735,7 +16627,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -16783,24 +16675,20 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
           <t>EMIR</t>
         </is>
       </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
       <c r="H22" s="11" t="inlineStr"/>
@@ -16811,7 +16699,7 @@
       </c>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>EMELYN</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr"/>
@@ -16831,14 +16719,10 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -16867,24 +16751,16 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
@@ -16895,7 +16771,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -16915,10 +16791,14 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -16979,12 +16859,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>NAYELLI</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr"/>
@@ -16999,7 +16879,7 @@
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K27" s="10" t="inlineStr"/>
@@ -17057,7 +16937,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>ANGELICA</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -17073,7 +16957,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -17085,11 +16973,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -17105,11 +16989,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -17137,9 +17017,9 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
@@ -17153,7 +17033,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -17169,11 +17053,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>JACKH</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -17203,10 +17083,14 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr"/>
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -17217,8 +17101,16 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="11" t="inlineStr"/>
-      <c r="K34" s="11" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -17235,39 +17127,27 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
+          <t>FERNANDO</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="H35" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="inlineStr"/>
+      <c r="G35" s="10" t="inlineStr"/>
+      <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
           <t>14:00</t>
@@ -17275,7 +17155,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -17297,7 +17177,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -17325,12 +17209,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -17343,24 +17231,20 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ANGELICA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr">
-        <is>
           <t>EMIR</t>
         </is>
       </c>
-      <c r="M37" s="5" t="inlineStr">
-        <is>
-          <t>EMELYN</t>
-        </is>
-      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
@@ -17387,14 +17271,10 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -17423,24 +17303,16 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>BRINDYB</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="L39" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="M39" s="7" t="inlineStr">
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="L39" s="10" t="inlineStr"/>
+      <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
@@ -17453,12 +17325,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -17471,10 +17347,14 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -17494,11 +17374,7 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
+      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -17511,14 +17387,10 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -17533,7 +17405,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -17545,7 +17421,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -17563,12 +17443,12 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="D43" s="10" t="inlineStr"/>
@@ -17583,15 +17463,19 @@
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K43" s="7" t="inlineStr">
         <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="L43" s="10" t="inlineStr"/>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="L43" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -17663,7 +17547,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C46" s="11" t="inlineStr"/>
@@ -17695,14 +17579,10 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -17713,11 +17593,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -17763,12 +17639,12 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D49" s="10" t="inlineStr"/>
@@ -17781,11 +17657,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -17801,11 +17673,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -17817,21 +17685,9 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K50" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="L50" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
+      <c r="K50" s="11" t="inlineStr"/>
+      <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
       <c r="N50" s="11" t="inlineStr"/>
       <c r="O50" s="11" t="inlineStr"/>
@@ -17845,7 +17701,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="10" t="inlineStr"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
@@ -17857,7 +17717,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -17875,19 +17739,15 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -17897,12 +17757,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -17929,11 +17793,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -17961,11 +17821,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -17983,24 +17839,20 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -18009,17 +17861,21 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="K55" s="6" t="inlineStr">
+      <c r="L55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -18033,27 +17889,31 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
+          <t>MARIAC</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
       <c r="E56" s="7" t="inlineStr">
         <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -18061,14 +17921,14 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
         </is>
       </c>
       <c r="L56" s="11" t="inlineStr"/>
@@ -18127,12 +17987,12 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K58" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="L58" s="11" t="inlineStr"/>
@@ -18219,7 +18079,7 @@
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K61" s="10" t="inlineStr"/>
@@ -18251,14 +18111,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -18287,14 +18143,10 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
-          <t>NAYELLI</t>
-        </is>
-      </c>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -18323,12 +18175,12 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="K64" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L64" s="11" t="inlineStr"/>
@@ -18359,7 +18211,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -18391,10 +18243,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>SEBASTIAN</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -18423,24 +18279,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -18465,7 +18317,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -18493,11 +18349,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>JACKH</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -18527,26 +18379,34 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="M70" s="5" t="inlineStr">
+          <t>NAYELLI</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>VALERIA</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -18571,44 +18431,40 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>MARIAC</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="P71" s="7" t="inlineStr">
         <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -543,18 +543,18 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
@@ -715,12 +715,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -748,7 +748,11 @@
           <t>06:45</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr"/>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
@@ -777,17 +781,17 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -901,14 +905,10 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -988,7 +988,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -1042,11 +1046,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -1129,27 +1129,27 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="G19" s="10" t="inlineStr"/>
@@ -1176,15 +1176,19 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -1196,7 +1200,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -1225,7 +1229,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="J21" s="10" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="K21" s="10" t="inlineStr"/>
       <c r="L21" s="10" t="inlineStr"/>
       <c r="M21" s="10" t="inlineStr"/>
@@ -1240,12 +1248,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C22" s="11" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -1258,12 +1270,12 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr"/>
@@ -1281,12 +1293,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr"/>
@@ -1357,7 +1369,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="10" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
@@ -1386,7 +1402,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -1402,14 +1418,10 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
       <c r="N26" s="11" t="inlineStr"/>
@@ -1479,7 +1491,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C29" s="10" t="inlineStr"/>
@@ -1493,7 +1505,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -1547,11 +1563,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J31" s="10" t="inlineStr"/>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -1620,11 +1632,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -1638,7 +1646,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -1661,7 +1669,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
@@ -1669,11 +1677,7 @@
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -1685,7 +1689,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -1735,7 +1739,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1743,11 +1747,7 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -1757,12 +1757,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K37" s="10" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -1776,11 +1780,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -1794,12 +1794,12 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="L38" s="11" t="inlineStr"/>
@@ -1815,11 +1815,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -1858,12 +1854,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -1874,7 +1874,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="11" t="inlineStr"/>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
@@ -1901,19 +1905,11 @@
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="F41" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="E41" s="10" t="inlineStr"/>
+      <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
       <c r="I41" s="10" t="inlineStr">
@@ -1923,12 +1919,12 @@
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -1985,7 +1981,7 @@
       </c>
       <c r="J43" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="K43" s="10" t="inlineStr"/>
@@ -2085,7 +2081,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2118,7 +2114,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -2145,11 +2145,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -2178,7 +2174,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -2209,15 +2205,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
           <t>CARLOS</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -2246,16 +2246,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr"/>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -2268,14 +2264,10 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -2289,16 +2281,12 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>FERNANDO</t>
-        </is>
-      </c>
-      <c r="C53" s="7" t="inlineStr">
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -2309,11 +2297,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -2340,11 +2324,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -2361,12 +2341,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -2389,7 +2369,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
@@ -2407,7 +2387,11 @@
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="N55" s="10" t="inlineStr"/>
+      <c r="N55" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
@@ -2420,12 +2404,12 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
@@ -2444,29 +2428,25 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
           <t>SHADIA</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="N56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
       <c r="Q56" s="11" t="inlineStr"/>
@@ -2626,14 +2606,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -2659,7 +2635,11 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -2686,11 +2666,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -2719,12 +2695,12 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K65" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="L65" s="10" t="inlineStr"/>
@@ -2754,11 +2730,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
           <t>CARLOS</t>
         </is>
       </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -2785,24 +2769,16 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>FERNANDO</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
           <t>MILAGROS</t>
         </is>
       </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="L67" s="10" t="inlineStr"/>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -2886,29 +2862,25 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -2933,17 +2905,17 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
@@ -2956,11 +2928,7 @@
           <t>MOISES</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
     </row>
@@ -3073,18 +3041,18 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="8" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -3246,14 +3214,14 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -3312,7 +3280,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -3322,7 +3290,7 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -3440,7 +3408,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -3470,11 +3438,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -3558,8 +3522,16 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
-      <c r="C15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -3588,7 +3560,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -3618,11 +3590,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -3680,16 +3648,24 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
-      <c r="E19" s="10" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -3714,12 +3690,16 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -3730,11 +3710,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -3752,7 +3728,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -3782,16 +3758,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -3804,7 +3776,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -3828,11 +3800,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr"/>
-      <c r="D23" s="10" t="inlineStr"/>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -3894,16 +3874,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -3930,7 +3906,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -3944,7 +3924,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -3974,11 +3954,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -4050,7 +4026,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -4062,8 +4042,16 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
-      <c r="K30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
       <c r="N30" s="11" t="inlineStr"/>
@@ -4078,11 +4066,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -4096,7 +4080,7 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K31" s="10" t="inlineStr"/>
@@ -4114,7 +4098,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4126,11 +4114,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -4146,11 +4130,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -4178,7 +4158,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -4190,12 +4174,16 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -4210,9 +4198,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -4222,7 +4210,7 @@
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr"/>
@@ -4234,12 +4222,16 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -4272,7 +4264,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -4290,16 +4282,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="B37" s="10" t="inlineStr"/>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -4344,10 +4328,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -4398,21 +4386,13 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="C40" s="11" t="inlineStr"/>
+      <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr"/>
@@ -4422,16 +4402,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
+      <c r="J40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -4446,26 +4422,22 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
@@ -4474,13 +4446,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="10" t="inlineStr"/>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -4536,7 +4516,7 @@
       </c>
       <c r="J43" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="K43" s="10" t="inlineStr"/>
@@ -4582,7 +4562,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -4640,7 +4624,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -4654,7 +4638,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -4682,11 +4670,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J48" s="11" t="inlineStr"/>
       <c r="K48" s="11" t="inlineStr"/>
       <c r="L48" s="11" t="inlineStr"/>
       <c r="M48" s="11" t="inlineStr"/>
@@ -4704,7 +4688,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr"/>
@@ -4734,11 +4718,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -4750,11 +4730,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -4772,19 +4748,15 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
           <t>CARLOS</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -4816,15 +4788,19 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -4834,16 +4810,8 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="J52" s="11" t="inlineStr"/>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -4858,7 +4826,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -4920,29 +4892,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
           <t>BELINDA</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -4952,24 +4920,20 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="M55" s="4" t="inlineStr">
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="L55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -4984,24 +4948,16 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="D56" s="11" t="inlineStr"/>
+      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -5010,26 +4966,22 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
+      <c r="L56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -5082,11 +5034,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -5114,7 +5062,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -5142,7 +5094,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -5200,7 +5156,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -5260,7 +5216,7 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr"/>
@@ -5290,11 +5246,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -5324,24 +5276,20 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
           <t>CARLOS</t>
         </is>
       </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
       <c r="L66" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -5368,12 +5316,12 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="L67" s="5" t="inlineStr">
@@ -5406,7 +5354,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5464,25 +5416,29 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
           <t>BELINDA</t>
         </is>
       </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -5508,7 +5464,7 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -5518,24 +5474,20 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -5653,17 +5605,17 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -5827,7 +5779,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5837,7 +5789,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -5903,11 +5855,7 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -6139,10 +6087,14 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr"/>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -6197,11 +6149,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -6303,7 +6251,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -6323,7 +6271,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -6343,7 +6291,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -6373,12 +6321,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -6415,14 +6367,10 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -6454,11 +6402,7 @@
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -6521,7 +6465,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -6609,7 +6557,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -6651,10 +6603,14 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="K30" s="11" t="inlineStr"/>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
       <c r="N30" s="11" t="inlineStr"/>
@@ -6669,11 +6625,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -6717,11 +6669,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -6765,7 +6713,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -6797,26 +6749,22 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -6827,7 +6775,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -6863,7 +6811,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -6886,11 +6834,7 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -6901,12 +6845,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -6921,11 +6869,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -6939,14 +6883,10 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -6961,11 +6901,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -6982,11 +6918,7 @@
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -7001,12 +6933,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -7042,16 +6978,12 @@
           <t>PILAR</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -7061,17 +6993,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="L41" s="10" t="inlineStr"/>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -7115,10 +7051,14 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr"/>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
@@ -7129,11 +7069,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -7149,7 +7085,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -7205,11 +7145,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -7239,7 +7175,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -7303,14 +7239,10 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
       <c r="F49" s="10" t="inlineStr"/>
@@ -7349,11 +7281,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -7371,19 +7299,11 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -7409,13 +7329,21 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr"/>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -7430,11 +7358,7 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -7449,7 +7373,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -7461,11 +7389,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -7493,11 +7417,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -7515,29 +7435,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -7547,25 +7463,29 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr">
+      <c r="L55" s="3" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="M55" s="6" t="inlineStr">
+      <c r="N55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
@@ -7579,19 +7499,15 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="D56" s="11" t="inlineStr"/>
       <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
@@ -7606,16 +7522,12 @@
           <t>PILAR</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
+      <c r="K56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -7671,10 +7583,14 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K58" s="11" t="inlineStr"/>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
@@ -7701,7 +7617,11 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -7757,11 +7677,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -7791,14 +7707,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -7855,14 +7767,10 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K64" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
@@ -7889,7 +7797,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -7919,14 +7831,10 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="inlineStr"/>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -7955,15 +7863,19 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -7989,7 +7901,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -8047,17 +7963,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -8105,24 +8021,20 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -8424,7 +8336,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -8482,7 +8394,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -8492,7 +8404,7 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -8668,11 +8580,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -8700,7 +8608,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -8816,11 +8728,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -8850,17 +8758,17 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>ROMINA</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -8896,12 +8804,16 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -8932,7 +8844,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -8978,7 +8894,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -9036,16 +8952,12 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -9140,11 +9052,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -9172,7 +9080,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -9184,11 +9096,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -9204,11 +9112,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B29" s="10" t="inlineStr"/>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -9220,7 +9124,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -9264,11 +9172,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -9296,8 +9200,16 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -9340,11 +9252,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -9362,10 +9270,14 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -9378,12 +9290,12 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K34" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="L34" s="4" t="inlineStr">
@@ -9409,8 +9321,16 @@
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="10" t="inlineStr"/>
-      <c r="D35" s="10" t="inlineStr"/>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -9420,12 +9340,16 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -9460,7 +9384,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -9476,11 +9404,7 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="B37" s="10" t="inlineStr"/>
       <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
@@ -9544,11 +9468,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -9560,16 +9480,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -9584,16 +9500,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -9631,7 +9543,7 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="D41" s="10" t="inlineStr"/>
@@ -9651,7 +9563,7 @@
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -9668,11 +9580,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B42" s="11" t="inlineStr"/>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -9684,11 +9592,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -9704,7 +9608,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -9716,12 +9624,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="K43" s="10" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -9736,7 +9648,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -9748,11 +9664,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J44" s="11" t="inlineStr"/>
       <c r="K44" s="11" t="inlineStr"/>
       <c r="L44" s="11" t="inlineStr"/>
       <c r="M44" s="11" t="inlineStr"/>
@@ -9770,7 +9682,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C45" s="10" t="inlineStr"/>
@@ -9800,11 +9712,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -9832,7 +9740,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -9844,8 +9756,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
-      <c r="K47" s="10" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -9860,11 +9780,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -9892,11 +9808,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -9954,12 +9866,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -9998,7 +9910,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -10016,11 +9928,7 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+      <c r="J52" s="11" t="inlineStr"/>
       <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
@@ -10036,7 +9944,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -10064,11 +9976,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -10080,11 +9988,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -10102,24 +10006,20 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+          <t>ARIADNA</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -10130,24 +10030,20 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="M55" s="6" t="inlineStr">
+      <c r="L55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -10167,14 +10063,10 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="D56" s="11" t="inlineStr"/>
       <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
@@ -10191,7 +10083,7 @@
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L56" s="11" t="inlineStr"/>
@@ -10220,11 +10112,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -10252,7 +10140,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -10282,10 +10174,14 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K59" s="3" t="inlineStr">
+        <is>
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -10314,7 +10210,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -10344,11 +10240,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -10376,7 +10268,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -10404,16 +10300,8 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
+      <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -10440,11 +10328,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -10502,12 +10386,12 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="L66" s="11" t="inlineStr"/>
@@ -10538,7 +10422,7 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
@@ -10572,7 +10456,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -10600,11 +10488,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -10634,17 +10518,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -10692,15 +10576,19 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="N71" s="10" t="inlineStr"/>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
@@ -10816,17 +10704,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
@@ -11061,7 +10949,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -11071,10 +10959,14 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr"/>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -11159,7 +11051,11 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -11187,11 +11083,7 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -11219,11 +11111,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -11307,7 +11195,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -11335,11 +11227,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -11367,7 +11255,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -11395,11 +11287,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -11429,22 +11317,22 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
         </is>
       </c>
       <c r="F19" s="10" t="inlineStr"/>
@@ -11481,7 +11369,11 @@
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -11513,7 +11405,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -11559,12 +11451,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -11586,10 +11482,14 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D23" s="10" t="inlineStr"/>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -11615,21 +11515,13 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -11675,7 +11567,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="10" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -11691,7 +11587,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -11731,11 +11631,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -11751,9 +11647,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
@@ -11811,7 +11707,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -11823,7 +11723,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -11839,7 +11743,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -11867,7 +11775,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -11879,7 +11791,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -11907,11 +11823,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -11927,11 +11839,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -11943,13 +11851,21 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
-      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -11965,19 +11881,15 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -11987,17 +11899,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="K35" s="5" t="inlineStr">
+      <c r="L35" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -12013,14 +11929,10 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
           <t>SHADIA</t>
         </is>
       </c>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -12031,11 +11943,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -12051,9 +11959,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C37" s="10" t="inlineStr"/>
@@ -12102,14 +12010,10 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -12123,11 +12027,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -12139,21 +12039,13 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="K39" s="10" t="inlineStr"/>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -12167,7 +12059,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -12201,7 +12097,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -12223,12 +12119,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -12243,7 +12143,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -12283,19 +12187,19 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K43" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="L43" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="M43" s="10" t="inlineStr"/>
@@ -12311,11 +12215,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -12343,7 +12243,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -12355,7 +12259,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -12371,11 +12279,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -12387,9 +12291,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="K46" s="11" t="inlineStr"/>
@@ -12409,14 +12313,10 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -12427,7 +12327,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -12532,8 +12436,16 @@
           <t>ARIADNA</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr"/>
-      <c r="D51" s="10" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -12545,14 +12457,10 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
           <t>SHADIA</t>
         </is>
       </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -12569,24 +12477,16 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -12597,14 +12497,10 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -12619,11 +12515,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -12681,29 +12573,25 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -12713,24 +12601,12 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="M55" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="K55" s="10" t="inlineStr"/>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -12743,9 +12619,9 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>MARIAC</t>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -12753,12 +12629,16 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="E56" s="11" t="inlineStr"/>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -12767,18 +12647,26 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="L56" s="11" t="inlineStr"/>
-      <c r="M56" s="11" t="inlineStr"/>
+      <c r="M56" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -12803,7 +12691,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -12861,7 +12753,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -12891,7 +12783,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -12919,11 +12815,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -12953,14 +12845,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -12987,11 +12875,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -13080,8 +12964,16 @@
           <t>ARIADNA</t>
         </is>
       </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -13109,19 +13001,15 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -13147,11 +13035,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -13209,22 +13093,22 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="N70" s="4" t="inlineStr">
@@ -13261,34 +13145,30 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -13407,15 +13287,15 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
@@ -13578,21 +13458,17 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -13648,7 +13524,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -13716,7 +13592,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -13748,7 +13624,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
@@ -13778,7 +13654,11 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -13806,11 +13686,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -13838,7 +13714,11 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -13894,11 +13774,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -13954,11 +13830,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -13988,7 +13860,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -14020,12 +13892,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -14066,8 +13938,16 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="11" t="inlineStr"/>
-      <c r="C20" s="11" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -14094,21 +13974,9 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>KELLY</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
+      <c r="C21" s="10" t="inlineStr"/>
+      <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
       <c r="G21" s="10" t="inlineStr"/>
@@ -14136,7 +14004,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -14144,13 +14012,21 @@
           <t>BRINDY</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="E22" s="11" t="inlineStr"/>
-      <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
       <c r="H22" s="11" t="inlineStr"/>
       <c r="I22" s="11" t="inlineStr">
@@ -14160,7 +14036,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -14184,10 +14060,14 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr"/>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -14214,13 +14094,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -14232,7 +14120,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>KELLY</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -14250,21 +14138,13 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="C25" s="10" t="inlineStr"/>
+      <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -14276,7 +14156,7 @@
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K25" s="10" t="inlineStr"/>
@@ -14296,7 +14176,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -14310,7 +14190,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -14326,11 +14210,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -14416,7 +14296,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>FERNANDO</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
@@ -14430,11 +14310,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -14478,7 +14354,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -14520,7 +14400,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -14550,21 +14430,13 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
+      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -14578,26 +14450,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -14606,8 +14470,16 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="10" t="inlineStr"/>
-      <c r="K35" s="10" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -14634,21 +14506,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K36" s="4" t="inlineStr">
-        <is>
-          <t>KELLY</t>
-        </is>
-      </c>
-      <c r="L36" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
+      <c r="K36" s="11" t="inlineStr"/>
+      <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
       <c r="O36" s="11" t="inlineStr"/>
@@ -14664,24 +14524,16 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
           <t>MIRIAN</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
+      <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="10" t="inlineStr"/>
@@ -14692,7 +14544,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
@@ -14700,12 +14552,16 @@
           <t>BRINDY</t>
         </is>
       </c>
-      <c r="L37" s="5" t="inlineStr">
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
@@ -14732,10 +14588,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -14750,7 +14610,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -14764,15 +14628,19 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="L39" s="10" t="inlineStr"/>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -14786,12 +14654,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -14822,26 +14694,18 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="D41" s="10" t="inlineStr"/>
+      <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="10" t="inlineStr"/>
@@ -14852,12 +14716,12 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -15058,11 +14922,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J48" s="11" t="inlineStr"/>
       <c r="K48" s="11" t="inlineStr"/>
       <c r="L48" s="11" t="inlineStr"/>
       <c r="M48" s="11" t="inlineStr"/>
@@ -15090,7 +14950,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="10" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -15118,11 +14982,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -15140,14 +15000,10 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -15176,24 +15032,20 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -15204,24 +15056,16 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
           <t>MIRIAN</t>
         </is>
       </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
-          <t>SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="M52" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
+      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -15234,7 +15078,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -15246,11 +15094,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -15278,7 +15122,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -15301,21 +15149,29 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr"/>
-      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
@@ -15324,26 +15180,34 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="N55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="M55" s="6" t="inlineStr">
+      <c r="O55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="N55" s="10" t="inlineStr"/>
-      <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
       <c r="R55" s="8" t="inlineStr"/>
@@ -15356,17 +15220,17 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="E56" s="11" t="inlineStr"/>
@@ -15378,26 +15242,18 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="J56" s="4" t="inlineStr">
         <is>
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
+      <c r="K56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="L56" s="11" t="inlineStr"/>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -15450,7 +15306,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15534,11 +15394,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -15568,14 +15424,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>VALERIA</t>
-        </is>
-      </c>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -15658,7 +15510,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -15688,19 +15544,11 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>FERNANDO</t>
-        </is>
-      </c>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="inlineStr"/>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -15728,24 +15576,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="M67" s="5" t="inlineStr">
+      <c r="L67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -15770,8 +15614,16 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
-      <c r="K68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="K68" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -15833,21 +15685,29 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -15877,29 +15737,25 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -16015,18 +15871,18 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
@@ -16191,7 +16047,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -16259,7 +16115,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -16269,7 +16125,7 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -16415,7 +16271,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
@@ -16445,11 +16301,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -16477,7 +16329,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -16505,9 +16361,9 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -16623,24 +16479,20 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -16665,13 +16517,21 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="C20" s="11" t="inlineStr"/>
-      <c r="D20" s="11" t="inlineStr"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -16681,7 +16541,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -16699,7 +16563,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -16731,7 +16595,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -16751,7 +16615,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -16780,7 +16644,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -16788,11 +16652,7 @@
           <t>ENZO</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -16817,9 +16677,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -16861,12 +16721,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -16893,11 +16757,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -16927,7 +16787,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="C27" s="10" t="inlineStr"/>
@@ -16943,7 +16803,7 @@
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K27" s="10" t="inlineStr"/>
@@ -16961,7 +16821,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -16973,11 +16837,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -16995,7 +16855,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C29" s="10" t="inlineStr"/>
@@ -17009,7 +16869,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -17037,9 +16901,9 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -17085,11 +16949,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>FERNANDO</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -17145,9 +17005,21 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
-      <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
       <c r="G34" s="11" t="inlineStr"/>
@@ -17157,7 +17029,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="11" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
@@ -17175,19 +17051,15 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -17197,13 +17069,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="K35" s="10" t="inlineStr"/>
-      <c r="L35" s="10" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -17229,11 +17109,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -17251,12 +17127,12 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr"/>
@@ -17271,7 +17147,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -17295,14 +17171,10 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>MAURICIO</t>
-        </is>
-      </c>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
       <c r="F38" s="11" t="inlineStr"/>
@@ -17320,7 +17192,7 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr">
@@ -17328,11 +17200,7 @@
           <t>ENZO</t>
         </is>
       </c>
-      <c r="M38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
       <c r="P38" s="11" t="inlineStr"/>
@@ -17347,14 +17215,10 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -17367,15 +17231,19 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="L39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -17394,11 +17262,7 @@
           <t>PILAR</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -17434,16 +17298,12 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -17453,21 +17313,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -17509,7 +17365,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -17523,7 +17383,7 @@
       </c>
       <c r="J43" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="K43" s="10" t="inlineStr"/>
@@ -17569,7 +17429,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -17653,11 +17517,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -17687,7 +17547,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr"/>
@@ -17747,12 +17607,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -17783,7 +17643,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -17803,12 +17663,12 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="L52" s="11" t="inlineStr"/>
@@ -17825,7 +17685,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -17839,7 +17703,7 @@
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K53" s="10" t="inlineStr"/>
@@ -17875,14 +17739,10 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -17899,29 +17759,21 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="E55" s="10" t="inlineStr"/>
+      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -17931,34 +17783,22 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr">
+      <c r="K55" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="N55" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="O55" s="6" t="inlineStr">
+      <c r="L55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="M55" s="10" t="inlineStr"/>
+      <c r="N55" s="10" t="inlineStr"/>
+      <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
       <c r="R55" s="8" t="inlineStr"/>
@@ -17971,17 +17811,17 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="E56" s="11" t="inlineStr"/>
@@ -17998,16 +17838,12 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="K56" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -18033,7 +17869,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -18061,7 +17901,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -18119,7 +17963,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -18149,7 +17993,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -18177,11 +18025,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>DARLA</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -18211,14 +18055,10 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+          <t>DARLA</t>
+        </is>
+      </c>
+      <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -18247,10 +18087,14 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="K64" s="11" t="inlineStr"/>
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
@@ -18279,7 +18123,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -18311,19 +18155,15 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -18351,7 +18191,7 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>SEBASTIAN</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
@@ -18385,9 +18225,9 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>FERNANDO</t>
+      <c r="J68" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr"/>
@@ -18456,25 +18296,29 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="N70" s="5" t="inlineStr">
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="O70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -18499,34 +18343,30 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARIAC</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="M71" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -544,14 +544,14 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
@@ -713,14 +713,14 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -748,11 +748,7 @@
           <t>06:45</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="B6" s="11" t="inlineStr"/>
       <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr"/>
       <c r="E6" s="11" t="inlineStr"/>
@@ -779,21 +775,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -903,11 +895,7 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -988,11 +976,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -1127,31 +1111,19 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>JoseLuis</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>JoseLuis</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="D19" s="10" t="inlineStr"/>
+      <c r="E19" s="10" t="inlineStr"/>
+      <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
       <c r="I19" s="10" t="inlineStr">
@@ -1174,21 +1146,13 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -1198,11 +1162,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -1229,11 +1189,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="J21" s="10" t="inlineStr"/>
       <c r="K21" s="10" t="inlineStr"/>
       <c r="L21" s="10" t="inlineStr"/>
       <c r="M21" s="10" t="inlineStr"/>
@@ -1248,16 +1204,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -1268,16 +1220,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -1291,16 +1239,8 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -1326,21 +1266,13 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -1371,7 +1303,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C25" s="10" t="inlineStr"/>
@@ -1400,11 +1332,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -1416,11 +1344,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -1489,11 +1413,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B29" s="10" t="inlineStr"/>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -1505,11 +1425,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
+      <c r="J29" s="10" t="inlineStr"/>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -1644,16 +1560,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -1674,7 +1586,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -1687,16 +1599,12 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -1710,7 +1618,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -1737,16 +1649,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -1757,16 +1665,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -1792,16 +1696,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J38" s="11" t="inlineStr"/>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -1827,21 +1723,13 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="K39" s="10" t="inlineStr"/>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -1854,16 +1742,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -1876,7 +1760,7 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K40" s="11" t="inlineStr"/>
@@ -1893,19 +1777,19 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
           <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="E41" s="10" t="inlineStr"/>
@@ -1917,14 +1801,14 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -2079,16 +1963,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -2114,11 +1990,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -2172,11 +2044,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -2203,21 +2071,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B51" s="10" t="inlineStr"/>
+      <c r="C51" s="10" t="inlineStr"/>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -2227,9 +2083,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="K51" s="10" t="inlineStr"/>
@@ -2246,12 +2102,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr"/>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -2262,9 +2122,9 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="K52" s="11" t="inlineStr"/>
@@ -2283,7 +2143,7 @@
       </c>
       <c r="B53" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr"/>
@@ -2339,26 +2199,22 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -2367,31 +2223,19 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="M55" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="N55" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
+      <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
@@ -2404,7 +2248,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -2414,7 +2258,7 @@
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="E56" s="11" t="inlineStr"/>
@@ -2426,26 +2270,22 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="K56" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -2604,11 +2444,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -2635,11 +2471,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -2693,16 +2525,8 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -2728,21 +2552,9 @@
           <t>21:45</t>
         </is>
       </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J66" s="11" t="inlineStr"/>
+      <c r="K66" s="11" t="inlineStr"/>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -2767,9 +2579,9 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
@@ -2804,7 +2616,7 @@
       </c>
       <c r="J68" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr"/>
@@ -2860,26 +2672,22 @@
           <t>22:45</t>
         </is>
       </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
+      <c r="J70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="M70" s="11" t="inlineStr"/>
       <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
@@ -2910,7 +2718,7 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -2920,12 +2728,12 @@
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="O71" s="10" t="inlineStr"/>
@@ -3041,16 +2849,16 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
@@ -3221,7 +3029,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -3278,21 +3086,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -3406,11 +3210,7 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -3522,16 +3322,8 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
+      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -3558,11 +3350,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -3646,26 +3434,18 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>JoseLuis</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>JoseLuis</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="D19" s="10" t="inlineStr"/>
+      <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -3690,16 +3470,12 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -3726,11 +3502,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -3774,16 +3546,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -3798,21 +3566,9 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="10" t="inlineStr"/>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -3906,11 +3662,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -3922,11 +3674,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -4026,11 +3774,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -4042,16 +3786,8 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
+      <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
       <c r="N30" s="11" t="inlineStr"/>
@@ -4078,11 +3814,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J31" s="10" t="inlineStr"/>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -4098,11 +3830,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4158,11 +3886,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -4174,16 +3898,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -4222,16 +3942,12 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -4262,11 +3978,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -4282,7 +3994,11 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="10" t="inlineStr"/>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
@@ -4326,16 +4042,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="J38" s="11" t="inlineStr"/>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -4350,11 +4058,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -4422,9 +4126,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -4432,11 +4136,7 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -4446,21 +4146,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -4562,11 +4258,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -4622,11 +4314,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -4638,11 +4326,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -4686,11 +4370,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -4746,16 +4426,12 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -4786,21 +4462,17 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -4810,7 +4482,11 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="11" t="inlineStr"/>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
@@ -4826,11 +4502,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -4870,11 +4542,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -4890,26 +4558,18 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="D55" s="10" t="inlineStr"/>
+      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -4918,21 +4578,17 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="K55" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="L55" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -4948,7 +4604,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
@@ -4966,9 +4622,9 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -4976,11 +4632,7 @@
           <t>ALEXANDER</t>
         </is>
       </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -5062,11 +4714,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -5094,11 +4742,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -5154,11 +4798,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -5214,11 +4854,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -5274,21 +4910,13 @@
           <t>21:45</t>
         </is>
       </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="J66" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="inlineStr"/>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -5314,21 +4942,17 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L67" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -5354,11 +4978,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5414,31 +5034,19 @@
           <t>22:45</t>
         </is>
       </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="K70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="L70" s="11" t="inlineStr"/>
+      <c r="M70" s="11" t="inlineStr"/>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -5464,17 +5072,17 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="K71" s="4" t="inlineStr">
+      <c r="L71" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
@@ -5604,16 +5212,16 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
@@ -5777,21 +5385,17 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -5845,14 +5449,14 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="D7" s="10" t="inlineStr"/>
@@ -5969,11 +5573,7 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -6085,16 +5685,8 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
+      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -6205,26 +5797,18 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>JoseLuis</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>JoseLuis</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="D19" s="10" t="inlineStr"/>
+      <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -6249,16 +5833,12 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -6269,11 +5849,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -6289,11 +5865,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -6321,16 +5893,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -6341,16 +5909,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -6365,11 +5929,7 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="B23" s="10" t="inlineStr"/>
       <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
@@ -6465,11 +6025,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -6481,11 +6037,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -6557,11 +6109,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B29" s="10" t="inlineStr"/>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -6601,16 +6149,8 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
+      <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
       <c r="N30" s="11" t="inlineStr"/>
@@ -6653,11 +6193,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -6713,11 +6249,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -6761,7 +6293,7 @@
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr"/>
@@ -6773,16 +6305,12 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -6809,11 +6337,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -6829,9 +6353,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C37" s="10" t="inlineStr"/>
@@ -6845,16 +6369,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>CIELO</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -6881,11 +6401,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="J38" s="11" t="inlineStr"/>
       <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
@@ -6933,16 +6449,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>YENIFER</t>
         </is>
       </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -6975,15 +6487,19 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -6993,21 +6509,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -7049,16 +6561,8 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
+      <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
       <c r="F43" s="10" t="inlineStr"/>
@@ -7069,7 +6573,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="10" t="inlineStr"/>
+      <c r="J43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -7085,11 +6593,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -7173,11 +6677,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -7189,11 +6689,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -7237,11 +6733,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -7297,11 +6789,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="B51" s="10" t="inlineStr"/>
       <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
@@ -7329,21 +6817,17 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -7353,9 +6837,9 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="K52" s="11" t="inlineStr"/>
@@ -7433,26 +6917,18 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="D55" s="10" t="inlineStr"/>
+      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -7461,31 +6937,19 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="N55" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
+      <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
@@ -7519,15 +6983,19 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
+          <t>ALEXANDER</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="K56" s="7" t="inlineStr">
+      <c r="L56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -7581,16 +7049,8 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K58" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
+      <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
       <c r="N58" s="11" t="inlineStr"/>
@@ -7617,11 +7077,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -7705,11 +7161,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -7765,11 +7217,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -7797,11 +7245,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -7829,11 +7273,7 @@
           <t>21:45</t>
         </is>
       </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="J66" s="11" t="inlineStr"/>
       <c r="K66" s="11" t="inlineStr"/>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
@@ -7861,21 +7301,17 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -7961,31 +7397,19 @@
           <t>22:45</t>
         </is>
       </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
+      <c r="J70" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
+      <c r="K70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="L70" s="11" t="inlineStr"/>
+      <c r="M70" s="11" t="inlineStr"/>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -8026,7 +7450,7 @@
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
@@ -8150,17 +7574,17 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
     <col width="9" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
@@ -8326,7 +7750,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -8394,7 +7818,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -8460,12 +7884,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -8520,11 +7948,7 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -8610,7 +8034,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr"/>
@@ -8698,7 +8122,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -8756,31 +8180,19 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>JoseLuis</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>JoseLuis</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="D19" s="10" t="inlineStr"/>
+      <c r="E19" s="10" t="inlineStr"/>
+      <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
       <c r="I19" s="10" t="inlineStr">
@@ -8806,12 +8218,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr"/>
@@ -8826,7 +8238,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -8844,11 +8256,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -8894,7 +8302,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ATHINA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -8918,15 +8326,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -8952,14 +8364,26 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="11" t="inlineStr"/>
-      <c r="E24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
@@ -8968,12 +8392,16 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
-      <c r="K24" s="11" t="inlineStr"/>
       <c r="L24" s="11" t="inlineStr"/>
       <c r="M24" s="11" t="inlineStr"/>
       <c r="N24" s="11" t="inlineStr"/>
@@ -9032,11 +8460,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -9080,11 +8504,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -9112,7 +8532,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -9126,7 +8550,7 @@
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="K29" s="10" t="inlineStr"/>
@@ -9202,14 +8626,10 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
           <t>MIRIANM</t>
         </is>
       </c>
+      <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="11" t="inlineStr"/>
@@ -9222,7 +8642,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ATHINA</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -9268,16 +8688,8 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -9288,21 +8700,13 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
+      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -9321,14 +8725,14 @@
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr"/>
@@ -9342,12 +8746,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -9364,16 +8768,12 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="B36" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -9384,11 +8784,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="J36" s="11" t="inlineStr"/>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -9404,7 +8800,11 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="10" t="inlineStr"/>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
@@ -9450,10 +8850,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9468,7 +8872,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -9480,14 +8888,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="K39" s="10" t="inlineStr"/>
-      <c r="L39" s="10" t="inlineStr"/>
-      <c r="M39" s="10" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
@@ -9500,12 +8920,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -9580,7 +9004,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -9624,16 +9052,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -9648,11 +9072,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -9664,7 +9084,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="J44" s="11" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="K44" s="11" t="inlineStr"/>
       <c r="L44" s="11" t="inlineStr"/>
       <c r="M44" s="11" t="inlineStr"/>
@@ -9680,11 +9104,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -9742,7 +9162,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -9758,14 +9178,10 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
           <t>MIRIANM</t>
         </is>
       </c>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -9866,15 +9282,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -9884,16 +9304,12 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K51" s="7" t="inlineStr">
+      <c r="J51" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -9910,16 +9326,24 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>RENZO</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
-      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -9928,7 +9352,11 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="11" t="inlineStr"/>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
@@ -9944,11 +9372,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -9976,7 +9400,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -9988,7 +9416,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -10006,20 +9438,24 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -10030,7 +9466,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ROMINA</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="K55" s="4" t="inlineStr">
@@ -10066,7 +9502,11 @@
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="D56" s="11" t="inlineStr"/>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
@@ -10112,7 +9552,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -10174,14 +9618,10 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K59" s="3" t="inlineStr">
-        <is>
           <t>ROCIO</t>
         </is>
       </c>
+      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -10208,11 +9648,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -10270,7 +9706,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -10386,15 +9822,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>ARIADNA</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="L66" s="11" t="inlineStr"/>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="L66" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -10422,16 +9862,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
+          <t>BRIYITH</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>RENZO</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -10456,11 +9904,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -10488,7 +9932,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -10518,29 +9966,25 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ARIADNA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="N70" s="5" t="inlineStr">
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -10571,25 +10015,29 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
         <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="O71" s="10" t="inlineStr"/>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -10708,17 +10156,17 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -10949,7 +10397,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -10962,11 +10410,7 @@
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -11051,11 +10495,7 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="inlineStr"/>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -11083,7 +10523,11 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -11111,7 +10555,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -11195,11 +10643,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -11227,7 +10671,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -11255,11 +10703,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -11287,7 +10731,11 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -11315,26 +10763,18 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="D19" s="10" t="inlineStr"/>
+      <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -11359,23 +10799,31 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="E20" s="11" t="inlineStr"/>
-      <c r="F20" s="11" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="G20" s="11" t="inlineStr"/>
       <c r="H20" s="11" t="inlineStr"/>
       <c r="I20" s="11" t="inlineStr">
@@ -11405,7 +10853,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -11453,7 +10901,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -11482,14 +10930,10 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -11515,12 +10959,16 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -11567,11 +11015,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -11589,7 +11033,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -11631,7 +11075,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -11647,9 +11095,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
@@ -11707,11 +11155,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -11723,11 +11167,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -11775,11 +11215,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -11791,11 +11227,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>JAVIER</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -11823,8 +11255,16 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
-      <c r="K33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>MAURICIO</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
       <c r="N33" s="10" t="inlineStr"/>
@@ -11839,7 +11279,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -11851,21 +11295,13 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
+      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -11879,17 +11315,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr"/>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -11901,20 +11341,24 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>EMELYN</t>
         </is>
       </c>
-      <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
       <c r="P35" s="10" t="inlineStr"/>
@@ -11929,10 +11373,14 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C36" s="11" t="inlineStr"/>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -11943,7 +11391,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -11961,10 +11413,14 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C37" s="10" t="inlineStr"/>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -12010,7 +11466,7 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="L38" s="11" t="inlineStr"/>
@@ -12039,12 +11495,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K39" s="10" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -12059,11 +11519,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -12097,7 +11553,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -12121,7 +11577,7 @@
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K41" s="4" t="inlineStr">
@@ -12145,7 +11601,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>RENZO</t>
         </is>
       </c>
       <c r="C42" s="11" t="inlineStr"/>
@@ -12187,21 +11643,17 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="K43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="L43" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
       <c r="O43" s="10" t="inlineStr"/>
@@ -12215,7 +11667,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -12243,11 +11699,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -12259,11 +11711,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -12313,10 +11761,14 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -12329,7 +11781,7 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="K47" s="10" t="inlineStr"/>
@@ -12375,7 +11827,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -12415,7 +11871,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -12438,12 +11898,12 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="E51" s="10" t="inlineStr"/>
@@ -12457,10 +11917,14 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K51" s="10" t="inlineStr"/>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -12475,9 +11939,9 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -12497,10 +11961,14 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K52" s="11" t="inlineStr"/>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -12543,7 +12011,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -12573,26 +12045,34 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr"/>
-      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
@@ -12601,10 +12081,14 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K55" s="10" t="inlineStr"/>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="K55" s="6" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -12619,26 +12103,22 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -12647,26 +12127,22 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ALEXANDER</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
           <t>YENIFER</t>
         </is>
       </c>
-      <c r="M56" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -12693,7 +12169,7 @@
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>RENZO</t>
         </is>
       </c>
       <c r="K57" s="10" t="inlineStr"/>
@@ -12753,7 +12229,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -12783,11 +12259,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -12845,10 +12317,14 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K62" s="11" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>BRIYITH</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -12903,7 +12379,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -12966,12 +12446,12 @@
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="M66" s="11" t="inlineStr"/>
@@ -12999,9 +12479,9 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
@@ -13063,7 +12543,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -13093,22 +12577,22 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="N70" s="4" t="inlineStr">
@@ -13116,12 +12600,16 @@
           <t>GABRIELA</t>
         </is>
       </c>
-      <c r="O70" s="5" t="inlineStr">
+      <c r="O70" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="P70" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
     </row>
@@ -13150,12 +12638,12 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
@@ -13165,7 +12653,7 @@
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="O71" s="10" t="inlineStr"/>
@@ -13286,17 +12774,17 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -13458,17 +12946,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -13524,7 +13016,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -13534,7 +13026,7 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -13622,11 +13114,7 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="inlineStr"/>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -13686,7 +13174,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -13716,7 +13208,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -13774,7 +13266,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -13860,7 +13356,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -13892,29 +13388,25 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>JoseLuis</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>JoseLuis</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
       <c r="I19" s="10" t="inlineStr">
@@ -13940,7 +13432,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -13958,7 +13450,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>JAVIER</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -13974,7 +13470,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -14004,29 +13504,21 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
       <c r="H22" s="11" t="inlineStr"/>
       <c r="I22" s="11" t="inlineStr">
@@ -14036,7 +13528,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -14060,12 +13552,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr"/>
@@ -14096,7 +13588,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -14138,12 +13630,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="inlineStr"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -14154,11 +13650,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -14174,11 +13666,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -14210,8 +13698,16 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
-      <c r="C27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -14222,7 +13718,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -14296,7 +13796,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
@@ -14310,7 +13810,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>ATHINA</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -14354,11 +13858,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -14400,7 +13900,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -14457,7 +13957,7 @@
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr"/>
@@ -14472,7 +13972,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K35" s="4" t="inlineStr">
@@ -14494,8 +13994,16 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
-      <c r="C36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>DARLA</t>
+        </is>
+      </c>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -14506,7 +14014,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -14524,7 +14036,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -14544,24 +14056,20 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="M37" s="5" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
@@ -14574,7 +14082,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>RENZO</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -14588,12 +14100,12 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>SANDRAP</t>
         </is>
       </c>
       <c r="L38" s="11" t="inlineStr"/>
@@ -14612,10 +14124,14 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
           <t>JOSE</t>
         </is>
       </c>
-      <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -14628,7 +14144,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K39" s="4" t="inlineStr">
@@ -14654,16 +14170,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>GABRIELA</t>
         </is>
       </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -14676,7 +14188,7 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="K40" s="11" t="inlineStr"/>
@@ -14716,7 +14228,7 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K41" s="7" t="inlineStr">
@@ -14750,7 +14262,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -14780,7 +14296,7 @@
       </c>
       <c r="J43" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="K43" s="10" t="inlineStr"/>
@@ -14882,7 +14398,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -14952,7 +14472,7 @@
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="K49" s="10" t="inlineStr"/>
@@ -14970,7 +14490,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -15000,10 +14524,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -15032,19 +14560,15 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -15056,7 +14580,7 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>BRIYITH</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -15094,7 +14618,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>RENZO</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -15110,7 +14638,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -15124,10 +14656,14 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
           <t>JOSE</t>
         </is>
       </c>
-      <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -15149,29 +14685,25 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
         <is>
@@ -15180,34 +14712,30 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>DARLA</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="M55" s="3" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>GABRIELA</t>
+        </is>
+      </c>
+      <c r="M55" s="6" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="N55" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="O55" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="N55" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
       <c r="Q55" s="10" t="inlineStr"/>
       <c r="R55" s="8" t="inlineStr"/>
@@ -15220,7 +14748,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -15228,12 +14756,16 @@
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -15306,11 +14838,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15366,7 +14894,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -15424,7 +14956,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -15454,7 +14986,11 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -15512,7 +15048,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>DARLA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -15544,11 +15080,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -15576,19 +15120,15 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="L67" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -15614,16 +15154,12 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="K68" s="7" t="inlineStr">
+      <c r="J68" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
+      <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -15650,7 +15186,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -15685,29 +15225,25 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>CARLOS</t>
-        </is>
-      </c>
-      <c r="M70" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="N70" s="4" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="O70" s="5" t="inlineStr">
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="N70" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
+      <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
       <c r="R70" s="8" t="inlineStr"/>
@@ -15737,7 +15273,7 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -15745,17 +15281,21 @@
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M71" s="7" t="inlineStr">
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>YENIFER</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="O71" s="10" t="inlineStr"/>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
@@ -15778,7 +15318,11 @@
           <t>23:15</t>
         </is>
       </c>
-      <c r="J72" s="11" t="inlineStr"/>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K72" s="11" t="inlineStr"/>
       <c r="L72" s="11" t="inlineStr"/>
       <c r="M72" s="11" t="inlineStr"/>
@@ -15873,16 +15417,16 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
@@ -16047,7 +15591,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -16115,12 +15659,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
@@ -16271,7 +15815,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
@@ -16301,7 +15845,11 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -16329,11 +15877,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -16361,11 +15905,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -16393,7 +15933,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -16479,19 +16023,15 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -16519,19 +16059,15 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -16543,7 +16079,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>JAVIER</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -16561,11 +16097,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -16595,15 +16127,19 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr"/>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -16615,12 +16151,12 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>EMELYN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr"/>
@@ -16639,20 +16175,24 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr"/>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -16677,22 +16217,26 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="E24" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
@@ -16723,7 +16267,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -16803,7 +16347,7 @@
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K27" s="10" t="inlineStr"/>
@@ -16821,11 +16365,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -16855,7 +16395,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C29" s="10" t="inlineStr"/>
@@ -16869,11 +16409,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>ATHINA</t>
-        </is>
-      </c>
+      <c r="J29" s="10" t="inlineStr"/>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -16901,11 +16437,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -16921,7 +16453,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -16933,7 +16469,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>SANDRAP</t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -17010,16 +16550,8 @@
           <t>MAURICIO</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
       <c r="G34" s="11" t="inlineStr"/>
@@ -17029,11 +16561,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J34" s="11" t="inlineStr"/>
       <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
@@ -17049,17 +16577,21 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -17071,19 +16603,15 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>SANDRAP</t>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
         <is>
           <t>ELIZABETH</t>
         </is>
       </c>
+      <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
       <c r="O35" s="10" t="inlineStr"/>
@@ -17097,7 +16625,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -17127,15 +16659,19 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D37" s="10" t="inlineStr"/>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>JAMES</t>
+        </is>
+      </c>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -17147,15 +16683,19 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
-        </is>
-      </c>
-      <c r="L37" s="10" t="inlineStr"/>
+          <t>ATHINA</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>CIELO</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>EMELYN</t>
+        </is>
+      </c>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -17169,11 +16709,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -17187,19 +16723,15 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>JAVIER</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
           <t>ENZO</t>
         </is>
       </c>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -17213,11 +16745,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -17229,22 +16757,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>VENUSR</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
+      <c r="M39" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
-      <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
       <c r="P39" s="10" t="inlineStr"/>
@@ -17273,12 +16805,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -17295,7 +16831,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
@@ -17365,11 +16901,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -17429,11 +16961,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -17489,7 +17017,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -17547,7 +17079,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr"/>
@@ -17561,7 +17093,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="10" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -17577,7 +17113,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -17589,7 +17129,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -17607,16 +17151,24 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
-      <c r="E51" s="10" t="inlineStr"/>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>RENZO</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="10" t="inlineStr"/>
@@ -17625,7 +17177,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -17641,16 +17197,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr"/>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -17663,12 +17215,12 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="L52" s="11" t="inlineStr"/>
@@ -17701,11 +17253,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -17721,11 +17269,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -17737,11 +17281,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -17759,21 +17299,29 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>GABRIELA</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>ALVARO</t>
         </is>
       </c>
-      <c r="E55" s="10" t="inlineStr"/>
-      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -17783,17 +17331,17 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
-      <c r="K55" s="4" t="inlineStr">
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
-        </is>
-      </c>
-      <c r="L55" s="6" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
         </is>
       </c>
       <c r="M55" s="10" t="inlineStr"/>
@@ -17835,7 +17383,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ALEXANDER</t>
+          <t>GABRIELA</t>
         </is>
       </c>
       <c r="K56" s="7" t="inlineStr">
@@ -17869,11 +17417,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -17901,11 +17445,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -17933,8 +17473,16 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="10" t="inlineStr"/>
-      <c r="K59" s="10" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>NINA</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -17961,11 +17509,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -17993,11 +17537,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -18025,7 +17565,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -18087,14 +17631,10 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>BRIYITH</t>
-        </is>
-      </c>
-      <c r="K64" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
@@ -18123,10 +17663,14 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K65" s="10" t="inlineStr"/>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -18155,16 +17699,24 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="L66" s="11" t="inlineStr"/>
-      <c r="M66" s="11" t="inlineStr"/>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>RENZO</t>
+        </is>
+      </c>
+      <c r="M66" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -18191,12 +17743,12 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="L67" s="10" t="inlineStr"/>
@@ -18257,11 +17809,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -18296,22 +17844,22 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>NINA</t>
-        </is>
-      </c>
-      <c r="M70" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="N70" s="4" t="inlineStr">
         <is>
-          <t>GABRIELA</t>
+          <t>NORITH</t>
         </is>
       </c>
       <c r="O70" s="5" t="inlineStr">
@@ -18343,7 +17891,7 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -18358,12 +17906,12 @@
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
-          <t>JAIME</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="O71" s="10" t="inlineStr"/>
@@ -18417,7 +17965,11 @@
           <t>23:30</t>
         </is>
       </c>
-      <c r="J73" s="10" t="inlineStr"/>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="K73" s="10" t="inlineStr"/>
       <c r="L73" s="10" t="inlineStr"/>
       <c r="M73" s="10" t="inlineStr"/>

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -542,21 +542,21 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -715,7 +715,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -905,14 +905,10 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
           <t>LILIA</t>
         </is>
       </c>
+      <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -992,7 +988,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -1046,11 +1046,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -1133,19 +1129,15 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -1172,17 +1164,17 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="E20" s="7" t="inlineStr">
@@ -1200,7 +1192,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -1217,7 +1209,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -1246,7 +1242,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -1289,12 +1285,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
           <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr"/>
@@ -1357,21 +1353,17 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>NAYELI</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
+          <t>VICTORQ</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -1408,11 +1400,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -1493,7 +1481,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -1537,7 +1529,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -1636,21 +1628,13 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
+      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -1663,22 +1647,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="E35" s="10" t="inlineStr"/>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -1689,12 +1677,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -1710,9 +1698,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
@@ -1726,7 +1714,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -1743,7 +1735,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -1763,7 +1755,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -1784,7 +1776,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>YAZMINP</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -1798,12 +1794,12 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
           <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
         </is>
       </c>
       <c r="L38" s="11" t="inlineStr"/>
@@ -1852,7 +1848,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -1866,21 +1862,17 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>NAYELI</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
+          <t>VICTORQ</t>
+        </is>
+      </c>
+      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -1898,11 +1890,7 @@
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -1920,7 +1908,7 @@
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -1936,11 +1924,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="B42" s="11" t="inlineStr"/>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -2000,7 +1984,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr"/>
@@ -2056,7 +2040,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -2068,7 +2056,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="11" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -2085,7 +2077,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2178,10 +2170,14 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>RENZO</t>
-        </is>
-      </c>
-      <c r="C50" s="11" t="inlineStr"/>
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -2192,7 +2188,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -2214,19 +2214,11 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr"/>
+      <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="10" t="inlineStr"/>
@@ -2235,16 +2227,12 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -2260,10 +2248,14 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C52" s="11" t="inlineStr"/>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -2276,7 +2268,7 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -2297,7 +2289,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -2309,7 +2305,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>YAZMINP</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -2353,15 +2353,19 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
         </is>
       </c>
-      <c r="D55" s="10" t="inlineStr"/>
       <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
@@ -2373,10 +2377,14 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K55" s="10" t="inlineStr"/>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -2390,41 +2398,33 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="H56" s="7" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="G56" s="11" t="inlineStr"/>
+      <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
         <is>
           <t>19:15</t>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -2442,14 +2442,10 @@
       </c>
       <c r="L56" s="7" t="inlineStr">
         <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
-        <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -2473,11 +2469,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -2533,7 +2525,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -2589,7 +2581,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -2618,7 +2614,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -2676,7 +2672,7 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr"/>
@@ -2707,10 +2703,14 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>RENZO</t>
-        </is>
-      </c>
-      <c r="K65" s="10" t="inlineStr"/>
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -2743,19 +2743,11 @@
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
+      <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -2781,15 +2773,19 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
-      <c r="L67" s="10" t="inlineStr"/>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -2875,12 +2871,12 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSR</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -2913,42 +2909,42 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="O71" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
+      <c r="M71" s="5" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="P71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>YENNIFER</t>
         </is>
       </c>
     </row>
@@ -3062,20 +3058,20 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,21 +3230,17 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -3406,11 +3398,7 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="inlineStr"/>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -3554,7 +3542,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -3582,7 +3574,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -3612,7 +3608,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -3670,21 +3666,13 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="10" t="inlineStr"/>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -3712,7 +3700,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
@@ -3726,11 +3714,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -3748,12 +3732,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
           <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr"/>
@@ -3782,8 +3766,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr"/>
-      <c r="C22" s="11" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -3820,24 +3812,20 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -3864,17 +3852,17 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr"/>
@@ -3926,11 +3914,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -3974,7 +3958,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -4070,7 +4058,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -4098,7 +4090,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -4114,11 +4110,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4130,11 +4122,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -4178,11 +4166,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -4194,16 +4178,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -4223,14 +4203,14 @@
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr"/>
@@ -4260,12 +4240,12 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="D36" s="11" t="inlineStr"/>
@@ -4280,12 +4260,12 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
           <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
         </is>
       </c>
       <c r="L36" s="11" t="inlineStr"/>
@@ -4318,8 +4298,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="10" t="inlineStr"/>
-      <c r="K37" s="10" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -4348,19 +4336,15 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -4374,8 +4358,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
-      <c r="C39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -4388,17 +4380,17 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="L39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="M39" s="10" t="inlineStr"/>
@@ -4414,7 +4406,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -4457,7 +4453,7 @@
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="D41" s="10" t="inlineStr"/>
@@ -4477,7 +4473,7 @@
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -4506,7 +4502,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="C43" s="10" t="inlineStr"/>
@@ -4562,11 +4562,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -4594,7 +4590,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -4652,14 +4652,10 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -4675,11 +4671,7 @@
           <t>LILIA</t>
         </is>
       </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -4696,10 +4688,14 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C48" s="11" t="inlineStr"/>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
       <c r="F48" s="11" t="inlineStr"/>
@@ -4789,14 +4785,10 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>RENZO</t>
-        </is>
-      </c>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -4808,12 +4800,12 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
         </is>
       </c>
       <c r="L51" s="10" t="inlineStr"/>
@@ -4832,12 +4824,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>YENIFER</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="D52" s="11" t="inlineStr"/>
@@ -4886,7 +4878,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -4914,8 +4910,16 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
-      <c r="K54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -4932,22 +4936,22 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
         </is>
       </c>
       <c r="F55" s="10" t="inlineStr"/>
@@ -4960,7 +4964,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="K55" s="10" t="inlineStr"/>
@@ -4985,29 +4989,21 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="F56" s="7" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="F56" s="11" t="inlineStr"/>
+      <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
         <is>
@@ -5016,7 +5012,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -5026,7 +5022,7 @@
       </c>
       <c r="L56" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="M56" s="11" t="inlineStr"/>
@@ -5084,7 +5080,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -5114,16 +5110,12 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="K59" s="4" t="inlineStr">
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -5150,7 +5142,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -5208,14 +5204,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -5244,10 +5236,14 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K63" s="10" t="inlineStr"/>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -5274,7 +5270,11 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -5337,14 +5337,10 @@
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>RENZO</t>
-        </is>
-      </c>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -5372,12 +5368,12 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
         <is>
-          <t>YENIFER</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="L67" s="10" t="inlineStr"/>
@@ -5406,11 +5402,7 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5468,17 +5460,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -5486,11 +5478,7 @@
           <t>NORITH</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -5521,44 +5509,36 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="M71" s="5" t="inlineStr">
         <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="O71" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="P71" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="R71" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="Q71" s="10" t="inlineStr"/>
+      <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -5671,20 +5651,20 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -5847,17 +5827,17 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr"/>
@@ -5986,7 +5966,11 @@
           <t>KELLY</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -6043,7 +6027,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -6073,11 +6057,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -6161,7 +6141,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -6219,7 +6203,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -6251,7 +6235,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -6283,7 +6267,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -6317,21 +6301,13 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -6343,7 +6319,7 @@
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr"/>
@@ -6395,15 +6371,19 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -6439,24 +6419,16 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="D23" s="10" t="inlineStr"/>
+      <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -6481,13 +6453,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -6517,12 +6497,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -6563,7 +6547,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -6583,7 +6567,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C27" s="10" t="inlineStr"/>
@@ -6597,11 +6581,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -6685,7 +6665,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -6701,11 +6685,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -6745,11 +6725,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -6777,7 +6753,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -6798,11 +6778,7 @@
           <t>ASTRID</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -6815,7 +6791,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -6837,18 +6813,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="D35" s="10" t="inlineStr"/>
-      <c r="E35" s="10" t="inlineStr"/>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -6857,11 +6841,7 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J35" s="10" t="inlineStr"/>
       <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
@@ -6877,16 +6857,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -6919,7 +6891,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -6939,7 +6911,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -6961,11 +6933,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -6979,19 +6947,11 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -7005,7 +6965,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -7017,13 +6981,21 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="K39" s="10" t="inlineStr"/>
-      <c r="L39" s="10" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -7037,7 +7009,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -7049,12 +7025,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -7074,11 +7054,7 @@
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -7091,12 +7067,12 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROMINA</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -7127,7 +7103,7 @@
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K42" s="11" t="inlineStr"/>
@@ -7145,11 +7121,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -7211,7 +7183,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C45" s="10" t="inlineStr"/>
@@ -7225,7 +7197,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr"/>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -7331,7 +7307,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr"/>
@@ -7361,7 +7337,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -7373,7 +7353,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -7391,19 +7375,11 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -7413,16 +7389,8 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K51" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J51" s="10" t="inlineStr"/>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -7437,12 +7405,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="C52" s="11" t="inlineStr"/>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -7455,7 +7427,7 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -7482,11 +7454,7 @@
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -7499,7 +7467,7 @@
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K53" s="10" t="inlineStr"/>
@@ -7517,7 +7485,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -7531,7 +7503,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="K54" s="11" t="inlineStr"/>
@@ -7554,14 +7526,14 @@
           <t>ELIZABETH</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
         </is>
       </c>
       <c r="E55" s="10" t="inlineStr"/>
@@ -7573,7 +7545,11 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="10" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
       <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
@@ -7591,29 +7567,25 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
       <c r="E56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="F56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -7631,16 +7603,8 @@
           <t>MARCO</t>
         </is>
       </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="L56" s="11" t="inlineStr"/>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -7695,7 +7659,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -7759,7 +7723,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -7879,10 +7843,14 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="K64" s="11" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
@@ -7909,7 +7877,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -7939,19 +7911,11 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="inlineStr"/>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -7979,12 +7943,12 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
         <is>
-          <t>YENIFER</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="L67" s="10" t="inlineStr"/>
@@ -8013,16 +7977,8 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="K68" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
+      <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -8049,7 +8005,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -8089,7 +8049,7 @@
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -8097,11 +8057,7 @@
           <t>NORITH</t>
         </is>
       </c>
-      <c r="N70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -8127,24 +8083,24 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="M71" s="5" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
       <c r="N71" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
@@ -8157,7 +8113,7 @@
       </c>
       <c r="P71" s="7" t="inlineStr">
         <is>
-          <t>YENNIFER</t>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="Q71" s="10" t="inlineStr"/>
@@ -8274,17 +8230,17 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -8518,17 +8474,17 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>KAREN</t>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>FIORELA</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr"/>
@@ -8646,7 +8602,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -8676,11 +8632,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -8736,7 +8688,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -8794,7 +8750,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -8824,11 +8780,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -8886,19 +8838,15 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -8926,15 +8874,19 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -8966,10 +8918,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr"/>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -8996,7 +8952,11 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>KAREN</t>
+        </is>
+      </c>
       <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
@@ -9008,16 +8968,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -9034,19 +8990,15 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -9072,17 +9024,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -9156,7 +9112,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -9174,7 +9134,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C27" s="10" t="inlineStr"/>
@@ -9188,11 +9148,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -9248,7 +9204,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -9292,11 +9252,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -9308,11 +9264,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
+      <c r="J31" s="10" t="inlineStr"/>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -9328,11 +9280,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -9344,11 +9292,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="J32" s="11" t="inlineStr"/>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -9364,11 +9308,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -9396,11 +9336,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -9414,7 +9350,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -9436,22 +9372,26 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -9462,10 +9402,14 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K35" s="10" t="inlineStr"/>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -9480,7 +9424,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -9494,10 +9442,14 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr"/>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -9517,12 +9469,16 @@
           <t>ANDYM</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -9532,7 +9488,11 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="10" t="inlineStr"/>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>KAREN</t>
+        </is>
+      </c>
       <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
@@ -9562,14 +9522,10 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9586,10 +9542,14 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr"/>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -9600,17 +9560,21 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -9656,17 +9620,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="D41" s="10" t="inlineStr"/>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -9714,7 +9682,7 @@
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K42" s="11" t="inlineStr"/>
@@ -9744,12 +9712,16 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="K43" s="10" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
+      <c r="K43" s="7" t="inlineStr">
+        <is>
+          <t>FIORELA</t>
+        </is>
+      </c>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -9766,7 +9738,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr"/>
@@ -9796,11 +9768,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -9840,11 +9808,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J46" s="11" t="inlineStr"/>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -9862,12 +9826,12 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="D47" s="10" t="inlineStr"/>
@@ -9880,16 +9844,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -9932,11 +9888,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -9964,7 +9916,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -9976,7 +9932,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -9994,10 +9954,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -10008,7 +9972,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -10026,24 +9994,20 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -10057,13 +10021,21 @@
           <t>ANDYM</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="M52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr"/>
-      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -10076,7 +10048,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -10104,11 +10080,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -10122,10 +10094,14 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="K54" s="11" t="inlineStr"/>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -10142,17 +10118,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
         </is>
       </c>
       <c r="E55" s="10" t="inlineStr"/>
@@ -10164,11 +10140,7 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J55" s="10" t="inlineStr"/>
       <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
@@ -10191,7 +10163,7 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
@@ -10216,22 +10188,26 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="M56" s="11" t="inlineStr"/>
+      <c r="M56" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -10314,7 +10290,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
@@ -10348,11 +10324,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -10410,12 +10382,12 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K62" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="L62" s="11" t="inlineStr"/>
@@ -10474,7 +10446,7 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr"/>
@@ -10504,7 +10476,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -10534,10 +10510,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -10566,24 +10546,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -10636,16 +10612,8 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="K69" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
+      <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
       <c r="N69" s="10" t="inlineStr"/>
@@ -10674,12 +10642,12 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L70" s="4" t="inlineStr">
@@ -10687,11 +10655,7 @@
           <t>NORITH</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="M70" s="11" t="inlineStr"/>
       <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
@@ -10728,7 +10692,7 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
@@ -10869,22 +10833,22 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11043,21 +11007,17 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -11113,12 +11073,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>KAREN</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
@@ -11213,7 +11173,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
@@ -11271,11 +11231,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -11361,10 +11317,14 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr"/>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -11419,11 +11379,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -11451,7 +11407,11 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -11479,16 +11439,12 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -11517,19 +11473,15 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>ERIKAO</t>
         </is>
       </c>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -11539,11 +11491,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -11561,10 +11509,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr"/>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -11593,17 +11545,17 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>KAREN</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr"/>
@@ -11617,12 +11569,12 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>KAREN</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr"/>
@@ -11641,15 +11593,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -11675,14 +11631,14 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr"/>
@@ -11715,21 +11671,17 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>NAYELI</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
+          <t>VICTORQ</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -11741,7 +11693,7 @@
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="K25" s="10" t="inlineStr"/>
@@ -11787,11 +11739,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -11803,11 +11751,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -11879,7 +11823,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -11893,7 +11841,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -11979,7 +11927,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -12000,11 +11952,7 @@
           <t>ASTRID</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
+      <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
       <c r="F34" s="11" t="inlineStr"/>
@@ -12015,16 +11963,12 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -12041,7 +11985,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -12054,14 +11998,14 @@
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="G35" s="10" t="inlineStr"/>
@@ -12073,14 +12017,10 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -12097,10 +12037,14 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C36" s="11" t="inlineStr"/>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -12113,10 +12057,14 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr"/>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -12133,19 +12081,15 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -12157,19 +12101,15 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -12197,10 +12137,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -12215,11 +12159,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -12231,14 +12171,14 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="K39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="L39" s="10" t="inlineStr"/>
@@ -12255,7 +12195,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -12274,7 +12218,7 @@
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="L40" s="11" t="inlineStr"/>
@@ -12291,17 +12235,21 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="D41" s="10" t="inlineStr"/>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>YENNIFER</t>
+        </is>
+      </c>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -12318,7 +12266,7 @@
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>ROMINA</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -12347,11 +12295,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -12399,7 +12343,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -12427,11 +12375,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -12443,7 +12387,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="10" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -12459,11 +12407,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -12493,12 +12437,12 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="D47" s="10" t="inlineStr"/>
@@ -12583,7 +12527,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -12597,7 +12545,7 @@
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K50" s="11" t="inlineStr"/>
@@ -12617,11 +12565,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
-      <c r="D51" s="10" t="inlineStr"/>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -12633,11 +12589,19 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K51" s="10" t="inlineStr"/>
-      <c r="L51" s="10" t="inlineStr"/>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="L51" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
       <c r="O51" s="10" t="inlineStr"/>
@@ -12653,12 +12617,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>YENIFER</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="D52" s="11" t="inlineStr"/>
@@ -12673,19 +12637,15 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
-      <c r="L52" s="5" t="inlineStr">
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -12699,16 +12659,8 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
+      <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -12719,11 +12671,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -12751,11 +12699,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -12773,7 +12717,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -12781,11 +12725,7 @@
           <t>JOSELYN</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="D55" s="10" t="inlineStr"/>
       <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
@@ -12795,8 +12735,16 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="10" t="inlineStr"/>
-      <c r="K55" s="10" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -12818,29 +12766,21 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="F56" s="7" t="inlineStr">
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="F56" s="11" t="inlineStr"/>
+      <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
         <is>
@@ -12859,7 +12799,7 @@
       </c>
       <c r="L56" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="M56" s="11" t="inlineStr"/>
@@ -12915,7 +12855,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -12943,12 +12887,16 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
-      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -12975,11 +12923,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -13007,11 +12951,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -13041,12 +12981,12 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K62" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="L62" s="11" t="inlineStr"/>
@@ -13133,7 +13073,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>YAZMINP</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -13165,10 +13105,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -13197,12 +13141,12 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
         <is>
-          <t>YENIFER</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="L67" s="10" t="inlineStr"/>
@@ -13231,16 +13175,8 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="K68" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
+      <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -13302,24 +13238,20 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="N70" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
+      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -13355,39 +13287,35 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="O71" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="P71" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="N71" s="5" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="R71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>ROSARIO</t>
+        </is>
+      </c>
+      <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -13499,23 +13427,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="16"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13674,21 +13602,17 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>ERIKAO</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -13742,16 +13666,12 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="C7" s="10" t="inlineStr"/>
       <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
@@ -13806,12 +13726,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -13840,7 +13764,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
@@ -13870,9 +13794,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -13930,7 +13854,11 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -13991,7 +13919,11 @@
           <t>EMIR</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -14018,11 +13950,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -14050,11 +13978,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -14082,11 +14006,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -14116,15 +14036,19 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -14150,14 +14074,14 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr"/>
@@ -14170,11 +14094,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -14192,12 +14112,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr"/>
@@ -14228,19 +14148,15 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -14250,11 +14166,7 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="J22" s="11" t="inlineStr"/>
       <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
@@ -14277,17 +14189,17 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -14318,12 +14230,16 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -14354,21 +14270,17 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>NAYELI</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
           <t>VICTORQ</t>
         </is>
       </c>
+      <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -14378,11 +14290,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -14398,11 +14306,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="B26" s="11" t="inlineStr"/>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -14458,7 +14362,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>YAZMINP</t>
+        </is>
+      </c>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -14470,7 +14378,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="11" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -14516,7 +14428,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSR</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
@@ -14550,11 +14462,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -14622,11 +14530,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -14654,12 +14558,16 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
@@ -14674,36 +14582,28 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
+      <c r="F35" s="10" t="inlineStr"/>
+      <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
@@ -14712,10 +14612,14 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="K35" s="10" t="inlineStr"/>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -14730,8 +14634,16 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
-      <c r="C36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -14744,12 +14656,12 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="L36" s="11" t="inlineStr"/>
@@ -14766,14 +14678,14 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>BRYANR</t>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>ABIGAILH</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr"/>
@@ -14788,19 +14700,15 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -14833,19 +14741,15 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
-      <c r="M38" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
       <c r="P38" s="11" t="inlineStr"/>
@@ -14860,10 +14764,14 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr"/>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -14874,12 +14782,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
-      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -14896,10 +14808,14 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C40" s="11" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -14934,19 +14850,19 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="D41" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="E41" s="10" t="inlineStr"/>
@@ -14960,19 +14876,15 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="L41" s="7" t="inlineStr">
-        <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -15058,7 +14970,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="J44" s="11" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K44" s="11" t="inlineStr"/>
       <c r="L44" s="11" t="inlineStr"/>
       <c r="M44" s="11" t="inlineStr"/>
@@ -15074,7 +14990,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -15086,9 +15006,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K45" s="10" t="inlineStr"/>
@@ -15106,11 +15026,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -15124,7 +15040,7 @@
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="K46" s="11" t="inlineStr"/>
@@ -15144,7 +15060,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -15158,9 +15074,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="K47" s="10" t="inlineStr"/>
@@ -15206,7 +15122,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -15234,11 +15154,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -15250,11 +15166,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -15272,10 +15184,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -15286,7 +15202,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -15304,24 +15224,16 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="inlineStr"/>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -15330,21 +15242,17 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="L52" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -15358,7 +15266,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -15386,11 +15298,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -15402,8 +15310,16 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
-      <c r="K54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -15420,16 +15336,24 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
         </is>
       </c>
-      <c r="D55" s="10" t="inlineStr"/>
-      <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -15440,15 +15364,19 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -15462,60 +15390,52 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
+        </is>
+      </c>
+      <c r="F56" s="11" t="inlineStr"/>
+      <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
           <t>MIGUEL</t>
         </is>
       </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>LOURDES</t>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="N56" s="11" t="inlineStr"/>
@@ -15570,11 +15490,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15602,12 +15518,16 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr">
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
-      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -15634,7 +15554,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -15662,11 +15586,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -15696,7 +15616,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -15754,9 +15674,21 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="11" t="inlineStr"/>
-      <c r="K64" s="11" t="inlineStr"/>
-      <c r="L64" s="11" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
+        <is>
+          <t>YAZMINP</t>
+        </is>
+      </c>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
       <c r="O64" s="11" t="inlineStr"/>
@@ -15782,11 +15714,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -15816,12 +15744,12 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSR</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="L66" s="11" t="inlineStr"/>
@@ -15852,24 +15780,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="L67" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -15922,11 +15846,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -15956,17 +15876,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>YAZMINP</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -16000,7 +15920,7 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -16010,39 +15930,35 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
-        </is>
-      </c>
-      <c r="M71" s="4" t="inlineStr">
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="M71" s="5" t="inlineStr">
         <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="O71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="P71" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
+      <c r="N71" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="O71" s="7" t="inlineStr">
+        <is>
+          <t>GUSTAVO</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="R71" s="7" t="inlineStr">
-        <is>
           <t>MOISES</t>
         </is>
       </c>
+      <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -16155,21 +16071,21 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
     <col width="11" customWidth="1" min="16" max="16"/>
-    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
     <col width="8" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -16331,19 +16247,15 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+          <t>ERIKAO</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -16399,7 +16311,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -16412,7 +16324,11 @@
           <t>FIORELA</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>ROSARIO</t>
+        </is>
+      </c>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -16470,7 +16386,11 @@
           <t>PILAR</t>
         </is>
       </c>
-      <c r="C9" s="10" t="inlineStr"/>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
+        </is>
+      </c>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -16527,7 +16447,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -16557,11 +16477,7 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="inlineStr"/>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -16589,7 +16505,11 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -16617,11 +16537,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -16649,7 +16565,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="10" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -16705,11 +16625,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -16765,21 +16681,9 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+      <c r="B19" s="10" t="inlineStr"/>
+      <c r="C19" s="10" t="inlineStr"/>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -16807,7 +16711,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
@@ -16821,11 +16725,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
+      <c r="J20" s="11" t="inlineStr"/>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -16841,7 +16741,11 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B21" s="10" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
@@ -16869,15 +16773,31 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="C22" s="11" t="inlineStr"/>
-      <c r="D22" s="11" t="inlineStr"/>
-      <c r="E22" s="11" t="inlineStr"/>
-      <c r="F22" s="11" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>KAREN</t>
+        </is>
+      </c>
       <c r="G22" s="11" t="inlineStr"/>
       <c r="H22" s="11" t="inlineStr"/>
       <c r="I22" s="11" t="inlineStr">
@@ -16887,7 +16807,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -16911,17 +16831,17 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -16955,29 +16875,21 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
       <c r="H24" s="11" t="inlineStr"/>
       <c r="I24" s="11" t="inlineStr">
@@ -17012,7 +16924,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -17043,7 +16955,7 @@
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>JAIME</t>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
@@ -17057,11 +16969,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -17079,12 +16987,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>MILAGROSR</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>YAZMINP</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr"/>
@@ -17097,11 +17005,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="J27" s="10" t="inlineStr"/>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -17117,11 +17021,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -17133,7 +17033,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="11" t="inlineStr"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -17161,11 +17065,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="J29" s="10" t="inlineStr"/>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -17183,7 +17083,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
@@ -17197,7 +17097,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="11" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -17269,7 +17173,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -17297,11 +17205,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -17329,36 +17233,32 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>LIZBET</t>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
         </is>
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>ROMINA</t>
+        </is>
+      </c>
+      <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
         <is>
@@ -17381,7 +17281,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -17393,7 +17297,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="J36" s="11" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
@@ -17411,7 +17319,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -17429,14 +17337,26 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>YENIFER</t>
-        </is>
-      </c>
-      <c r="K37" s="10" t="inlineStr"/>
-      <c r="L37" s="10" t="inlineStr"/>
-      <c r="M37" s="10" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="inlineStr">
+        <is>
+          <t>KAREN</t>
+        </is>
+      </c>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
@@ -17463,12 +17383,12 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="L38" s="11" t="inlineStr"/>
@@ -17487,11 +17407,19 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr"/>
-      <c r="D39" s="10" t="inlineStr"/>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
       <c r="G39" s="10" t="inlineStr"/>
@@ -17503,12 +17431,12 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="L39" s="4" t="inlineStr">
@@ -17529,7 +17457,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>ANDYM</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -17548,7 +17480,7 @@
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="L40" s="11" t="inlineStr"/>
@@ -17570,16 +17502,12 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -17589,19 +17517,19 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="L41" s="7" t="inlineStr">
         <is>
-          <t>ROMINA</t>
+          <t>YENNIFER</t>
         </is>
       </c>
       <c r="M41" s="10" t="inlineStr"/>
@@ -17629,16 +17557,8 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="K42" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
+      <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
       <c r="N42" s="11" t="inlineStr"/>
@@ -17672,7 +17592,7 @@
       </c>
       <c r="K43" s="7" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>ROSARIO</t>
         </is>
       </c>
       <c r="L43" s="10" t="inlineStr"/>
@@ -17729,9 +17649,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="K45" s="10" t="inlineStr"/>
@@ -17789,7 +17709,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -17835,24 +17759,20 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="E49" s="10" t="inlineStr"/>
       <c r="F49" s="10" t="inlineStr"/>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="10" t="inlineStr"/>
@@ -17861,11 +17781,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -17881,11 +17797,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>YASSER</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -17897,11 +17809,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -17919,11 +17827,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr"/>
-      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -17933,7 +17849,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -17949,21 +17869,13 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="B52" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="C52" s="11" t="inlineStr"/>
+      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -17975,7 +17887,7 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -17997,7 +17909,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -18025,11 +17941,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -18043,11 +17955,19 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K54" s="11" t="inlineStr"/>
-      <c r="L54" s="11" t="inlineStr"/>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>JHOSSEP</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
       <c r="O54" s="11" t="inlineStr"/>
@@ -18063,17 +17983,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>DALESKA</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -18091,19 +18011,11 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="K55" s="10" t="inlineStr"/>
+      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -18124,22 +18036,22 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>JEFFERSON</t>
+          <t>ROSARIOC</t>
         </is>
       </c>
       <c r="F56" s="7" t="inlineStr">
         <is>
-          <t>YENNIFER</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="G56" s="11" t="inlineStr"/>
@@ -18151,7 +18063,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -18159,16 +18071,12 @@
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L56" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
+      <c r="L56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -18221,7 +18129,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -18251,7 +18163,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
@@ -18285,16 +18197,8 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="K60" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
+      <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
       <c r="N60" s="11" t="inlineStr"/>
@@ -18349,7 +18253,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>YAZMINP</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -18377,7 +18285,11 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -18407,29 +18319,21 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="K64" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="L64" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="M64" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
-      <c r="N64" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="M64" s="11" t="inlineStr"/>
+      <c r="N64" s="11" t="inlineStr"/>
       <c r="O64" s="11" t="inlineStr"/>
       <c r="P64" s="11" t="inlineStr"/>
       <c r="Q64" s="11" t="inlineStr"/>
@@ -18455,7 +18359,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -18487,12 +18391,24 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="K66" s="11" t="inlineStr"/>
-      <c r="L66" s="11" t="inlineStr"/>
-      <c r="M66" s="11" t="inlineStr"/>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
@@ -18517,21 +18433,13 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+      <c r="J67" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="K67" s="10" t="inlineStr"/>
+      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -18587,7 +18495,7 @@
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="K69" s="10" t="inlineStr"/>
@@ -18619,17 +18527,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>DALESKA</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -18663,7 +18571,7 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -18673,32 +18581,32 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>LIZBET</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="N71" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="O71" s="4" t="inlineStr">
-        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="P71" s="5" t="inlineStr">
+      <c r="N71" s="5" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
       </c>
+      <c r="O71" s="5" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="P71" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>LOURDES</t>
         </is>
       </c>
       <c r="R71" s="7" t="inlineStr">

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -551,8 +551,8 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -876,7 +876,11 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -1046,7 +1050,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -1129,15 +1137,19 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -1164,12 +1176,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -1211,7 +1223,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr"/>
@@ -1240,16 +1252,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -1285,7 +1293,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1318,12 +1326,16 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -1355,12 +1367,12 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
           <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -1373,7 +1385,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="10" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -1469,7 +1485,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -1529,7 +1549,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -1628,13 +1648,21 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="K34" s="11" t="inlineStr"/>
-      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -1647,26 +1675,22 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
           <t>ROSARIO</t>
         </is>
       </c>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -1677,12 +1701,12 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="L35" s="10" t="inlineStr"/>
@@ -1698,12 +1722,16 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -1716,7 +1744,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -1735,15 +1763,19 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -1753,16 +1785,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -1776,11 +1804,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -1794,7 +1818,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
@@ -1815,7 +1839,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -1827,12 +1855,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
-      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -1846,11 +1878,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -1864,12 +1892,12 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
           <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
         </is>
       </c>
       <c r="L40" s="11" t="inlineStr"/>
@@ -1887,7 +1915,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C41" s="10" t="inlineStr"/>
@@ -1903,7 +1931,7 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="K41" s="7" t="inlineStr">
@@ -1984,7 +2012,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr"/>
@@ -1998,7 +2026,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="J44" s="11" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K44" s="11" t="inlineStr"/>
       <c r="L44" s="11" t="inlineStr"/>
       <c r="M44" s="11" t="inlineStr"/>
@@ -2013,7 +2045,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -2040,11 +2076,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -2058,7 +2090,7 @@
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K46" s="11" t="inlineStr"/>
@@ -2077,7 +2109,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2114,8 +2146,16 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr"/>
-      <c r="C48" s="11" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
       <c r="F48" s="11" t="inlineStr"/>
@@ -2168,16 +2208,8 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
+      <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -2188,11 +2220,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -2209,12 +2237,12 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="D51" s="10" t="inlineStr"/>
@@ -2227,12 +2255,16 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="7" t="inlineStr">
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -2248,16 +2280,24 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
           <t>YASSER</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="D52" s="11" t="inlineStr"/>
-      <c r="E52" s="11" t="inlineStr"/>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -2268,16 +2308,24 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="M52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr"/>
-      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -2291,10 +2339,14 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -2305,11 +2357,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -2336,7 +2384,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -2353,12 +2405,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>DALESKA</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -2375,16 +2427,8 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J55" s="10" t="inlineStr"/>
+      <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
@@ -2400,7 +2444,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -2410,7 +2454,7 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="E56" s="7" t="inlineStr">
@@ -2437,7 +2481,7 @@
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L56" s="7" t="inlineStr">
@@ -2525,7 +2569,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -2554,7 +2598,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -2581,11 +2629,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -2614,7 +2658,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -2643,8 +2687,16 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
-      <c r="K63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -2670,11 +2722,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -2701,16 +2749,8 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
+      <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -2738,12 +2778,12 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="L66" s="11" t="inlineStr"/>
@@ -2773,21 +2813,29 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
           <t>YASSER</t>
         </is>
       </c>
-      <c r="K67" s="3" t="inlineStr">
+      <c r="L67" s="3" t="inlineStr">
         <is>
           <t>MILAGROS</t>
         </is>
       </c>
-      <c r="L67" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="M67" s="10" t="inlineStr"/>
-      <c r="N67" s="10" t="inlineStr"/>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="N67" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -2810,8 +2858,16 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
-      <c r="K68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -2871,12 +2927,12 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>DALESKA</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -2914,7 +2970,7 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -2924,7 +2980,7 @@
       </c>
       <c r="M71" s="5" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="N71" s="7" t="inlineStr">
@@ -3059,13 +3115,13 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
@@ -3296,12 +3352,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -3398,7 +3454,11 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -3428,7 +3488,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>ASTRID</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -3514,7 +3574,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -3544,7 +3608,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -3574,11 +3638,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -3606,11 +3666,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -3666,12 +3722,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -3732,15 +3792,19 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
       <c r="G21" s="10" t="inlineStr"/>
@@ -3768,7 +3832,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
@@ -3788,7 +3852,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -3812,20 +3876,24 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
           <t>BRINDY</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -3850,21 +3918,13 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -3894,18 +3954,26 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="inlineStr"/>
-      <c r="E25" s="10" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>NAYELI</t>
+        </is>
+      </c>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="10" t="inlineStr"/>
@@ -3914,7 +3982,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="10" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -3958,11 +4030,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -4030,7 +4098,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="10" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -4060,7 +4132,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -4090,11 +4162,7 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+      <c r="J31" s="10" t="inlineStr"/>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -4110,7 +4178,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4200,7 +4272,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
@@ -4260,15 +4332,19 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K36" s="7" t="inlineStr">
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="L36" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
       <c r="O36" s="11" t="inlineStr"/>
@@ -4282,12 +4358,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -4300,7 +4380,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -4336,15 +4416,19 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
           <t>BRINDY</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -4358,16 +4442,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
+      <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -4378,21 +4454,13 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K39" s="10" t="inlineStr"/>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -4408,11 +4476,19 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
           <t>LINDSAYF</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
-      <c r="D40" s="11" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr"/>
@@ -4422,18 +4498,26 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="L40" s="11" t="inlineStr"/>
-      <c r="M40" s="11" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>NAYELI</t>
+        </is>
+      </c>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
       <c r="P40" s="11" t="inlineStr"/>
@@ -4446,16 +4530,12 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="C41" s="7" t="inlineStr">
+      <c r="B41" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -4502,11 +4582,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -4522,11 +4598,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -4540,7 +4612,7 @@
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="K43" s="7" t="inlineStr">
@@ -4592,7 +4664,7 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C45" s="10" t="inlineStr"/>
@@ -4622,7 +4694,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -4650,11 +4726,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -4668,10 +4740,14 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="K47" s="10" t="inlineStr"/>
+          <t>ASTRID</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -4688,14 +4764,10 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
       <c r="F48" s="11" t="inlineStr"/>
@@ -4785,12 +4857,24 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
-      <c r="E51" s="10" t="inlineStr"/>
-      <c r="F51" s="10" t="inlineStr"/>
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="10" t="inlineStr"/>
       <c r="I51" s="10" t="inlineStr">
@@ -4824,7 +4908,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -4842,12 +4926,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -4878,11 +4966,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -4910,16 +4994,8 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
+      <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -4941,12 +5017,12 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
           <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -4964,12 +5040,24 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
           <t>LINDSAYF</t>
         </is>
       </c>
-      <c r="K55" s="10" t="inlineStr"/>
-      <c r="L55" s="10" t="inlineStr"/>
-      <c r="M55" s="10" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -4984,7 +5072,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -5015,16 +5103,12 @@
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
+      <c r="K56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -5078,11 +5162,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -5144,7 +5224,7 @@
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -5174,7 +5254,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -5202,11 +5286,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -5236,14 +5316,10 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -5270,11 +5346,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -5337,12 +5409,24 @@
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="L66" s="11" t="inlineStr"/>
-      <c r="M66" s="11" t="inlineStr"/>
-      <c r="N66" s="11" t="inlineStr"/>
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="N66" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
       <c r="Q66" s="11" t="inlineStr"/>
@@ -5368,7 +5452,7 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K67" s="5" t="inlineStr">
@@ -5402,7 +5486,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -5465,12 +5553,12 @@
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
           <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -5504,12 +5592,12 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -5651,16 +5739,16 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
@@ -5895,7 +5983,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -5997,7 +6085,11 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -6025,11 +6117,7 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B11" s="10" t="inlineStr"/>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -6143,7 +6231,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr"/>
@@ -6173,7 +6261,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -6201,11 +6293,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -6235,7 +6323,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -6267,7 +6355,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -6339,10 +6427,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr"/>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -6371,19 +6463,15 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -6395,7 +6483,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -6419,15 +6507,19 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -6453,21 +6545,17 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -6499,7 +6587,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -6517,7 +6605,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="10" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -6545,11 +6637,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -6565,11 +6653,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -6653,7 +6737,11 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -6667,7 +6755,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -6755,7 +6843,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -6791,7 +6879,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -6813,26 +6901,22 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
           <t>MOISES</t>
         </is>
       </c>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -6857,7 +6941,11 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
@@ -6871,7 +6959,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -6891,15 +6979,19 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -6911,7 +7003,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -6947,10 +7039,14 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr"/>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -6965,11 +7061,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -6981,21 +7073,17 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
+      <c r="K39" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -7011,7 +7099,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -7027,7 +7115,7 @@
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
@@ -7051,7 +7139,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C41" s="10" t="inlineStr"/>
@@ -7101,11 +7189,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -7121,7 +7205,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -7181,11 +7269,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -7197,12 +7281,16 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="7" t="inlineStr">
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K45" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
       <c r="N45" s="10" t="inlineStr"/>
@@ -7247,7 +7335,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -7277,7 +7365,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -7307,7 +7399,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr"/>
@@ -7337,11 +7429,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -7353,11 +7441,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -7375,7 +7459,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -7389,7 +7473,11 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="10" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
@@ -7407,16 +7495,24 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="E52" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
-      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -7427,16 +7523,24 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="M52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr"/>
-      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -7465,11 +7569,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -7485,11 +7585,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>YASSER</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -7501,11 +7597,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -7528,7 +7620,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -7547,7 +7639,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>CELESTE</t>
         </is>
       </c>
       <c r="K55" s="10" t="inlineStr"/>
@@ -7567,12 +7659,12 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -7600,7 +7692,7 @@
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="L56" s="11" t="inlineStr"/>
@@ -7629,7 +7721,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -7659,7 +7755,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>DALESKA</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -7721,11 +7817,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -7783,7 +7875,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>RAUL</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -7813,7 +7905,11 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -7843,14 +7939,10 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K64" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
@@ -7877,11 +7969,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -7911,7 +7999,7 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr"/>
@@ -7943,16 +8031,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="K67" s="5" t="inlineStr">
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -7977,7 +8073,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -8005,11 +8105,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>YASSER</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -8049,7 +8145,7 @@
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -8083,17 +8179,17 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="M71" s="5" t="inlineStr">
@@ -8230,18 +8326,18 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
@@ -8411,7 +8507,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -8474,7 +8570,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -8572,7 +8668,11 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -8602,7 +8702,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JUAN</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -8688,11 +8788,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -8838,7 +8934,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -8874,19 +8970,15 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>ERIKAO</t>
-        </is>
-      </c>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
@@ -8918,15 +9010,19 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
       <c r="G21" s="10" t="inlineStr"/>
@@ -8952,12 +9048,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -8968,12 +9068,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
@@ -8993,12 +9097,16 @@
           <t>ADRIAN</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -9024,21 +9132,13 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="C24" s="11" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -9068,12 +9168,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -9084,7 +9188,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="10" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -9112,11 +9220,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J26" s="11" t="inlineStr"/>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -9132,11 +9236,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -9204,11 +9304,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="J29" s="10" t="inlineStr"/>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -9252,7 +9348,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -9350,7 +9450,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -9372,26 +9472,22 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>ENRIQUE</t>
         </is>
       </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>MOISES</t>
+        </is>
+      </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
           <t>ROMINA</t>
         </is>
       </c>
+      <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
@@ -9402,14 +9498,10 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -9424,12 +9516,16 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -9442,15 +9538,19 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="K36" s="7" t="inlineStr">
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="L36" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
       <c r="O36" s="11" t="inlineStr"/>
@@ -9466,12 +9566,12 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
@@ -9488,12 +9588,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
-      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -9508,7 +9612,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -9525,7 +9633,11 @@
           <t>ADRIAN</t>
         </is>
       </c>
-      <c r="K38" s="11" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9540,16 +9652,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
+      <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -9560,21 +9664,13 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>ANDRE</t>
         </is>
       </c>
+      <c r="K39" s="10" t="inlineStr"/>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -9588,7 +9684,11 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -9600,12 +9700,16 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>MIGUEL</t>
         </is>
       </c>
-      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -9620,21 +9724,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -9646,7 +9746,7 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K41" s="7" t="inlineStr">
@@ -9680,11 +9780,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -9700,7 +9796,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B43" s="10" t="inlineStr"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C43" s="10" t="inlineStr"/>
       <c r="D43" s="10" t="inlineStr"/>
       <c r="E43" s="10" t="inlineStr"/>
@@ -9712,16 +9812,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
+      <c r="J43" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -9736,11 +9832,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -9796,7 +9888,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -9808,7 +9904,11 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="11" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -9824,16 +9924,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -9844,7 +9936,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="10" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -9860,7 +9956,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -9888,7 +9988,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="10" t="inlineStr"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -9918,7 +10022,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -9932,11 +10036,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -9954,14 +10054,10 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -9972,12 +10068,16 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="7" t="inlineStr">
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="K51" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -9994,20 +10094,24 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="E52" s="11" t="inlineStr"/>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -10018,12 +10122,12 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="L52" s="3" t="inlineStr">
@@ -10048,11 +10152,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -10064,7 +10164,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>DALESKA</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -10080,7 +10184,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -10092,16 +10200,8 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
+      <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -10140,7 +10240,11 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="J55" s="10" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
       <c r="K55" s="10" t="inlineStr"/>
       <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
@@ -10158,7 +10262,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -10173,7 +10277,7 @@
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>JEFFERSON</t>
+          <t>ROSARIOC</t>
         </is>
       </c>
       <c r="F56" s="7" t="inlineStr">
@@ -10188,26 +10292,22 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
-        </is>
-      </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="L56" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -10260,7 +10360,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -10288,16 +10392,12 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K59" s="4" t="inlineStr">
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -10352,7 +10452,11 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="10" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -10380,16 +10484,8 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -10416,7 +10512,11 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -10446,7 +10546,7 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K64" s="11" t="inlineStr"/>
@@ -10478,7 +10578,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -10510,14 +10610,10 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="inlineStr"/>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -10546,20 +10642,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="M67" s="10" t="inlineStr"/>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -10612,7 +10712,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -10687,7 +10791,7 @@
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -10702,7 +10806,7 @@
       </c>
       <c r="N71" s="5" t="inlineStr">
         <is>
-          <t>JEFFERSON</t>
+          <t>ROSARIOC</t>
         </is>
       </c>
       <c r="O71" s="7" t="inlineStr">
@@ -10833,17 +10937,17 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -11073,20 +11177,24 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
           <t>JUAN</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -11173,7 +11281,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
@@ -11231,7 +11339,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -11315,16 +11427,8 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
+      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -11351,7 +11455,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -11409,7 +11517,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -11439,12 +11547,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -11473,7 +11585,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -11509,7 +11621,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
@@ -11545,17 +11657,17 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>NICOLAS</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr"/>
@@ -11569,15 +11681,19 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
           <t>JUAN</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
-      <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
       <c r="O22" s="11" t="inlineStr"/>
@@ -11593,19 +11709,15 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -11631,16 +11743,12 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -11671,17 +11779,21 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -11693,7 +11805,7 @@
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="K25" s="10" t="inlineStr"/>
@@ -11739,7 +11851,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -11751,7 +11867,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -11823,11 +11943,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -11839,11 +11955,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -11929,7 +12041,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -11947,11 +12059,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -11985,7 +12093,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -12017,7 +12125,7 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="K35" s="10" t="inlineStr"/>
@@ -12037,15 +12145,19 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="D36" s="7" t="inlineStr">
         <is>
           <t>JAIME</t>
         </is>
       </c>
-      <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
       <c r="G36" s="11" t="inlineStr"/>
@@ -12057,7 +12169,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="7" t="inlineStr">
@@ -12081,15 +12193,19 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -12101,15 +12217,19 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="L37" s="10" t="inlineStr"/>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -12137,14 +12257,10 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -12171,16 +12287,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -12197,10 +12309,14 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C40" s="11" t="inlineStr"/>
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -12211,17 +12327,21 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="L40" s="11" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -12235,21 +12355,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>MIGUEL</t>
+        </is>
+      </c>
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -12283,7 +12399,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -12295,7 +12415,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -12343,11 +12467,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>YASSER</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -12387,11 +12507,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -12437,14 +12553,10 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -12529,7 +12641,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="C50" s="11" t="inlineStr"/>
@@ -12543,11 +12655,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="J50" s="11" t="inlineStr"/>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -12565,19 +12673,11 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
+          <t>DALESKA</t>
+        </is>
+      </c>
+      <c r="C51" s="10" t="inlineStr"/>
+      <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -12589,12 +12689,12 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
         </is>
       </c>
       <c r="L51" s="7" t="inlineStr">
@@ -12620,13 +12720,21 @@
           <t>ANDYM</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="D52" s="11" t="inlineStr"/>
-      <c r="E52" s="11" t="inlineStr"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -12637,16 +12745,24 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
+      <c r="M52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr"/>
-      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -12659,7 +12775,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -12717,12 +12837,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
           <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>JOSELYN</t>
         </is>
       </c>
       <c r="D55" s="10" t="inlineStr"/>
@@ -12737,12 +12857,12 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>VENUSR</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="L55" s="10" t="inlineStr"/>
@@ -12766,7 +12886,7 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
@@ -12794,7 +12914,7 @@
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="L56" s="7" t="inlineStr">
@@ -12827,7 +12947,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -12855,11 +12979,7 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
+      <c r="J58" s="11" t="inlineStr"/>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -12887,16 +13007,12 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="K59" s="4" t="inlineStr">
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -12981,14 +13097,10 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>JOSE</t>
+        </is>
+      </c>
+      <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -13073,7 +13185,7 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="K65" s="10" t="inlineStr"/>
@@ -13105,14 +13217,10 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="K66" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+          <t>DALESKA</t>
+        </is>
+      </c>
+      <c r="K66" s="11" t="inlineStr"/>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -13144,14 +13252,26 @@
           <t>ANDYM</t>
         </is>
       </c>
-      <c r="K67" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
-      <c r="N67" s="10" t="inlineStr"/>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="N67" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -13233,7 +13353,7 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
@@ -13243,12 +13363,12 @@
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSR</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="N70" s="11" t="inlineStr"/>
@@ -13292,7 +13412,7 @@
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="N71" s="5" t="inlineStr">
@@ -13427,23 +13547,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13602,17 +13722,21 @@
           <t>06:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>ROMINA</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -13666,13 +13790,21 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>FIORELA</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr"/>
-      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -13726,16 +13858,12 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>KELLY</t>
         </is>
       </c>
+      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -13794,12 +13922,16 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>JESSICA</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -13856,7 +13988,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="C13" s="10" t="inlineStr"/>
@@ -13916,12 +14048,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr"/>
@@ -13978,7 +14110,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -14036,12 +14172,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -14074,14 +14210,14 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="D20" s="11" t="inlineStr"/>
@@ -14094,7 +14230,11 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>EMIR</t>
+        </is>
+      </c>
       <c r="K20" s="11" t="inlineStr"/>
       <c r="L20" s="11" t="inlineStr"/>
       <c r="M20" s="11" t="inlineStr"/>
@@ -14112,12 +14252,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr"/>
@@ -14146,16 +14286,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="C22" s="11" t="inlineStr"/>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -14166,7 +14302,11 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="J22" s="11" t="inlineStr"/>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>ABIGAILH</t>
+        </is>
+      </c>
       <c r="K22" s="11" t="inlineStr"/>
       <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
@@ -14189,24 +14329,20 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
       <c r="I23" s="10" t="inlineStr">
@@ -14230,16 +14366,12 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -14270,17 +14402,21 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -14318,7 +14454,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -14362,11 +14502,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+      <c r="B28" s="11" t="inlineStr"/>
       <c r="C28" s="11" t="inlineStr"/>
       <c r="D28" s="11" t="inlineStr"/>
       <c r="E28" s="11" t="inlineStr"/>
@@ -14380,7 +14516,7 @@
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr"/>
@@ -14398,7 +14534,11 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="10" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -14428,7 +14568,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>MILAGROSR</t>
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
@@ -14444,7 +14584,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -14502,7 +14642,11 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="J32" s="11" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr"/>
       <c r="M32" s="11" t="inlineStr"/>
@@ -14546,7 +14690,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -14560,7 +14708,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -14582,9 +14730,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -14592,17 +14740,21 @@
           <t>ENRIQUE</t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="F35" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
@@ -14612,14 +14764,10 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="K35" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -14634,16 +14782,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -14656,12 +14796,12 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>CYNTHIA</t>
         </is>
       </c>
       <c r="K36" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="L36" s="11" t="inlineStr"/>
@@ -14678,9 +14818,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -14700,7 +14840,7 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
@@ -14722,7 +14862,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -14741,12 +14885,12 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="M38" s="11" t="inlineStr"/>
@@ -14764,14 +14908,10 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+          <t>DALESKA</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -14782,16 +14922,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>MARCO</t>
-        </is>
-      </c>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -14808,14 +14944,10 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -14826,17 +14958,21 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="L40" s="11" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -14958,7 +15094,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -14970,11 +15110,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
+      <c r="J44" s="11" t="inlineStr"/>
       <c r="K44" s="11" t="inlineStr"/>
       <c r="L44" s="11" t="inlineStr"/>
       <c r="M44" s="11" t="inlineStr"/>
@@ -14990,11 +15126,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -15006,11 +15138,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
       <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
@@ -15060,7 +15188,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C47" s="10" t="inlineStr"/>
@@ -15124,7 +15252,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="C49" s="10" t="inlineStr"/>
@@ -15138,7 +15266,11 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="10" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -15166,7 +15298,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -15184,7 +15320,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -15202,9 +15338,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
         </is>
       </c>
       <c r="K51" s="10" t="inlineStr"/>
@@ -15224,7 +15360,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="C52" s="5" t="inlineStr">
@@ -15242,9 +15378,9 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
-        <is>
-          <t>ABIGAILH</t>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -15271,7 +15407,11 @@
           <t>JULISSA</t>
         </is>
       </c>
-      <c r="C53" s="10" t="inlineStr"/>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -15282,7 +15422,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -15312,14 +15456,10 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+          <t>DALESKA</t>
+        </is>
+      </c>
+      <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -15336,17 +15476,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -15364,19 +15504,15 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -15392,25 +15528,29 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>VICTORQ</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="F56" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -15420,7 +15560,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -15520,7 +15660,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>VENUSR</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="K59" s="4" t="inlineStr">
@@ -15554,11 +15694,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -15616,7 +15752,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -15676,19 +15812,11 @@
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="K64" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="L64" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="K64" s="11" t="inlineStr"/>
+      <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
       <c r="O64" s="11" t="inlineStr"/>
@@ -15744,15 +15872,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
           <t>RAUL</t>
         </is>
       </c>
-      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -15780,19 +15912,15 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="K67" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
-      <c r="L67" s="5" t="inlineStr">
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
       </c>
+      <c r="L67" s="10" t="inlineStr"/>
       <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
@@ -15818,8 +15946,16 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
-      <c r="K68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -15876,25 +16012,29 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -15920,45 +16060,49 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
+          <t>VICTORQ</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="M71" s="5" t="inlineStr">
+      <c r="N71" s="5" t="inlineStr">
         <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
+      <c r="O71" s="7" t="inlineStr">
         <is>
           <t>ALEJANDRO</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
+      <c r="P71" s="7" t="inlineStr">
         <is>
           <t>GUSTAVO</t>
         </is>
       </c>
-      <c r="P71" s="7" t="inlineStr">
+      <c r="Q71" s="7" t="inlineStr">
         <is>
           <t>LOURDES</t>
         </is>
       </c>
-      <c r="Q71" s="7" t="inlineStr">
+      <c r="R71" s="7" t="inlineStr">
         <is>
           <t>MOISES</t>
         </is>
       </c>
-      <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -16079,9 +16223,9 @@
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
     <col width="11" customWidth="1" min="16" max="16"/>
@@ -16311,7 +16455,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -16447,10 +16591,14 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr"/>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -16505,11 +16653,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -16537,7 +16681,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -16567,10 +16715,14 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr"/>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
+        </is>
+      </c>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -16597,7 +16749,11 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -16681,7 +16837,11 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="10" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
       <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
@@ -16711,7 +16871,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
@@ -16743,10 +16903,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="inlineStr"/>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -16775,29 +16939,17 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
+          <t>LILIA</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
       <c r="H22" s="11" t="inlineStr"/>
       <c r="I22" s="11" t="inlineStr">
@@ -16807,7 +16959,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -16836,12 +16988,12 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -16875,19 +17027,15 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
           <t>ENZO</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -16917,17 +17065,21 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="D25" s="10" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -16969,8 +17121,16 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
-      <c r="K26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
       <c r="N26" s="11" t="inlineStr"/>
@@ -16985,16 +17145,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
+      <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
       <c r="F27" s="10" t="inlineStr"/>
@@ -17033,11 +17185,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -17081,11 +17229,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -17099,7 +17243,7 @@
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSI</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K30" s="11" t="inlineStr"/>
@@ -17117,8 +17261,16 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
-      <c r="C31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
       <c r="F31" s="10" t="inlineStr"/>
@@ -17173,11 +17325,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -17205,7 +17353,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -17217,7 +17369,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="J34" s="11" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
       <c r="K34" s="11" t="inlineStr"/>
       <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
@@ -17235,12 +17391,12 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="D35" s="7" t="inlineStr">
@@ -17283,7 +17439,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>SHADIA</t>
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
@@ -17299,7 +17455,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -17337,26 +17493,14 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="M37" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>KAREN</t>
         </is>
       </c>
+      <c r="K37" s="10" t="inlineStr"/>
+      <c r="L37" s="10" t="inlineStr"/>
+      <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
       <c r="P37" s="10" t="inlineStr"/>
@@ -17369,7 +17513,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -17388,10 +17536,14 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr"/>
+          <t>BRYANR</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -17407,19 +17559,11 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr"/>
+      <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
       <c r="G39" s="10" t="inlineStr"/>
@@ -17431,19 +17575,15 @@
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
           <t>ENZO</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="K39" s="4" t="inlineStr">
         <is>
           <t>MARCO</t>
         </is>
       </c>
+      <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
       <c r="O39" s="10" t="inlineStr"/>
@@ -17459,7 +17599,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -17473,18 +17613,26 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>NAYELI</t>
         </is>
       </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="L40" s="11" t="inlineStr"/>
-      <c r="M40" s="11" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
       <c r="P40" s="11" t="inlineStr"/>
@@ -17517,21 +17665,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="J41" s="4" t="inlineStr">
         <is>
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>YENNIFER</t>
         </is>
       </c>
+      <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
       <c r="O41" s="10" t="inlineStr"/>
@@ -17697,8 +17841,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
-      <c r="C47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -17709,11 +17861,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -17757,21 +17905,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
+      <c r="C49" s="10" t="inlineStr"/>
+      <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
       <c r="F49" s="10" t="inlineStr"/>
       <c r="G49" s="10" t="inlineStr"/>
@@ -17809,7 +17945,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>ASTRID</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -17827,20 +17967,24 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
         </is>
       </c>
-      <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="10" t="inlineStr"/>
@@ -17851,10 +17995,14 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K51" s="10" t="inlineStr"/>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t>ANTONY</t>
+        </is>
+      </c>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -17869,12 +18017,16 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr"/>
       <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
@@ -17890,12 +18042,16 @@
           <t>JOSE</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSR</t>
+        </is>
+      </c>
+      <c r="L52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
@@ -17925,7 +18081,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -17955,19 +18115,11 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr">
-        <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="L54" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K54" s="11" t="inlineStr"/>
+      <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
       <c r="O54" s="11" t="inlineStr"/>
@@ -17983,17 +18135,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -18011,7 +18163,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="K55" s="10" t="inlineStr"/>
@@ -18031,7 +18183,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -18063,7 +18215,7 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
@@ -18101,7 +18253,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -18131,7 +18287,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -18161,16 +18317,12 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="K59" s="4" t="inlineStr">
+      <c r="J59" s="4" t="inlineStr">
         <is>
           <t>AKEMI</t>
         </is>
       </c>
+      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -18255,10 +18407,14 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>YAZMINP</t>
-        </is>
-      </c>
-      <c r="K62" s="11" t="inlineStr"/>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>CELESTE</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -18285,11 +18441,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -18317,21 +18469,9 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
-      <c r="K64" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="L64" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
+      <c r="K64" s="11" t="inlineStr"/>
+      <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
       <c r="N64" s="11" t="inlineStr"/>
       <c r="O64" s="11" t="inlineStr"/>
@@ -18357,11 +18497,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -18391,22 +18527,22 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>JHOSSEP</t>
         </is>
       </c>
       <c r="L66" s="3" t="inlineStr">
         <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
           <t>MAFER</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
         </is>
       </c>
       <c r="N66" s="11" t="inlineStr"/>
@@ -18433,14 +18569,26 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="J67" s="5" t="inlineStr">
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="K67" s="10" t="inlineStr"/>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -18465,7 +18613,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -18493,11 +18645,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -18527,25 +18675,29 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
+          <t>JOSELYN</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
         </is>
       </c>
-      <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -18571,17 +18723,17 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">

--- a/ES_Semanal.xlsx
+++ b/ES_Semanal.xlsx
@@ -541,22 +541,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -720,14 +720,10 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -789,11 +785,7 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -847,7 +839,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -876,11 +868,7 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="inlineStr"/>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -938,7 +926,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -992,11 +984,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -1052,7 +1040,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -1081,7 +1069,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -1108,7 +1100,11 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -1137,19 +1133,15 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -1174,26 +1166,14 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>ERIKAO</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
       <c r="G20" s="11" t="inlineStr"/>
       <c r="H20" s="11" t="inlineStr"/>
@@ -1226,7 +1206,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr"/>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -1252,12 +1236,16 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
-      <c r="C22" s="11" t="inlineStr"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>FEDERICOZ</t>
+        </is>
+      </c>
       <c r="D22" s="11" t="inlineStr"/>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
@@ -1293,14 +1281,10 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
           <t>BRINDY</t>
         </is>
       </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -1331,11 +1315,7 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
+      <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -1348,7 +1328,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -1367,12 +1347,12 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>ROSARIOC</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>NAYELI</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr"/>
@@ -1385,11 +1365,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -1431,7 +1407,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -1443,7 +1423,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -1485,11 +1469,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B29" s="10" t="inlineStr"/>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -1501,11 +1481,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
+      <c r="J29" s="10" t="inlineStr"/>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -1549,7 +1525,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -1563,7 +1539,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -1617,7 +1597,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -1632,11 +1616,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -1650,19 +1630,15 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="L34" s="4" t="inlineStr">
+          <t>ADRIAN</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -1677,19 +1653,11 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr"/>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -1699,16 +1667,8 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="J35" s="10" t="inlineStr"/>
+      <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
       <c r="N35" s="10" t="inlineStr"/>
@@ -1724,12 +1684,12 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="D36" s="11" t="inlineStr"/>
@@ -1747,7 +1707,11 @@
           <t>ANDREA</t>
         </is>
       </c>
-      <c r="K36" s="11" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>ENZO</t>
+        </is>
+      </c>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -1761,21 +1725,13 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="C37" s="10" t="inlineStr"/>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -1785,12 +1741,16 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
-      <c r="K37" s="10" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>FEDERICOZ</t>
+        </is>
+      </c>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -1818,14 +1778,10 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
           <t>BRINDY</t>
         </is>
       </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -1841,10 +1797,14 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="inlineStr"/>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
       <c r="F39" s="10" t="inlineStr"/>
@@ -1860,11 +1820,7 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="K39" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -1892,12 +1848,12 @@
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>ROSARIOC</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>NAYELI</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="L40" s="11" t="inlineStr"/>
@@ -1915,10 +1871,14 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr"/>
+          <t>CRISTOPHERY</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>NADIAU</t>
+        </is>
+      </c>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -1931,14 +1891,10 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+          <t>ESTRELLA</t>
+        </is>
+      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -1952,7 +1908,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -1964,7 +1924,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -1991,11 +1955,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -2012,7 +1972,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="C44" s="11" t="inlineStr"/>
@@ -2026,11 +1986,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J44" s="11" t="inlineStr"/>
       <c r="K44" s="11" t="inlineStr"/>
       <c r="L44" s="11" t="inlineStr"/>
       <c r="M44" s="11" t="inlineStr"/>
@@ -2045,11 +2001,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -2088,11 +2040,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="J46" s="11" t="inlineStr"/>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -2109,7 +2057,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2148,14 +2096,10 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
       <c r="F48" s="11" t="inlineStr"/>
@@ -2237,15 +2181,19 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="D51" s="10" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
@@ -2257,12 +2205,12 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
           <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K51" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
         </is>
       </c>
       <c r="L51" s="10" t="inlineStr"/>
@@ -2280,17 +2228,17 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -2306,26 +2254,14 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="M52" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="K52" s="11" t="inlineStr"/>
+      <c r="L52" s="11" t="inlineStr"/>
+      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -2337,16 +2273,8 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
+      <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -2357,7 +2285,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -2372,7 +2304,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -2386,10 +2322,14 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="K54" s="11" t="inlineStr"/>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
       <c r="N54" s="11" t="inlineStr"/>
@@ -2405,19 +2345,15 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>NORITH</t>
-        </is>
-      </c>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="D55" s="10" t="inlineStr"/>
       <c r="E55" s="10" t="inlineStr"/>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
@@ -2444,29 +2380,21 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
           <t>VICTORQ</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="F56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="E56" s="11" t="inlineStr"/>
+      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -2476,17 +2404,17 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>CRISTOPHERY</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+          <t>ERIKAO</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>NADIAU</t>
         </is>
       </c>
       <c r="M56" s="11" t="inlineStr"/>
@@ -2513,7 +2441,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -2569,7 +2501,7 @@
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K59" s="10" t="inlineStr"/>
@@ -2598,11 +2530,7 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="J60" s="11" t="inlineStr"/>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -2658,7 +2586,7 @@
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr"/>
@@ -2689,14 +2617,10 @@
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="K63" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
       <c r="N63" s="10" t="inlineStr"/>
@@ -2778,15 +2702,19 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="L66" s="11" t="inlineStr"/>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -2813,30 +2741,34 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>ADRIANA</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
           <t>MILAGROS</t>
         </is>
       </c>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="N67" s="5" t="inlineStr">
+      <c r="N67" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="O67" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
     </row>
@@ -2858,16 +2790,8 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="K68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
+      <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -2893,7 +2817,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -2922,24 +2850,16 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="L70" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="M70" s="4" t="inlineStr">
-        <is>
-          <t>NORITH</t>
-        </is>
-      </c>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="L70" s="11" t="inlineStr"/>
+      <c r="M70" s="11" t="inlineStr"/>
       <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
@@ -2965,44 +2885,28 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
           <t>VICTORQ</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="M71" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="N71" s="10" t="inlineStr"/>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
+      <c r="Q71" s="10" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -3111,21 +3015,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -3291,11 +3195,7 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="C5" s="10" t="inlineStr"/>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -3352,12 +3252,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>EMIR</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -3365,11 +3265,7 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -3424,7 +3320,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -3454,11 +3350,7 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="inlineStr"/>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -3488,7 +3380,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr"/>
@@ -3518,7 +3410,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -3574,11 +3470,7 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -3666,7 +3558,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -3722,16 +3618,12 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
+      <c r="C19" s="10" t="inlineStr"/>
       <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
@@ -3758,9 +3650,9 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>ERIKAO</t>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
@@ -3792,19 +3684,11 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr"/>
+      <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
       <c r="G21" s="10" t="inlineStr"/>
@@ -3832,12 +3716,12 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>SAMANTHAG</t>
         </is>
       </c>
       <c r="D22" s="11" t="inlineStr"/>
@@ -3852,15 +3736,19 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
+          <t>EMIR</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="L22" s="11" t="inlineStr"/>
       <c r="M22" s="11" t="inlineStr"/>
       <c r="N22" s="11" t="inlineStr"/>
       <c r="O22" s="11" t="inlineStr"/>
@@ -3876,24 +3764,16 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr"/>
+      <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -3920,10 +3800,14 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
+          <t>AKEMI</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -3936,7 +3820,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -3956,24 +3840,16 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr"/>
+      <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="10" t="inlineStr"/>
@@ -3982,11 +3858,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -4002,7 +3874,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -4042,7 +3918,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -4098,11 +3978,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="J29" s="10" t="inlineStr"/>
       <c r="K29" s="10" t="inlineStr"/>
       <c r="L29" s="10" t="inlineStr"/>
       <c r="M29" s="10" t="inlineStr"/>
@@ -4178,11 +4054,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B32" s="11" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr"/>
       <c r="D32" s="11" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
@@ -4270,21 +4142,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -4294,7 +4162,11 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="10" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>YOVANNA</t>
+        </is>
+      </c>
       <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
@@ -4310,16 +4182,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="B36" s="11" t="inlineStr"/>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -4332,19 +4196,11 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
-      <c r="L36" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+          <t>CYNTHIA</t>
+        </is>
+      </c>
+      <c r="K36" s="11" t="inlineStr"/>
+      <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
       <c r="O36" s="11" t="inlineStr"/>
@@ -4360,7 +4216,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -4380,12 +4236,12 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>CYNTHIA</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t>SAMANTHAG</t>
         </is>
       </c>
       <c r="L37" s="10" t="inlineStr"/>
@@ -4402,7 +4258,11 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -4416,19 +4276,15 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -4456,7 +4312,7 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="K39" s="10" t="inlineStr"/>
@@ -4476,19 +4332,15 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
           <t>KEISYS</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
       <c r="G40" s="11" t="inlineStr"/>
@@ -4500,24 +4352,16 @@
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K40" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="M40" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="L40" s="11" t="inlineStr"/>
+      <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
       <c r="P40" s="11" t="inlineStr"/>
@@ -4530,12 +4374,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>CRISTOPHERY</t>
+        </is>
+      </c>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -4546,14 +4394,14 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -4610,16 +4458,8 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="K43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
+      <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
       <c r="N43" s="10" t="inlineStr"/>
@@ -4662,11 +4502,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -4694,11 +4530,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="B46" s="11" t="inlineStr"/>
       <c r="C46" s="11" t="inlineStr"/>
       <c r="D46" s="11" t="inlineStr"/>
       <c r="E46" s="11" t="inlineStr"/>
@@ -4726,8 +4558,16 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
-      <c r="C47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
       <c r="F47" s="10" t="inlineStr"/>
@@ -4740,14 +4580,10 @@
       </c>
       <c r="J47" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>LILIA</t>
+        </is>
+      </c>
+      <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
       <c r="N47" s="10" t="inlineStr"/>
@@ -4762,11 +4598,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -4834,7 +4666,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -4852,29 +4688,17 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr"/>
+      <c r="E51" s="10" t="inlineStr"/>
+      <c r="F51" s="10" t="inlineStr"/>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="10" t="inlineStr"/>
       <c r="I51" s="10" t="inlineStr">
@@ -4882,16 +4706,8 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="K51" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="J51" s="10" t="inlineStr"/>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -4908,16 +4724,24 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="inlineStr">
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
-      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -4928,7 +4752,7 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
@@ -4966,8 +4790,16 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="10" t="inlineStr"/>
-      <c r="K53" s="10" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
       <c r="N53" s="10" t="inlineStr"/>
@@ -5012,17 +4844,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -5040,24 +4872,16 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
           <t>KEISYS</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
-      <c r="L55" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="M55" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="L55" s="10" t="inlineStr"/>
+      <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
       <c r="P55" s="10" t="inlineStr"/>
@@ -5072,24 +4896,20 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
           <t>VICTORQ</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+          <t>FEDERICOZ</t>
+        </is>
+      </c>
+      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -5098,14 +4918,14 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
-        <is>
-          <t>ERIKAO</t>
-        </is>
-      </c>
-      <c r="K56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>CRISTOPHERY</t>
         </is>
       </c>
       <c r="L56" s="11" t="inlineStr"/>
@@ -5190,11 +5010,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -5222,9 +5038,9 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>AKEMI</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr"/>
@@ -5254,11 +5070,7 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
+      <c r="J61" s="10" t="inlineStr"/>
       <c r="K61" s="10" t="inlineStr"/>
       <c r="L61" s="10" t="inlineStr"/>
       <c r="M61" s="10" t="inlineStr"/>
@@ -5286,8 +5098,16 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
-      <c r="K62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
       <c r="N62" s="11" t="inlineStr"/>
@@ -5314,11 +5134,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -5404,29 +5220,17 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>YASSER</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="N66" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="L66" s="11" t="inlineStr"/>
+      <c r="M66" s="11" t="inlineStr"/>
+      <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
       <c r="P66" s="11" t="inlineStr"/>
       <c r="Q66" s="11" t="inlineStr"/>
@@ -5452,16 +5256,24 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
+          <t>ANDYM</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -5548,17 +5360,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -5592,39 +5404,27 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
           <t>VICTORQ</t>
         </is>
       </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
       <c r="M71" s="5" t="inlineStr">
         <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+          <t>FEDERICOZ</t>
+        </is>
+      </c>
+      <c r="N71" s="10" t="inlineStr"/>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -5740,19 +5540,19 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="11" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
@@ -5920,14 +5720,10 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+          <t>ERIKAO</t>
+        </is>
+      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -5983,7 +5779,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -5991,11 +5787,7 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -6051,14 +5843,10 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+          <t>PILAR</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -6085,11 +5873,7 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="inlineStr"/>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -6117,7 +5901,11 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
@@ -6145,7 +5933,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -6229,11 +6021,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
@@ -6321,11 +6109,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
+      <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -6355,16 +6139,24 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>LILIA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
           <t>YOVANNA</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
-      <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
       <c r="H19" s="10" t="inlineStr"/>
@@ -6389,9 +6181,9 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>ERIKAO</t>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
@@ -6427,14 +6219,10 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -6468,7 +6256,7 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>KAREN</t>
+          <t>FEDERICOZ</t>
         </is>
       </c>
       <c r="D22" s="11" t="inlineStr"/>
@@ -6483,7 +6271,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
@@ -6507,19 +6295,11 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr"/>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -6547,12 +6327,12 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
+          <t>AKEMI</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>SAMANTHAG</t>
         </is>
       </c>
       <c r="D24" s="11" t="inlineStr"/>
@@ -6567,7 +6347,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -6585,16 +6365,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -6605,11 +6381,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>JUAN</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -6625,7 +6397,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
       <c r="C26" s="11" t="inlineStr"/>
       <c r="D26" s="11" t="inlineStr"/>
       <c r="E26" s="11" t="inlineStr"/>
@@ -6637,7 +6413,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="K26" s="11" t="inlineStr"/>
       <c r="L26" s="11" t="inlineStr"/>
       <c r="M26" s="11" t="inlineStr"/>
@@ -6665,7 +6445,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -6737,11 +6521,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -6753,11 +6533,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -6841,11 +6617,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
+      <c r="J33" s="10" t="inlineStr"/>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -6863,7 +6635,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="C34" s="11" t="inlineStr"/>
@@ -6879,15 +6651,19 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
           <t>YOVANNA</t>
         </is>
       </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -6901,21 +6677,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -6925,7 +6697,11 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="10" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
@@ -6959,7 +6735,7 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K36" s="11" t="inlineStr"/>
@@ -6979,19 +6755,15 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+          <t>BELINDA</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -7008,7 +6780,7 @@
       </c>
       <c r="K37" s="5" t="inlineStr">
         <is>
-          <t>KAREN</t>
+          <t>FEDERICOZ</t>
         </is>
       </c>
       <c r="L37" s="10" t="inlineStr"/>
@@ -7039,14 +6811,10 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+          <t>MARICRUZ</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -7061,7 +6829,11 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="10" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -7075,14 +6847,10 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="K39" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+          <t>SAMANTHAG</t>
+        </is>
+      </c>
+      <c r="K39" s="10" t="inlineStr"/>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -7097,11 +6865,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B40" s="11" t="inlineStr"/>
       <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
@@ -7113,16 +6877,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
+      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -7137,12 +6897,16 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>NADIAU</t>
+        </is>
+      </c>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -7153,14 +6917,14 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>ESTRELLA</t>
-        </is>
-      </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="L41" s="10" t="inlineStr"/>
@@ -7207,7 +6971,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="C43" s="10" t="inlineStr"/>
@@ -7221,11 +6985,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -7281,16 +7041,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K45" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="J45" s="10" t="inlineStr"/>
+      <c r="K45" s="10" t="inlineStr"/>
       <c r="L45" s="10" t="inlineStr"/>
       <c r="M45" s="10" t="inlineStr"/>
       <c r="N45" s="10" t="inlineStr"/>
@@ -7365,11 +7117,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -7397,11 +7145,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -7429,7 +7173,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -7441,7 +7189,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="J50" s="11" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>YASMIN</t>
+        </is>
+      </c>
       <c r="K50" s="11" t="inlineStr"/>
       <c r="L50" s="11" t="inlineStr"/>
       <c r="M50" s="11" t="inlineStr"/>
@@ -7459,7 +7211,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -7500,7 +7252,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -7523,24 +7275,20 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BELINDA</t>
         </is>
       </c>
       <c r="K52" s="3" t="inlineStr">
         <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
           <t>ROCIO</t>
         </is>
       </c>
-      <c r="M52" s="5" t="inlineStr">
+      <c r="L52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -7555,7 +7303,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr"/>
@@ -7585,7 +7333,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -7597,7 +7349,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>JOSE</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -7615,12 +7371,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -7639,7 +7395,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>CELESTE</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="K55" s="10" t="inlineStr"/>
@@ -7659,24 +7415,12 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="C56" s="11" t="inlineStr"/>
+      <c r="D56" s="11" t="inlineStr"/>
+      <c r="E56" s="11" t="inlineStr"/>
       <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
@@ -7685,14 +7429,14 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
-        <is>
-          <t>ERIKAO</t>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
         </is>
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>NADIAU</t>
         </is>
       </c>
       <c r="L56" s="11" t="inlineStr"/>
@@ -7721,11 +7465,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -7755,7 +7495,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
+          <t>MIRIANM</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -7785,11 +7525,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -7817,7 +7553,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>AKEMI</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -7905,11 +7645,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -7937,11 +7673,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>LINDSAYF</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -7969,7 +7701,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>LINDSAYF</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -7999,7 +7735,7 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>ADRIANA</t>
+          <t>ANDYM</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr"/>
@@ -8036,7 +7772,7 @@
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
@@ -8075,7 +7811,7 @@
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t>JULISSA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr"/>
@@ -8105,7 +7841,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -8135,17 +7875,17 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>FIORELLA</t>
         </is>
       </c>
       <c r="M70" s="4" t="inlineStr">
@@ -8179,39 +7919,19 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
-        </is>
-      </c>
-      <c r="L71" s="4" t="inlineStr">
-        <is>
-          <t>VICTORQ</t>
-        </is>
-      </c>
-      <c r="M71" s="5" t="inlineStr">
-        <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="N71" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="L71" s="10" t="inlineStr"/>
+      <c r="M71" s="10" t="inlineStr"/>
+      <c r="N71" s="10" t="inlineStr"/>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
       <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
@@ -8325,22 +8045,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -8510,11 +8230,7 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -8578,11 +8294,7 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -8638,7 +8350,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -8668,11 +8380,7 @@
           <t>07:45</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="inlineStr"/>
       <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr"/>
       <c r="E10" s="11" t="inlineStr"/>
@@ -8732,7 +8440,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -8844,11 +8556,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -8876,7 +8584,11 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B17" s="10" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="C17" s="10" t="inlineStr"/>
       <c r="D17" s="10" t="inlineStr"/>
       <c r="E17" s="10" t="inlineStr"/>
@@ -8934,15 +8646,19 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -8973,11 +8689,7 @@
           <t>YOVANNA</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
+      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -9010,19 +8722,11 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="C21" s="10" t="inlineStr"/>
+      <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
       <c r="G21" s="10" t="inlineStr"/>
@@ -9050,15 +8754,19 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
           <t>MILAGROSI</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr"/>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="E22" s="11" t="inlineStr"/>
       <c r="F22" s="11" t="inlineStr"/>
       <c r="G22" s="11" t="inlineStr"/>
@@ -9092,21 +8800,9 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="10" t="inlineStr"/>
+      <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
@@ -9132,13 +8828,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>AKEMI</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>SAMANTHAG</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -9150,7 +8854,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -9168,16 +8872,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr"/>
       <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
@@ -9188,11 +8888,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="J25" s="10" t="inlineStr"/>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -9248,7 +8944,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="J27" s="10" t="inlineStr"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="K27" s="10" t="inlineStr"/>
       <c r="L27" s="10" t="inlineStr"/>
       <c r="M27" s="10" t="inlineStr"/>
@@ -9350,7 +9050,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C31" s="10" t="inlineStr"/>
@@ -9436,7 +9136,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -9450,15 +9154,19 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
-        </is>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+          <t>KEISYS</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="L34" s="11" t="inlineStr"/>
       <c r="M34" s="11" t="inlineStr"/>
       <c r="N34" s="11" t="inlineStr"/>
       <c r="O34" s="11" t="inlineStr"/>
@@ -9474,19 +9182,11 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+          <t>ERIKAO</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr"/>
+      <c r="D35" s="10" t="inlineStr"/>
       <c r="E35" s="10" t="inlineStr"/>
       <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
@@ -9521,11 +9221,7 @@
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C36" s="11" t="inlineStr"/>
       <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
@@ -9538,19 +9234,11 @@
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="L36" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="K36" s="11" t="inlineStr"/>
+      <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
       <c r="O36" s="11" t="inlineStr"/>
@@ -9566,19 +9254,15 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -9590,15 +9274,19 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
+          <t>ENZO</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
           <t>MILAGROSI</t>
         </is>
       </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
-      <c r="L37" s="10" t="inlineStr"/>
+      <c r="L37" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -9612,11 +9300,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -9628,16 +9312,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>BRINDY</t>
-        </is>
-      </c>
+      <c r="J38" s="11" t="inlineStr"/>
+      <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
@@ -9664,12 +9340,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
-      <c r="K39" s="10" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>SAMANTHAG</t>
+        </is>
+      </c>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -9686,7 +9366,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="C40" s="11" t="inlineStr"/>
@@ -9700,16 +9380,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="K40" s="11" t="inlineStr"/>
       <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
@@ -9726,14 +9402,10 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+          <t>NADIAU</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -9749,11 +9421,7 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -9798,7 +9466,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="C43" s="10" t="inlineStr"/>
@@ -9812,11 +9480,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -9890,7 +9554,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="C46" s="11" t="inlineStr"/>
@@ -9906,7 +9570,7 @@
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="K46" s="11" t="inlineStr"/>
@@ -9924,7 +9588,11 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="10" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -9956,11 +9624,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="B48" s="11" t="inlineStr"/>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -9988,11 +9652,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -10022,10 +9682,14 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C50" s="11" t="inlineStr"/>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
       <c r="F50" s="11" t="inlineStr"/>
@@ -10054,7 +9718,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr"/>
@@ -10073,11 +9737,7 @@
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="K51" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="K51" s="10" t="inlineStr"/>
       <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
@@ -10094,20 +9754,20 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
@@ -10122,24 +9782,16 @@
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="M52" s="5" t="inlineStr">
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
+      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -10152,7 +9804,11 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="10" t="inlineStr"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
@@ -10166,7 +9822,7 @@
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K53" s="10" t="inlineStr"/>
@@ -10184,11 +9840,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="B54" s="11" t="inlineStr"/>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -10218,12 +9870,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -10242,7 +9894,7 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>LINDSAYF</t>
+          <t>MIRIAN</t>
         </is>
       </c>
       <c r="K55" s="10" t="inlineStr"/>
@@ -10262,7 +9914,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>CRISTOPHERY</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
@@ -10275,16 +9927,8 @@
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
-        <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
-      <c r="F56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="E56" s="11" t="inlineStr"/>
+      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -10294,19 +9938,11 @@
       </c>
       <c r="J56" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+          <t>NADIAU</t>
+        </is>
+      </c>
+      <c r="K56" s="11" t="inlineStr"/>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -10362,7 +9998,7 @@
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
-          <t>BELINDA</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
@@ -10392,11 +10028,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -10424,7 +10056,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>AKEMI</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -10454,7 +10090,7 @@
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="K61" s="10" t="inlineStr"/>
@@ -10484,7 +10120,11 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="11" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -10512,11 +10152,7 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
+      <c r="J63" s="10" t="inlineStr"/>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -10544,11 +10180,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -10578,10 +10210,14 @@
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K65" s="10" t="inlineStr"/>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
       <c r="N65" s="10" t="inlineStr"/>
@@ -10610,7 +10246,7 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr"/>
@@ -10642,20 +10278,20 @@
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>ANDYM</t>
+          <t>BRYANR</t>
         </is>
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="M67" s="5" t="inlineStr">
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
@@ -10684,7 +10320,11 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="11" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
@@ -10712,11 +10352,7 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
+      <c r="J69" s="10" t="inlineStr"/>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -10746,20 +10382,24 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="L70" s="4" t="inlineStr">
+          <t>LINDSAYF</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
         </is>
       </c>
-      <c r="M70" s="11" t="inlineStr"/>
       <c r="N70" s="11" t="inlineStr"/>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
@@ -10786,12 +10426,12 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>CRISTOPHERY</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>ERIKAO</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
@@ -10804,26 +10444,10 @@
           <t>XIOMARA</t>
         </is>
       </c>
-      <c r="N71" s="5" t="inlineStr">
-        <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="N71" s="10" t="inlineStr"/>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
+      <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
@@ -10936,22 +10560,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="9" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
@@ -11116,11 +10740,7 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="C5" s="10" t="inlineStr"/>
       <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
@@ -11177,7 +10797,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -11185,16 +10805,12 @@
           <t>JUAN</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>SAMANTHAG</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -11249,7 +10865,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -11281,7 +10897,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
@@ -11341,7 +10957,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
@@ -11457,7 +11073,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ROCIO</t>
+          <t>MILAGROSI</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
@@ -11517,7 +11133,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr"/>
@@ -11549,15 +11165,19 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>JoseLuis</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr"/>
       <c r="E19" s="10" t="inlineStr"/>
       <c r="F19" s="10" t="inlineStr"/>
       <c r="G19" s="10" t="inlineStr"/>
@@ -11583,16 +11203,12 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>ERIKAO</t>
         </is>
       </c>
+      <c r="C20" s="11" t="inlineStr"/>
       <c r="D20" s="11" t="inlineStr"/>
       <c r="E20" s="11" t="inlineStr"/>
       <c r="F20" s="11" t="inlineStr"/>
@@ -11624,11 +11240,7 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -11657,17 +11269,17 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>LILIA</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>JEFFERSON</t>
+          <t>FEDERICOZ</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr"/>
@@ -11681,7 +11293,7 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>ADRIAN</t>
+          <t>ENZO</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
@@ -11689,9 +11301,9 @@
           <t>JUAN</t>
         </is>
       </c>
-      <c r="L22" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>SAMANTHAG</t>
         </is>
       </c>
       <c r="M22" s="11" t="inlineStr"/>
@@ -11709,14 +11321,10 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+          <t>BRINDY</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr"/>
       <c r="D23" s="10" t="inlineStr"/>
       <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
@@ -11745,10 +11353,14 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
+          <t>AKEMI</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>XIOMARA</t>
+        </is>
+      </c>
       <c r="D24" s="11" t="inlineStr"/>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
@@ -11761,7 +11373,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -11781,12 +11393,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
           <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -11805,7 +11417,7 @@
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>ADRIAN</t>
         </is>
       </c>
       <c r="K25" s="10" t="inlineStr"/>
@@ -11851,11 +11463,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -11869,7 +11477,7 @@
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t>ENZO</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K27" s="10" t="inlineStr"/>
@@ -11983,7 +11591,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="J31" s="10" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
       <c r="K31" s="10" t="inlineStr"/>
       <c r="L31" s="10" t="inlineStr"/>
       <c r="M31" s="10" t="inlineStr"/>
@@ -12041,7 +11653,7 @@
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="K33" s="10" t="inlineStr"/>
@@ -12059,7 +11671,11 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -12091,31 +11707,15 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>JORDAN</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>LIZBET</t>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr"/>
+      <c r="D35" s="10" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr"/>
+      <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
@@ -12123,11 +11723,7 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>EMIR</t>
-        </is>
-      </c>
+      <c r="J35" s="10" t="inlineStr"/>
       <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
@@ -12145,19 +11741,11 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="C36" s="11" t="inlineStr"/>
+      <c r="D36" s="11" t="inlineStr"/>
       <c r="E36" s="11" t="inlineStr"/>
       <c r="F36" s="11" t="inlineStr"/>
       <c r="G36" s="11" t="inlineStr"/>
@@ -12172,11 +11760,7 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="K36" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
+      <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -12196,16 +11780,12 @@
           <t>BELINDA</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
       <c r="G37" s="10" t="inlineStr"/>
@@ -12217,19 +11797,15 @@
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
-        <is>
-          <t>JEFFERSON</t>
-        </is>
-      </c>
+          <t>LUCERO</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>FEDERICOZ</t>
+        </is>
+      </c>
+      <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
       <c r="O37" s="10" t="inlineStr"/>
@@ -12257,7 +11833,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>BRINDY</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr"/>
@@ -12289,7 +11865,7 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
+          <t>XIOMARA</t>
         </is>
       </c>
       <c r="K39" s="10" t="inlineStr"/>
@@ -12309,12 +11885,12 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
           <t>JOSELYN</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
         </is>
       </c>
       <c r="D40" s="11" t="inlineStr"/>
@@ -12329,12 +11905,12 @@
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
           <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
         </is>
       </c>
       <c r="L40" s="4" t="inlineStr">
@@ -12357,14 +11933,10 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+          <t>NADIAU</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr"/>
       <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
@@ -12380,11 +11952,7 @@
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -12399,11 +11967,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="B42" s="11" t="inlineStr"/>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -12415,11 +11979,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
+      <c r="J42" s="11" t="inlineStr"/>
       <c r="K42" s="11" t="inlineStr"/>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
@@ -12447,11 +12007,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -12495,7 +12051,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B45" s="10" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
       <c r="C45" s="10" t="inlineStr"/>
       <c r="D45" s="10" t="inlineStr"/>
       <c r="E45" s="10" t="inlineStr"/>
@@ -12639,11 +12199,7 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="B50" s="11" t="inlineStr"/>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -12673,10 +12229,14 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="inlineStr"/>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="D51" s="10" t="inlineStr"/>
       <c r="E51" s="10" t="inlineStr"/>
       <c r="F51" s="10" t="inlineStr"/>
@@ -12689,19 +12249,11 @@
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr">
-        <is>
           <t>YASMIN</t>
         </is>
       </c>
-      <c r="L51" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
+      <c r="K51" s="10" t="inlineStr"/>
+      <c r="L51" s="10" t="inlineStr"/>
       <c r="M51" s="10" t="inlineStr"/>
       <c r="N51" s="10" t="inlineStr"/>
       <c r="O51" s="10" t="inlineStr"/>
@@ -12722,19 +12274,15 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="E52" s="5" t="inlineStr">
+          <t>JULISSA</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
       <c r="H52" s="11" t="inlineStr"/>
@@ -12748,21 +12296,13 @@
           <t>BELINDA</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>ROCIO</t>
-        </is>
-      </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
-      <c r="M52" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
+      <c r="L52" s="11" t="inlineStr"/>
+      <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
       <c r="O52" s="11" t="inlineStr"/>
       <c r="P52" s="11" t="inlineStr"/>
@@ -12777,7 +12317,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSR</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="C53" s="10" t="inlineStr"/>
@@ -12807,7 +12347,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -12819,7 +12363,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="11" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -12837,16 +12385,24 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
-        </is>
-      </c>
-      <c r="D55" s="10" t="inlineStr"/>
-      <c r="E55" s="10" t="inlineStr"/>
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
       <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
@@ -12857,15 +12413,19 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
           <t>JOSELYN</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>LILIA</t>
-        </is>
-      </c>
-      <c r="L55" s="10" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
+        </is>
+      </c>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -12881,22 +12441,22 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>CRISTOPHERY</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
+          <t>JEFFERSON</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>VICTORQ</t>
         </is>
       </c>
       <c r="F56" s="11" t="inlineStr"/>
@@ -12914,14 +12474,10 @@
       </c>
       <c r="K56" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+          <t>NADIAU</t>
+        </is>
+      </c>
+      <c r="L56" s="11" t="inlineStr"/>
       <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
@@ -12947,11 +12503,7 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>MARICRUZ</t>
-        </is>
-      </c>
+      <c r="J57" s="10" t="inlineStr"/>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -12979,7 +12531,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>LILIA</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -13007,11 +12563,7 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
       <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
@@ -13039,8 +12591,16 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
-      <c r="K60" s="11" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
+        <is>
+          <t>AKEMI</t>
+        </is>
+      </c>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
       <c r="N60" s="11" t="inlineStr"/>
@@ -13183,11 +12743,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="J65" s="10" t="inlineStr"/>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -13217,10 +12773,14 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
-      <c r="K66" s="11" t="inlineStr"/>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>YASSER</t>
+        </is>
+      </c>
       <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
@@ -13254,24 +12814,20 @@
       </c>
       <c r="K67" s="3" t="inlineStr">
         <is>
-          <t>ANTHONY</t>
+          <t>JULISSA</t>
         </is>
       </c>
       <c r="L67" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>RAUL</t>
-        </is>
-      </c>
-      <c r="N67" s="5" t="inlineStr">
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
+      <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
       <c r="Q67" s="10" t="inlineStr"/>
@@ -13323,7 +12879,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -13353,25 +12913,29 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
+          <t>LINDSAYF</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JHOSSEP</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
-      <c r="N70" s="11" t="inlineStr"/>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>NORITH</t>
+        </is>
+      </c>
       <c r="O70" s="11" t="inlineStr"/>
       <c r="P70" s="11" t="inlineStr"/>
       <c r="Q70" s="11" t="inlineStr"/>
@@ -13397,44 +12961,32 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ANTONY</t>
+          <t>CRISTOPHERY</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>JEFFERSON</t>
         </is>
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
-          <t>MARCO</t>
+          <t>LIZBET</t>
         </is>
       </c>
       <c r="M71" s="4" t="inlineStr">
         <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="N71" s="5" t="inlineStr">
-        <is>
           <t>ROSARIOC</t>
         </is>
       </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>VICTORQ</t>
+        </is>
+      </c>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
+      <c r="Q71" s="10" t="inlineStr"/>
       <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
@@ -13547,23 +13099,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13732,11 +13284,7 @@
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="D5" s="10" t="inlineStr"/>
       <c r="E5" s="10" t="inlineStr"/>
       <c r="F5" s="10" t="inlineStr"/>
       <c r="G5" s="10" t="inlineStr"/>
@@ -13792,7 +13340,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MILAGROS</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -13800,11 +13348,7 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="inlineStr"/>
       <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
@@ -13860,7 +13404,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr"/>
@@ -13892,7 +13436,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>MIRLA</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
@@ -13924,14 +13468,10 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+          <t>YOVANNA</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -13986,11 +13526,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="10" t="inlineStr"/>
       <c r="D13" s="10" t="inlineStr"/>
       <c r="E13" s="10" t="inlineStr"/>
@@ -14018,7 +13554,11 @@
           <t>08:45</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROS</t>
+        </is>
+      </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr"/>
@@ -14048,14 +13588,10 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
+          <t>ROCIO</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -14112,7 +13648,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr"/>
@@ -14142,7 +13678,11 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="C18" s="11" t="inlineStr"/>
       <c r="D18" s="11" t="inlineStr"/>
       <c r="E18" s="11" t="inlineStr"/>
@@ -14172,12 +13712,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>JORDAN</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -14212,7 +13752,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>KEISYS</t>
+          <t>VENUSR</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -14255,11 +13795,7 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="C21" s="10" t="inlineStr"/>
       <c r="D21" s="10" t="inlineStr"/>
       <c r="E21" s="10" t="inlineStr"/>
       <c r="F21" s="10" t="inlineStr"/>
@@ -14288,7 +13824,7 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>KAREN</t>
+          <t>NICOLAS</t>
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
@@ -14329,19 +13865,11 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr"/>
+      <c r="E23" s="10" t="inlineStr"/>
       <c r="F23" s="10" t="inlineStr"/>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="10" t="inlineStr"/>
@@ -14366,13 +13894,21 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="11" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>AKEMI</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="E24" s="11" t="inlineStr"/>
       <c r="F24" s="11" t="inlineStr"/>
       <c r="G24" s="11" t="inlineStr"/>
@@ -14384,7 +13920,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>KELLY</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr"/>
@@ -14404,19 +13940,11 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr"/>
+      <c r="D25" s="10" t="inlineStr"/>
       <c r="E25" s="10" t="inlineStr"/>
       <c r="F25" s="10" t="inlineStr"/>
       <c r="G25" s="10" t="inlineStr"/>
@@ -14426,7 +13954,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="J25" s="10" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>MIRLA</t>
+        </is>
+      </c>
       <c r="K25" s="10" t="inlineStr"/>
       <c r="L25" s="10" t="inlineStr"/>
       <c r="M25" s="10" t="inlineStr"/>
@@ -14456,7 +13988,7 @@
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>YOVANNA</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr"/>
@@ -14474,7 +14006,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B27" s="10" t="inlineStr"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
       <c r="C27" s="10" t="inlineStr"/>
       <c r="D27" s="10" t="inlineStr"/>
       <c r="E27" s="10" t="inlineStr"/>
@@ -14514,11 +14050,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>ADRIAN</t>
-        </is>
-      </c>
+      <c r="J28" s="11" t="inlineStr"/>
       <c r="K28" s="11" t="inlineStr"/>
       <c r="L28" s="11" t="inlineStr"/>
       <c r="M28" s="11" t="inlineStr"/>
@@ -14534,11 +14066,7 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="B29" s="10" t="inlineStr"/>
       <c r="C29" s="10" t="inlineStr"/>
       <c r="D29" s="10" t="inlineStr"/>
       <c r="E29" s="10" t="inlineStr"/>
@@ -14566,11 +14094,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
+      <c r="B30" s="11" t="inlineStr"/>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="11" t="inlineStr"/>
       <c r="E30" s="11" t="inlineStr"/>
@@ -14582,11 +14106,7 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>BRYANR</t>
-        </is>
-      </c>
+      <c r="J30" s="11" t="inlineStr"/>
       <c r="K30" s="11" t="inlineStr"/>
       <c r="L30" s="11" t="inlineStr"/>
       <c r="M30" s="11" t="inlineStr"/>
@@ -14602,7 +14122,11 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B31" s="10" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
       <c r="C31" s="10" t="inlineStr"/>
       <c r="D31" s="10" t="inlineStr"/>
       <c r="E31" s="10" t="inlineStr"/>
@@ -14644,7 +14168,7 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>JORDAN</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
@@ -14662,7 +14186,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B33" s="10" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="C33" s="10" t="inlineStr"/>
       <c r="D33" s="10" t="inlineStr"/>
       <c r="E33" s="10" t="inlineStr"/>
@@ -14674,7 +14202,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="J33" s="10" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="K33" s="10" t="inlineStr"/>
       <c r="L33" s="10" t="inlineStr"/>
       <c r="M33" s="10" t="inlineStr"/>
@@ -14690,11 +14222,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>FIORELLA</t>
-        </is>
-      </c>
+      <c r="B34" s="11" t="inlineStr"/>
       <c r="C34" s="11" t="inlineStr"/>
       <c r="D34" s="11" t="inlineStr"/>
       <c r="E34" s="11" t="inlineStr"/>
@@ -14708,7 +14236,7 @@
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>YOVANNA</t>
+          <t>MARICRUZ</t>
         </is>
       </c>
       <c r="K34" s="4" t="inlineStr">
@@ -14730,31 +14258,15 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>YASMIN</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>ENRIQUE</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>LIZBET</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="C35" s="10" t="inlineStr"/>
+      <c r="D35" s="10" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr"/>
+      <c r="F35" s="10" t="inlineStr"/>
       <c r="G35" s="10" t="inlineStr"/>
       <c r="H35" s="10" t="inlineStr"/>
       <c r="I35" s="10" t="inlineStr">
@@ -14762,11 +14274,7 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>KEISYS</t>
-        </is>
-      </c>
+      <c r="J35" s="10" t="inlineStr"/>
       <c r="K35" s="10" t="inlineStr"/>
       <c r="L35" s="10" t="inlineStr"/>
       <c r="M35" s="10" t="inlineStr"/>
@@ -14799,11 +14307,7 @@
           <t>CYNTHIA</t>
         </is>
       </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSI</t>
-        </is>
-      </c>
+      <c r="K36" s="11" t="inlineStr"/>
       <c r="L36" s="11" t="inlineStr"/>
       <c r="M36" s="11" t="inlineStr"/>
       <c r="N36" s="11" t="inlineStr"/>
@@ -14818,16 +14322,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="C37" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>FEDERICOZ</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr"/>
       <c r="D37" s="10" t="inlineStr"/>
       <c r="E37" s="10" t="inlineStr"/>
       <c r="F37" s="10" t="inlineStr"/>
@@ -14838,16 +14338,12 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROS</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>KAREN</t>
-        </is>
-      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>NICOLAS</t>
+        </is>
+      </c>
+      <c r="K37" s="10" t="inlineStr"/>
       <c r="L37" s="10" t="inlineStr"/>
       <c r="M37" s="10" t="inlineStr"/>
       <c r="N37" s="10" t="inlineStr"/>
@@ -14862,11 +14358,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="B38" s="11" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr"/>
       <c r="D38" s="11" t="inlineStr"/>
       <c r="E38" s="11" t="inlineStr"/>
@@ -14883,16 +14375,8 @@
           <t>BRINDY</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>MIRIANM</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>MIRLA</t>
-        </is>
-      </c>
+      <c r="K38" s="11" t="inlineStr"/>
+      <c r="L38" s="11" t="inlineStr"/>
       <c r="M38" s="11" t="inlineStr"/>
       <c r="N38" s="11" t="inlineStr"/>
       <c r="O38" s="11" t="inlineStr"/>
@@ -14906,11 +14390,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="10" t="inlineStr"/>
       <c r="D39" s="10" t="inlineStr"/>
       <c r="E39" s="10" t="inlineStr"/>
@@ -14922,12 +14402,16 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="K39" s="10" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>MIRIANM</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr">
+        <is>
+          <t>ANDRE</t>
+        </is>
+      </c>
       <c r="L39" s="10" t="inlineStr"/>
       <c r="M39" s="10" t="inlineStr"/>
       <c r="N39" s="10" t="inlineStr"/>
@@ -14944,10 +14428,14 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
           <t>LINDSAYF</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr"/>
       <c r="D40" s="11" t="inlineStr"/>
       <c r="E40" s="11" t="inlineStr"/>
       <c r="F40" s="11" t="inlineStr"/>
@@ -14960,19 +14448,11 @@
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>YASSER</t>
-        </is>
-      </c>
-      <c r="K40" s="4" t="inlineStr">
-        <is>
-          <t>NAYELI</t>
-        </is>
-      </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>ANDRE</t>
-        </is>
-      </c>
+          <t>MIRIAN</t>
+        </is>
+      </c>
+      <c r="K40" s="11" t="inlineStr"/>
+      <c r="L40" s="11" t="inlineStr"/>
       <c r="M40" s="11" t="inlineStr"/>
       <c r="N40" s="11" t="inlineStr"/>
       <c r="O40" s="11" t="inlineStr"/>
@@ -14988,19 +14468,11 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+          <t>NADIAU</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr"/>
+      <c r="D41" s="10" t="inlineStr"/>
       <c r="E41" s="10" t="inlineStr"/>
       <c r="F41" s="10" t="inlineStr"/>
       <c r="G41" s="10" t="inlineStr"/>
@@ -15015,11 +14487,7 @@
           <t>ERIKAO</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
-        <is>
-          <t>ROMINA</t>
-        </is>
-      </c>
+      <c r="K41" s="10" t="inlineStr"/>
       <c r="L41" s="10" t="inlineStr"/>
       <c r="M41" s="10" t="inlineStr"/>
       <c r="N41" s="10" t="inlineStr"/>
@@ -15034,7 +14502,11 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
       <c r="C42" s="11" t="inlineStr"/>
       <c r="D42" s="11" t="inlineStr"/>
       <c r="E42" s="11" t="inlineStr"/>
@@ -15046,8 +14518,16 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="J42" s="11" t="inlineStr"/>
-      <c r="K42" s="11" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>MILAGROSI</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>ANDREA</t>
+        </is>
+      </c>
       <c r="L42" s="11" t="inlineStr"/>
       <c r="M42" s="11" t="inlineStr"/>
       <c r="N42" s="11" t="inlineStr"/>
@@ -15074,11 +14554,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
+      <c r="J43" s="10" t="inlineStr"/>
       <c r="K43" s="10" t="inlineStr"/>
       <c r="L43" s="10" t="inlineStr"/>
       <c r="M43" s="10" t="inlineStr"/>
@@ -15094,11 +14570,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
+      <c r="B44" s="11" t="inlineStr"/>
       <c r="C44" s="11" t="inlineStr"/>
       <c r="D44" s="11" t="inlineStr"/>
       <c r="E44" s="11" t="inlineStr"/>
@@ -15166,11 +14638,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>ASTRID</t>
-        </is>
-      </c>
+      <c r="J46" s="11" t="inlineStr"/>
       <c r="K46" s="11" t="inlineStr"/>
       <c r="L46" s="11" t="inlineStr"/>
       <c r="M46" s="11" t="inlineStr"/>
@@ -15186,11 +14654,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="10" t="inlineStr"/>
       <c r="D47" s="10" t="inlineStr"/>
       <c r="E47" s="10" t="inlineStr"/>
@@ -15202,11 +14666,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+      <c r="J47" s="10" t="inlineStr"/>
       <c r="K47" s="10" t="inlineStr"/>
       <c r="L47" s="10" t="inlineStr"/>
       <c r="M47" s="10" t="inlineStr"/>
@@ -15222,7 +14682,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="C48" s="11" t="inlineStr"/>
       <c r="D48" s="11" t="inlineStr"/>
       <c r="E48" s="11" t="inlineStr"/>
@@ -15234,7 +14698,11 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="J48" s="11" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>BELINDA</t>
+        </is>
+      </c>
       <c r="K48" s="11" t="inlineStr"/>
       <c r="L48" s="11" t="inlineStr"/>
       <c r="M48" s="11" t="inlineStr"/>
@@ -15250,11 +14718,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="10" t="inlineStr"/>
       <c r="D49" s="10" t="inlineStr"/>
       <c r="E49" s="10" t="inlineStr"/>
@@ -15266,11 +14730,7 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>VENUSR</t>
-        </is>
-      </c>
+      <c r="J49" s="10" t="inlineStr"/>
       <c r="K49" s="10" t="inlineStr"/>
       <c r="L49" s="10" t="inlineStr"/>
       <c r="M49" s="10" t="inlineStr"/>
@@ -15286,7 +14746,11 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="C50" s="11" t="inlineStr"/>
       <c r="D50" s="11" t="inlineStr"/>
       <c r="E50" s="11" t="inlineStr"/>
@@ -15300,7 +14764,7 @@
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>YASMIN</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="K50" s="11" t="inlineStr"/>
@@ -15320,7 +14784,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -15338,9 +14802,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>ROCIO</t>
         </is>
       </c>
       <c r="K51" s="10" t="inlineStr"/>
@@ -15363,12 +14827,16 @@
           <t>ANDYM</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr"/>
       <c r="E52" s="11" t="inlineStr"/>
       <c r="F52" s="11" t="inlineStr"/>
       <c r="G52" s="11" t="inlineStr"/>
@@ -15378,16 +14846,12 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>SHADIA</t>
-        </is>
-      </c>
-      <c r="K52" s="5" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>FEDERICOZ</t>
+        </is>
+      </c>
+      <c r="K52" s="11" t="inlineStr"/>
       <c r="L52" s="11" t="inlineStr"/>
       <c r="M52" s="11" t="inlineStr"/>
       <c r="N52" s="11" t="inlineStr"/>
@@ -15402,16 +14866,8 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="B53" s="10" t="inlineStr"/>
+      <c r="C53" s="10" t="inlineStr"/>
       <c r="D53" s="10" t="inlineStr"/>
       <c r="E53" s="10" t="inlineStr"/>
       <c r="F53" s="10" t="inlineStr"/>
@@ -15422,11 +14878,7 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>BELINDA</t>
-        </is>
-      </c>
+      <c r="J53" s="10" t="inlineStr"/>
       <c r="K53" s="10" t="inlineStr"/>
       <c r="L53" s="10" t="inlineStr"/>
       <c r="M53" s="10" t="inlineStr"/>
@@ -15442,7 +14894,11 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="C54" s="11" t="inlineStr"/>
       <c r="D54" s="11" t="inlineStr"/>
       <c r="E54" s="11" t="inlineStr"/>
@@ -15454,11 +14910,7 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>DALESKA</t>
-        </is>
-      </c>
+      <c r="J54" s="11" t="inlineStr"/>
       <c r="K54" s="11" t="inlineStr"/>
       <c r="L54" s="11" t="inlineStr"/>
       <c r="M54" s="11" t="inlineStr"/>
@@ -15476,25 +14928,29 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
+          <t>MARCO</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>MAFER</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>NORITH</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr"/>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="10" t="inlineStr"/>
       <c r="I55" s="10" t="inlineStr">
@@ -15504,15 +14960,19 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
+          <t>ADRIANA</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>JORDAN</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
           <t>LINDSAYF</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr">
-        <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="L55" s="10" t="inlineStr"/>
       <c r="M55" s="10" t="inlineStr"/>
       <c r="N55" s="10" t="inlineStr"/>
       <c r="O55" s="10" t="inlineStr"/>
@@ -15528,29 +14988,21 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
+          <t>CRISTOPHERY</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
           <t>VICTORQ</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="F56" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
+      <c r="E56" s="11" t="inlineStr"/>
+      <c r="F56" s="11" t="inlineStr"/>
       <c r="G56" s="11" t="inlineStr"/>
       <c r="H56" s="11" t="inlineStr"/>
       <c r="I56" s="11" t="inlineStr">
@@ -15558,26 +15010,22 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>VENUSR</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
         <is>
           <t>ESTRELLA</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
-        <is>
-          <t>MIGUEL</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>JAIME</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
-        <is>
-          <t>YENNIFER</t>
-        </is>
-      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>NADIAU</t>
+        </is>
+      </c>
+      <c r="M56" s="11" t="inlineStr"/>
       <c r="N56" s="11" t="inlineStr"/>
       <c r="O56" s="11" t="inlineStr"/>
       <c r="P56" s="11" t="inlineStr"/>
@@ -15602,7 +15050,11 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="J57" s="10" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>BRYANR</t>
+        </is>
+      </c>
       <c r="K57" s="10" t="inlineStr"/>
       <c r="L57" s="10" t="inlineStr"/>
       <c r="M57" s="10" t="inlineStr"/>
@@ -15630,7 +15082,11 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="J58" s="11" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr"/>
       <c r="M58" s="11" t="inlineStr"/>
@@ -15658,16 +15114,8 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>MAFER</t>
-        </is>
-      </c>
-      <c r="K59" s="4" t="inlineStr">
-        <is>
-          <t>AKEMI</t>
-        </is>
-      </c>
+      <c r="J59" s="10" t="inlineStr"/>
+      <c r="K59" s="10" t="inlineStr"/>
       <c r="L59" s="10" t="inlineStr"/>
       <c r="M59" s="10" t="inlineStr"/>
       <c r="N59" s="10" t="inlineStr"/>
@@ -15694,7 +15142,11 @@
           <t>20:15</t>
         </is>
       </c>
-      <c r="J60" s="11" t="inlineStr"/>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>AKEMI</t>
+        </is>
+      </c>
       <c r="K60" s="11" t="inlineStr"/>
       <c r="L60" s="11" t="inlineStr"/>
       <c r="M60" s="11" t="inlineStr"/>
@@ -15750,11 +15202,7 @@
           <t>20:45</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>JOSE</t>
-        </is>
-      </c>
+      <c r="J62" s="11" t="inlineStr"/>
       <c r="K62" s="11" t="inlineStr"/>
       <c r="L62" s="11" t="inlineStr"/>
       <c r="M62" s="11" t="inlineStr"/>
@@ -15782,7 +15230,11 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="J63" s="10" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>ANTHONY</t>
+        </is>
+      </c>
       <c r="K63" s="10" t="inlineStr"/>
       <c r="L63" s="10" t="inlineStr"/>
       <c r="M63" s="10" t="inlineStr"/>
@@ -15810,11 +15262,7 @@
           <t>21:15</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>ADRIANA</t>
-        </is>
-      </c>
+      <c r="J64" s="11" t="inlineStr"/>
       <c r="K64" s="11" t="inlineStr"/>
       <c r="L64" s="11" t="inlineStr"/>
       <c r="M64" s="11" t="inlineStr"/>
@@ -15842,7 +15290,11 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="J65" s="10" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>KEISYS</t>
+        </is>
+      </c>
       <c r="K65" s="10" t="inlineStr"/>
       <c r="L65" s="10" t="inlineStr"/>
       <c r="M65" s="10" t="inlineStr"/>
@@ -15872,19 +15324,15 @@
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>MARICRUZ</t>
+          <t>JOSELYN</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
-      <c r="L66" s="3" t="inlineStr">
-        <is>
           <t>RAUL</t>
         </is>
       </c>
+      <c r="L66" s="11" t="inlineStr"/>
       <c r="M66" s="11" t="inlineStr"/>
       <c r="N66" s="11" t="inlineStr"/>
       <c r="O66" s="11" t="inlineStr"/>
@@ -15915,13 +15363,21 @@
           <t>ANDYM</t>
         </is>
       </c>
-      <c r="K67" s="5" t="inlineStr">
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>FIORELLA</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>SHADIA</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
         <is>
           <t>JEFFERSON</t>
         </is>
       </c>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr"/>
       <c r="N67" s="10" t="inlineStr"/>
       <c r="O67" s="10" t="inlineStr"/>
       <c r="P67" s="10" t="inlineStr"/>
@@ -15946,16 +15402,8 @@
           <t>22:15</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr">
-        <is>
-          <t>JULISSA</t>
-        </is>
-      </c>
-      <c r="K68" s="3" t="inlineStr">
-        <is>
-          <t>CELESTE</t>
-        </is>
-      </c>
+      <c r="J68" s="11" t="inlineStr"/>
+      <c r="K68" s="11" t="inlineStr"/>
       <c r="L68" s="11" t="inlineStr"/>
       <c r="M68" s="11" t="inlineStr"/>
       <c r="N68" s="11" t="inlineStr"/>
@@ -15982,7 +15430,11 @@
           <t>22:30</t>
         </is>
       </c>
-      <c r="J69" s="10" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>JULISSA</t>
+        </is>
+      </c>
       <c r="K69" s="10" t="inlineStr"/>
       <c r="L69" s="10" t="inlineStr"/>
       <c r="M69" s="10" t="inlineStr"/>
@@ -16012,22 +15464,22 @@
       </c>
       <c r="J70" s="3" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>JHOSSEPI</t>
         </is>
       </c>
       <c r="K70" s="3" t="inlineStr">
         <is>
-          <t>JOSELYN</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="L70" s="3" t="inlineStr">
         <is>
-          <t>MIRIAN</t>
+          <t>MARCO</t>
         </is>
       </c>
       <c r="M70" s="3" t="inlineStr">
         <is>
-          <t>FIORELLA</t>
+          <t>MAFER</t>
         </is>
       </c>
       <c r="N70" s="4" t="inlineStr">
@@ -16060,7 +15512,7 @@
       </c>
       <c r="J71" s="4" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>CRISTOPHERY</t>
         </is>
       </c>
       <c r="K71" s="4" t="inlineStr">
@@ -16070,39 +15522,19 @@
       </c>
       <c r="L71" s="4" t="inlineStr">
         <is>
+          <t>ROSARIOC</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
           <t>VICTORQ</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
-        <is>
-          <t>XIOMARA</t>
-        </is>
-      </c>
-      <c r="N71" s="5" t="inlineStr">
-        <is>
-          <t>ROSARIOC</t>
-        </is>
-      </c>
-      <c r="O71" s="7" t="inlineStr">
-        <is>
-          <t>ALEJANDRO</t>
-        </is>
-      </c>
-      <c r="P71" s="7" t="inlineStr">
-        <is>
-          <t>GUSTAVO</t>
-        </is>
-      </c>
-      <c r="Q71" s="7" t="inlineStr">
-        <is>
-          <t>LOURDES</t>
-        </is>
-      </c>
-      <c r="R71" s="7" t="inlineStr">
-        <is>
-          <t>MOISES</t>
-        </is>
-      </c>
+      <c r="N71" s="10" t="inlineStr"/>
+      <c r="O71" s="10" t="inlineStr"/>
+      <c r="P71" s="10" t="inlineStr"/>
+      <c r="Q71" s="10" t="inlineStr"/>
+      <c r="R71" s="8" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
@@ -16214,23 +15646,23 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16391,12 +15823,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
+          <t>MILAGROS</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>ERIKAO</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr"/>
@@ -16455,7 +15887,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MIRLA</t>
+          <t>LUCERO</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -16463,16 +15895,8 @@
           <t>ABIGAILH</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>FIORELA</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>ROSARIO</t>
-        </is>
-      </c>
+      <c r="D7" s="10" t="inlineStr"/>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr"/>
       <c r="G7" s="10" t="inlineStr"/>
       <c r="H7" s="10" t="inlineStr"/>
@@ -16527,14 +15951,10 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>JESSICA</t>
-        </is>
-      </c>
+          <t>SAMANTHAG</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr"/>
       <c r="D9" s="10" t="inlineStr"/>
       <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr"/>
@@ -16591,14 +16011,10 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ANDREA</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>YOVANNA</t>
-        </is>
-      </c>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr"/>
       <c r="D11" s="10" t="inlineStr"/>
       <c r="E11" s="10" t="inlineStr"/>
       <c r="F11" s="10" t="inlineStr"/>
@@ -16625,7 +16041,11 @@
           <t>08:15</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>ADRIAN</t>
+        </is>
+      </c>
       <c r="C12" s="11" t="inlineStr"/>
       <c r="D12" s="11" t="inlineStr"/>
       <c r="E12" s="11" t="inlineStr"/>
@@ -16683,7 +16103,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ASTRID</t>
+          <t>ANDREA</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr"/>
@@ -16713,16 +16133,8 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>LUCERO</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>ANTONY</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="inlineStr"/>
+      <c r="C15" s="10" t="inlineStr"/>
       <c r="D15" s="10" t="inlineStr"/>
       <c r="E15" s="10" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr"/>
@@ -16749,11 +16161,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>MILAGROSR</t>
-        </is>
-      </c>
+      <c r="B16" s="11" t="inlineStr"/>
       <c r="C16" s="11" t="inlineStr"/>
       <c r="D16" s="11" t="inlineStr"/>
       <c r="E16" s="11" t="inlineStr"/>
@@ -16781,8 +16189,16 @@
           <t>09:30</t>
         </is>
       </c>
-      <c